--- a/ADMA.xlsx
+++ b/ADMA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBE5B33-B36D-4B5C-892C-3EA0272271BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0FA22B-F11A-466F-98A2-ECB1DBB430AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25920" yWindow="90" windowWidth="25785" windowHeight="20700" activeTab="1" xr2:uid="{C805B1BA-B66D-4BA0-8D01-D55633D0E2D4}"/>
+    <workbookView xWindow="-50445" yWindow="7815" windowWidth="27480" windowHeight="18705" xr2:uid="{C805B1BA-B66D-4BA0-8D01-D55633D0E2D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -510,32 +510,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -939,7 +932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B465B17E-8CAF-402D-804E-49EB209CC6AE}">
   <dimension ref="B2:M9"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -948,22 +941,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20"/>
       <c r="K2" t="s">
         <v>0</v>
       </c>
@@ -972,123 +965,89 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
+      <c r="I3" s="14"/>
       <c r="K3" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="11">
         <v>242</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
+      <c r="I4" s="14"/>
       <c r="K4" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="11">
         <f>+L2*L3</f>
         <v>4789.1799999999994</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
+      <c r="B5" s="13"/>
+      <c r="I5" s="14"/>
       <c r="K5" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="11">
         <v>88</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
+      <c r="B6" s="13"/>
+      <c r="I6" s="14"/>
       <c r="K6" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="11">
         <v>131</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
+      <c r="B7" s="13"/>
+      <c r="I7" s="14"/>
       <c r="K7" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="11">
         <f>+L4-L5+L6</f>
         <v>4832.1799999999994</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
+      <c r="B8" s="13"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1099,11 +1058,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FCB23D-CE21-4A3B-B18A-E37ACD1D9607}">
   <dimension ref="A1:HV40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BR3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="BJ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BZ3" sqref="BZ3"/>
+      <selection pane="bottomRight" activeCell="BP5" sqref="BP5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1286,10 +1245,10 @@
       <c r="BD2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="BE2" s="9" t="s">
+      <c r="BE2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BF2" s="9" t="s">
+      <c r="BF2" s="4" t="s">
         <v>76</v>
       </c>
       <c r="BK2" s="2">
@@ -1323,3577 +1282,3577 @@
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="BS2" s="6">
+      <c r="BS2">
         <f>+BR2+1</f>
         <v>2028</v>
       </c>
-      <c r="BT2" s="6">
+      <c r="BT2">
         <f t="shared" ref="BT2:BU2" si="1">+BS2+1</f>
         <v>2029</v>
       </c>
-      <c r="BU2" s="6">
+      <c r="BU2">
         <f t="shared" si="1"/>
         <v>2030</v>
       </c>
-      <c r="BV2" s="6">
+      <c r="BV2">
         <f t="shared" ref="BV2:BZ2" si="2">+BU2+1</f>
         <v>2031</v>
       </c>
-      <c r="BW2" s="6">
+      <c r="BW2">
         <f t="shared" si="2"/>
         <v>2032</v>
       </c>
-      <c r="BX2" s="6">
+      <c r="BX2">
         <f t="shared" si="2"/>
         <v>2033</v>
       </c>
-      <c r="BY2" s="6">
+      <c r="BY2">
         <f t="shared" si="2"/>
         <v>2034</v>
       </c>
-      <c r="BZ2" s="6">
+      <c r="BZ2">
         <f t="shared" si="2"/>
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:230" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="1:230" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="11">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11">
-        <v>0</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
-      <c r="F3" s="11">
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
         <v>0.8</v>
       </c>
-      <c r="G3" s="11">
-        <v>0</v>
-      </c>
-      <c r="H3" s="11">
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
         <v>0.2</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="9">
         <v>0.4</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="9">
         <v>0.5</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="9">
         <v>0.8</v>
       </c>
-      <c r="L3" s="11">
-        <v>0</v>
-      </c>
-      <c r="M3" s="11">
-        <v>0</v>
-      </c>
-      <c r="N3" s="11">
+      <c r="L3" s="9">
+        <v>0</v>
+      </c>
+      <c r="M3" s="9">
+        <v>0</v>
+      </c>
+      <c r="N3" s="9">
         <v>2.2000000000000002</v>
       </c>
-      <c r="O3" s="11">
-        <v>0</v>
-      </c>
-      <c r="P3" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="11">
+      <c r="O3" s="9">
+        <v>0</v>
+      </c>
+      <c r="P3" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="9">
         <v>-1.3</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="9">
         <v>7.2</v>
       </c>
-      <c r="S3" s="11">
+      <c r="S3" s="9">
         <v>-1.5</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="9">
         <v>-1.3</v>
       </c>
-      <c r="U3" s="11">
+      <c r="U3" s="9">
         <v>-1.8</v>
       </c>
-      <c r="V3" s="11">
+      <c r="V3" s="9">
         <v>11.7</v>
       </c>
-      <c r="W3" s="11">
+      <c r="W3" s="9">
         <v>-2.1</v>
       </c>
-      <c r="X3" s="11">
+      <c r="X3" s="9">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="Y3" s="11">
+      <c r="Y3" s="9">
         <v>2.9</v>
       </c>
-      <c r="Z3" s="11">
+      <c r="Z3" s="9">
         <v>12</v>
       </c>
-      <c r="AA3" s="11">
+      <c r="AA3" s="9">
         <v>2.6</v>
       </c>
-      <c r="AB3" s="11">
+      <c r="AB3" s="9">
         <v>3.4</v>
       </c>
-      <c r="AC3" s="11">
+      <c r="AC3" s="9">
         <v>4.7</v>
       </c>
-      <c r="AD3" s="11">
+      <c r="AD3" s="9">
         <v>12</v>
       </c>
-      <c r="AE3" s="11">
+      <c r="AE3" s="9">
         <v>4</v>
       </c>
-      <c r="AF3" s="11">
+      <c r="AF3" s="9">
         <v>4.7</v>
       </c>
-      <c r="AG3" s="11">
+      <c r="AG3" s="9">
         <v>4.2</v>
       </c>
-      <c r="AH3" s="11">
+      <c r="AH3" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AI3" s="11">
+      <c r="AI3" s="9">
         <v>3.5</v>
       </c>
-      <c r="AJ3" s="11">
+      <c r="AJ3" s="9">
         <v>6.6</v>
       </c>
-      <c r="AK3" s="11">
+      <c r="AK3" s="9">
         <v>7.2</v>
       </c>
-      <c r="AL3" s="11">
+      <c r="AL3" s="9">
         <v>12</v>
       </c>
-      <c r="AM3" s="11">
+      <c r="AM3" s="9">
         <v>10.199999999999999</v>
       </c>
-      <c r="AN3" s="11">
+      <c r="AN3" s="9">
         <v>7.8</v>
       </c>
-      <c r="AO3" s="11">
+      <c r="AO3" s="9">
         <v>10.3</v>
       </c>
-      <c r="AP3" s="11">
+      <c r="AP3" s="9">
         <v>14</v>
       </c>
-      <c r="AQ3" s="11">
+      <c r="AQ3" s="9">
         <v>16</v>
       </c>
-      <c r="AR3" s="11">
+      <c r="AR3" s="9">
         <v>17.8</v>
       </c>
-      <c r="AS3" s="11">
+      <c r="AS3" s="9">
         <v>20.7</v>
       </c>
-      <c r="AT3" s="11">
+      <c r="AT3" s="9">
         <v>26.4</v>
       </c>
-      <c r="AU3" s="11">
+      <c r="AU3" s="9">
         <v>29.1</v>
       </c>
-      <c r="AV3" s="11">
+      <c r="AV3" s="9">
         <v>33.9</v>
       </c>
-      <c r="AW3" s="11">
+      <c r="AW3" s="9">
         <v>41.1</v>
       </c>
-      <c r="AX3" s="11">
+      <c r="AX3" s="9">
         <v>50</v>
       </c>
-      <c r="AY3" s="11">
+      <c r="AY3" s="9">
         <v>56.9</v>
       </c>
-      <c r="AZ3" s="11">
+      <c r="AZ3" s="9">
         <v>60.1</v>
       </c>
-      <c r="BA3" s="11">
+      <c r="BA3" s="9">
         <v>67.3</v>
       </c>
-      <c r="BB3" s="11">
+      <c r="BB3" s="9">
         <v>73.900000000000006</v>
       </c>
-      <c r="BC3" s="11">
+      <c r="BC3" s="9">
         <v>81.900000000000006</v>
       </c>
-      <c r="BD3" s="11">
+      <c r="BD3" s="9">
         <v>107.2</v>
       </c>
-      <c r="BE3" s="10">
+      <c r="BE3" s="8">
         <f>+BD3+5</f>
         <v>112.2</v>
       </c>
-      <c r="BF3" s="10">
+      <c r="BF3" s="8">
         <f>+BE3+5</f>
         <v>117.2</v>
       </c>
-      <c r="BO3" s="10">
+      <c r="BO3" s="8">
         <f>SUM(BC3:BF3)</f>
         <v>418.5</v>
       </c>
-      <c r="BP3" s="10">
+      <c r="BP3" s="8">
         <f>+BO3*1.4</f>
         <v>585.9</v>
       </c>
-      <c r="BQ3" s="10">
+      <c r="BQ3" s="8">
         <f>+BP3*1.3</f>
         <v>761.67</v>
       </c>
-      <c r="BR3" s="10">
+      <c r="BR3" s="8">
         <f>+BQ3*1.2</f>
         <v>914.00399999999991</v>
       </c>
-      <c r="BS3" s="10">
+      <c r="BS3" s="8">
         <f>+BR3*1.2</f>
         <v>1096.8047999999999</v>
       </c>
-      <c r="BT3" s="10">
+      <c r="BT3" s="8">
         <f>+BS3*1.15</f>
         <v>1261.3255199999999</v>
       </c>
-      <c r="BU3" s="10">
+      <c r="BU3" s="8">
         <f>+BT3*1.15</f>
         <v>1450.5243479999997</v>
       </c>
-      <c r="BV3" s="10">
+      <c r="BV3" s="8">
         <f>+BU3*1.15</f>
         <v>1668.1030001999995</v>
       </c>
-      <c r="BW3" s="10">
+      <c r="BW3" s="8">
         <f>+BV3*1.1</f>
         <v>1834.9133002199997</v>
       </c>
-      <c r="BX3" s="10">
+      <c r="BX3" s="8">
         <f>+BW3*1.1</f>
         <v>2018.4046302419997</v>
       </c>
-      <c r="BY3" s="10">
+      <c r="BY3" s="8">
         <f>+BX3*1.05</f>
         <v>2119.3248617540999</v>
       </c>
-      <c r="BZ3" s="10">
+      <c r="BZ3" s="8">
         <f>+BY3*1.05</f>
         <v>2225.291104841805</v>
       </c>
     </row>
-    <row r="4" spans="1:230" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="1:230" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
         <v>0.2</v>
       </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
         <v>0.1</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>0.1</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <v>0.4</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <v>0.5</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <v>0.5</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="7">
         <v>0.7</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="7">
         <v>0.3</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="7">
         <v>1</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="7">
         <v>0.9</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="7">
         <v>0.9</v>
       </c>
-      <c r="R4" s="8">
+      <c r="R4" s="7">
         <v>1</v>
       </c>
-      <c r="S4" s="8">
+      <c r="S4" s="7">
         <v>0.9</v>
       </c>
-      <c r="T4" s="8">
+      <c r="T4" s="7">
         <v>0.8</v>
       </c>
-      <c r="U4" s="8">
+      <c r="U4" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="V4" s="8">
+      <c r="V4" s="7">
         <v>1.5</v>
       </c>
-      <c r="W4" s="8">
+      <c r="W4" s="7">
         <v>1.3</v>
       </c>
-      <c r="X4" s="8">
+      <c r="X4" s="7">
         <v>1.3</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="Y4" s="7">
         <v>1.7</v>
       </c>
-      <c r="Z4" s="8">
+      <c r="Z4" s="7">
         <v>2</v>
       </c>
-      <c r="AA4" s="8">
+      <c r="AA4" s="7">
         <v>1.6</v>
       </c>
-      <c r="AB4" s="8">
+      <c r="AB4" s="7">
         <v>4.3</v>
       </c>
-      <c r="AC4" s="8">
+      <c r="AC4" s="7">
         <v>11.3</v>
       </c>
-      <c r="AD4" s="8">
+      <c r="AD4" s="7">
         <v>11.9</v>
       </c>
-      <c r="AE4" s="8">
+      <c r="AE4" s="7">
         <v>12.2</v>
       </c>
-      <c r="AF4" s="8">
+      <c r="AF4" s="7">
         <v>9.6</v>
       </c>
-      <c r="AG4" s="8">
+      <c r="AG4" s="7">
         <v>9.1999999999999993</v>
       </c>
-      <c r="AH4" s="8">
+      <c r="AH4" s="7">
         <v>11.1</v>
       </c>
-      <c r="AI4" s="8">
+      <c r="AI4" s="7">
         <v>9.4</v>
       </c>
-      <c r="AJ4" s="8">
+      <c r="AJ4" s="7">
         <v>10.5</v>
       </c>
-      <c r="AK4" s="8">
+      <c r="AK4" s="7">
         <v>7.9</v>
       </c>
-      <c r="AL4" s="8">
+      <c r="AL4" s="7">
         <v>11.7</v>
       </c>
-      <c r="AM4" s="8">
+      <c r="AM4" s="7">
         <v>16.8</v>
       </c>
-      <c r="AN4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="8">
+      <c r="AN4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="7">
         <v>44.5</v>
       </c>
-      <c r="AQ4" s="8">
+      <c r="AQ4" s="7">
         <v>17.8</v>
       </c>
-      <c r="AR4" s="8">
+      <c r="AR4" s="7">
         <v>18.8</v>
       </c>
-      <c r="AS4" s="8">
+      <c r="AS4" s="7">
         <v>20.3</v>
       </c>
-      <c r="AT4" s="8">
+      <c r="AT4" s="7">
         <v>22.9</v>
       </c>
-      <c r="AU4" s="8">
+      <c r="AU4" s="7">
         <v>25.4</v>
       </c>
-      <c r="AV4" s="8">
+      <c r="AV4" s="7">
         <v>26.1</v>
       </c>
-      <c r="AW4" s="8">
+      <c r="AW4" s="7">
         <v>31.4</v>
       </c>
-      <c r="AX4" s="8">
+      <c r="AX4" s="7">
         <v>35.799999999999997</v>
       </c>
-      <c r="AY4" s="8">
+      <c r="AY4" s="7">
         <v>40.4</v>
       </c>
-      <c r="AZ4" s="8">
+      <c r="AZ4" s="7">
         <v>43.4</v>
       </c>
-      <c r="BA4" s="8">
+      <c r="BA4" s="7">
         <v>42.6</v>
       </c>
-      <c r="BB4" s="8">
+      <c r="BB4" s="7">
         <v>42.8</v>
       </c>
-      <c r="BC4" s="8">
+      <c r="BC4" s="7">
         <v>42.8</v>
       </c>
-      <c r="BD4" s="8">
+      <c r="BD4" s="7">
         <v>49.7</v>
       </c>
-      <c r="BE4" s="7">
+      <c r="BE4" s="6">
         <f>+BE3*0.44</f>
         <v>49.368000000000002</v>
       </c>
-      <c r="BF4" s="7">
+      <c r="BF4" s="6">
         <f>+BF3*0.42</f>
         <v>49.223999999999997</v>
       </c>
-      <c r="BO4" s="7">
+      <c r="BO4" s="6">
         <f>SUM(BC4:BF4)</f>
         <v>191.09199999999998</v>
       </c>
-      <c r="BP4" s="7">
+      <c r="BP4" s="6">
         <f>+BP3-BP5</f>
         <v>246.07800000000003</v>
       </c>
-      <c r="BQ4" s="7">
+      <c r="BQ4" s="6">
         <f t="shared" ref="BQ4:BU4" si="3">+BQ3-BQ5</f>
         <v>304.66800000000001</v>
       </c>
-      <c r="BR4" s="7">
+      <c r="BR4" s="6">
         <f t="shared" si="3"/>
         <v>347.32151999999996</v>
       </c>
-      <c r="BS4" s="7">
+      <c r="BS4" s="6">
         <f t="shared" si="3"/>
         <v>405.81777599999998</v>
       </c>
-      <c r="BT4" s="7">
+      <c r="BT4" s="6">
         <f t="shared" si="3"/>
         <v>454.07718719999991</v>
       </c>
-      <c r="BU4" s="7">
+      <c r="BU4" s="6">
         <f t="shared" si="3"/>
         <v>507.68352179999988</v>
       </c>
-      <c r="BV4" s="7">
+      <c r="BV4" s="6">
         <f t="shared" ref="BV4" si="4">+BV3-BV5</f>
         <v>583.83605006999983</v>
       </c>
-      <c r="BW4" s="7">
+      <c r="BW4" s="6">
         <f t="shared" ref="BW4" si="5">+BW3-BW5</f>
         <v>642.21965507699974</v>
       </c>
-      <c r="BX4" s="7">
+      <c r="BX4" s="6">
         <f t="shared" ref="BX4" si="6">+BX3-BX5</f>
         <v>706.44162058469988</v>
       </c>
-      <c r="BY4" s="7">
+      <c r="BY4" s="6">
         <f t="shared" ref="BY4" si="7">+BY3-BY5</f>
         <v>741.76370161393493</v>
       </c>
-      <c r="BZ4" s="7">
+      <c r="BZ4" s="6">
         <f t="shared" ref="BZ4" si="8">+BZ3-BZ5</f>
         <v>778.85188669463173</v>
       </c>
     </row>
-    <row r="5" spans="1:230" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="1:230" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
         <v>0.6</v>
       </c>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8">
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
         <v>0.1</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>0.2</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <v>0.1</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>0.3</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <v>-0.5</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="7">
         <v>-0.7</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="7">
         <v>1.9</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="7">
         <v>-0.9</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="7">
         <v>-0.9</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="7">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="7">
         <v>6.2</v>
       </c>
-      <c r="S5" s="8">
+      <c r="S5" s="7">
         <v>-2.4</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="7">
         <v>-2.1</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5" s="7">
         <v>-2.9</v>
       </c>
-      <c r="V5" s="8">
+      <c r="V5" s="7">
         <v>10.199999999999999</v>
       </c>
-      <c r="W5" s="8">
+      <c r="W5" s="7">
         <v>-3.3</v>
       </c>
-      <c r="X5" s="8">
+      <c r="X5" s="7">
         <v>-3.5</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="Y5" s="7">
         <v>1.2</v>
       </c>
-      <c r="Z5" s="8">
+      <c r="Z5" s="7">
         <v>10</v>
       </c>
-      <c r="AA5" s="8">
+      <c r="AA5" s="7">
         <v>1</v>
       </c>
-      <c r="AB5" s="8">
+      <c r="AB5" s="7">
         <v>-0.9</v>
       </c>
-      <c r="AC5" s="8">
+      <c r="AC5" s="7">
         <v>-6.6</v>
       </c>
-      <c r="AD5" s="8">
+      <c r="AD5" s="7">
         <v>0.1</v>
       </c>
-      <c r="AE5" s="8">
+      <c r="AE5" s="7">
         <v>-8.1999999999999993</v>
       </c>
-      <c r="AF5" s="8">
+      <c r="AF5" s="7">
         <v>-5</v>
       </c>
-      <c r="AG5" s="8">
+      <c r="AG5" s="7">
         <v>-4.9000000000000004</v>
       </c>
-      <c r="AH5" s="8">
+      <c r="AH5" s="7">
         <v>-7.1</v>
       </c>
-      <c r="AI5" s="8">
+      <c r="AI5" s="7">
         <v>-5.9</v>
       </c>
-      <c r="AJ5" s="8">
+      <c r="AJ5" s="7">
         <v>-3.9</v>
       </c>
-      <c r="AK5" s="8">
+      <c r="AK5" s="7">
         <v>-0.7</v>
       </c>
-      <c r="AL5" s="8">
+      <c r="AL5" s="7">
         <v>0.3</v>
       </c>
-      <c r="AM5" s="8">
+      <c r="AM5" s="7">
         <v>-6.6</v>
       </c>
-      <c r="AN5" s="8">
+      <c r="AN5" s="7">
         <v>7.8</v>
       </c>
-      <c r="AO5" s="8">
+      <c r="AO5" s="7">
         <v>10.3</v>
       </c>
-      <c r="AP5" s="8">
+      <c r="AP5" s="7">
         <v>-30.5</v>
       </c>
-      <c r="AQ5" s="8">
+      <c r="AQ5" s="7">
         <v>-1.7</v>
       </c>
-      <c r="AR5" s="8">
+      <c r="AR5" s="7">
         <v>-1</v>
       </c>
-      <c r="AS5" s="8">
+      <c r="AS5" s="7">
         <v>0.4</v>
       </c>
-      <c r="AT5" s="8">
+      <c r="AT5" s="7">
         <v>3.5</v>
       </c>
-      <c r="AU5" s="8">
+      <c r="AU5" s="7">
         <v>3.7</v>
       </c>
-      <c r="AV5" s="8">
+      <c r="AV5" s="7">
         <v>7.8</v>
       </c>
-      <c r="AW5" s="8">
+      <c r="AW5" s="7">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AX5" s="8">
+      <c r="AX5" s="7">
         <v>14.2</v>
       </c>
-      <c r="AY5" s="8">
+      <c r="AY5" s="7">
         <v>16.5</v>
       </c>
-      <c r="AZ5" s="8">
+      <c r="AZ5" s="7">
         <f t="shared" ref="AZ5:BC5" si="9">+AZ3-AZ4</f>
         <v>16.700000000000003</v>
       </c>
-      <c r="BA5" s="8">
+      <c r="BA5" s="7">
         <f t="shared" si="9"/>
         <v>24.699999999999996</v>
       </c>
-      <c r="BB5" s="8">
+      <c r="BB5" s="7">
         <f t="shared" si="9"/>
         <v>31.100000000000009</v>
       </c>
-      <c r="BC5" s="8">
+      <c r="BC5" s="7">
         <f t="shared" si="9"/>
         <v>39.100000000000009</v>
       </c>
-      <c r="BD5" s="8">
+      <c r="BD5" s="7">
         <f>+BD3-BD4</f>
         <v>57.5</v>
       </c>
-      <c r="BE5" s="7">
+      <c r="BE5" s="6">
         <f>+BE3-BE4</f>
         <v>62.832000000000001</v>
       </c>
-      <c r="BF5" s="7">
+      <c r="BF5" s="6">
         <f>+BF3-BF4</f>
         <v>67.975999999999999</v>
       </c>
-      <c r="BO5" s="7">
+      <c r="BO5" s="6">
         <f>+BO3-BO4</f>
         <v>227.40800000000002</v>
       </c>
-      <c r="BP5" s="7">
+      <c r="BP5" s="6">
         <f>+BP3*0.58</f>
         <v>339.82199999999995</v>
       </c>
-      <c r="BQ5" s="7">
+      <c r="BQ5" s="6">
         <f>+BQ3*0.6</f>
         <v>457.00199999999995</v>
       </c>
-      <c r="BR5" s="7">
+      <c r="BR5" s="6">
         <f>+BR3*0.62</f>
         <v>566.68247999999994</v>
       </c>
-      <c r="BS5" s="7">
+      <c r="BS5" s="6">
         <f>+BS3*0.63</f>
         <v>690.98702399999991</v>
       </c>
-      <c r="BT5" s="7">
+      <c r="BT5" s="6">
         <f>+BT3*0.64</f>
         <v>807.24833279999996</v>
       </c>
-      <c r="BU5" s="7">
+      <c r="BU5" s="6">
         <f>+BU3*0.65</f>
         <v>942.84082619999981</v>
       </c>
-      <c r="BV5" s="7">
+      <c r="BV5" s="6">
         <f t="shared" ref="BV5:BZ5" si="10">+BV3*0.65</f>
         <v>1084.2669501299997</v>
       </c>
-      <c r="BW5" s="7">
+      <c r="BW5" s="6">
         <f t="shared" si="10"/>
         <v>1192.6936451429999</v>
       </c>
-      <c r="BX5" s="7">
+      <c r="BX5" s="6">
         <f t="shared" si="10"/>
         <v>1311.9630096572998</v>
       </c>
-      <c r="BY5" s="7">
+      <c r="BY5" s="6">
         <f t="shared" si="10"/>
         <v>1377.5611601401649</v>
       </c>
-      <c r="BZ5" s="7">
+      <c r="BZ5" s="6">
         <f t="shared" si="10"/>
         <v>1446.4392181471733</v>
       </c>
     </row>
-    <row r="6" spans="1:230" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="8" t="s">
+    <row r="6" spans="1:230" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>0.7</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>0.7</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>0.7</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>0.5</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>1.5</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <v>1.9</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <v>1.6</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="7">
         <v>1.5</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="7">
         <v>1.7</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="7">
         <v>1.9</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="7">
         <v>2.4</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="7">
         <v>2.1</v>
       </c>
-      <c r="R6" s="8">
+      <c r="R6" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S6" s="7">
         <v>2.4</v>
       </c>
-      <c r="T6" s="8">
+      <c r="T6" s="7">
         <v>2.5</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="7">
         <v>3.3</v>
       </c>
-      <c r="V6" s="8">
+      <c r="V6" s="7">
         <v>3.1</v>
       </c>
-      <c r="W6" s="8">
+      <c r="W6" s="7">
         <v>3</v>
       </c>
-      <c r="X6" s="8">
+      <c r="X6" s="7">
         <v>3</v>
       </c>
-      <c r="Y6" s="8">
+      <c r="Y6" s="7">
         <v>3.3</v>
       </c>
-      <c r="Z6" s="8">
+      <c r="Z6" s="7">
         <v>4.7</v>
       </c>
-      <c r="AA6" s="8">
+      <c r="AA6" s="7">
         <v>5.8</v>
       </c>
-      <c r="AB6" s="8">
+      <c r="AB6" s="7">
         <v>6</v>
       </c>
-      <c r="AC6" s="8">
+      <c r="AC6" s="7">
         <v>5.8</v>
       </c>
-      <c r="AD6" s="8">
+      <c r="AD6" s="7">
         <v>7.7</v>
       </c>
-      <c r="AE6" s="8">
+      <c r="AE6" s="7">
         <v>7.2</v>
       </c>
-      <c r="AF6" s="8">
+      <c r="AF6" s="7">
         <v>7.2</v>
       </c>
-      <c r="AG6" s="8">
+      <c r="AG6" s="7">
         <v>7.6</v>
       </c>
-      <c r="AH6" s="8">
+      <c r="AH6" s="7">
         <v>8.3000000000000007</v>
       </c>
-      <c r="AI6" s="8">
+      <c r="AI6" s="7">
         <v>6.2</v>
       </c>
-      <c r="AJ6" s="8">
+      <c r="AJ6" s="7">
         <v>6.7</v>
       </c>
-      <c r="AK6" s="8">
+      <c r="AK6" s="7">
         <v>7.7</v>
       </c>
-      <c r="AL6" s="8">
+      <c r="AL6" s="7">
         <v>7.5</v>
       </c>
-      <c r="AM6" s="8">
+      <c r="AM6" s="7">
         <v>8.4</v>
       </c>
-      <c r="AN6" s="8">
+      <c r="AN6" s="7">
         <v>9.6</v>
       </c>
-      <c r="AO6" s="8">
+      <c r="AO6" s="7">
         <v>10.3</v>
       </c>
-      <c r="AP6" s="8">
+      <c r="AP6" s="7">
         <v>10.9</v>
       </c>
-      <c r="AQ6" s="8">
+      <c r="AQ6" s="7">
         <v>12.3</v>
       </c>
-      <c r="AR6" s="8">
+      <c r="AR6" s="7">
         <v>13.2</v>
       </c>
-      <c r="AS6" s="8">
+      <c r="AS6" s="7">
         <v>13.9</v>
       </c>
-      <c r="AT6" s="8">
+      <c r="AT6" s="7">
         <v>15.8</v>
       </c>
-      <c r="AU6" s="8">
+      <c r="AU6" s="7">
         <v>17.7</v>
       </c>
-      <c r="AV6" s="8">
+      <c r="AV6" s="7">
         <v>15.9</v>
       </c>
-      <c r="AW6" s="8">
+      <c r="AW6" s="7">
         <v>17.8</v>
       </c>
-      <c r="AX6" s="8">
+      <c r="AX6" s="7">
         <v>19</v>
       </c>
-      <c r="AY6" s="8">
+      <c r="AY6" s="7">
         <v>16.3</v>
       </c>
-      <c r="AZ6" s="8">
+      <c r="AZ6" s="7">
         <v>14.247999999999999</v>
       </c>
-      <c r="BA6" s="8">
+      <c r="BA6" s="7">
         <v>15.2</v>
       </c>
-      <c r="BB6" s="8">
+      <c r="BB6" s="7">
         <v>16.2</v>
       </c>
-      <c r="BC6" s="8">
+      <c r="BC6" s="7">
         <v>16.600000000000001</v>
       </c>
-      <c r="BD6" s="8">
+      <c r="BD6" s="7">
         <v>16.608000000000001</v>
       </c>
-      <c r="BE6" s="7">
-        <f>+BD6</f>
+      <c r="BE6" s="6">
+        <f t="shared" ref="BE6:BF8" si="11">+BD6</f>
         <v>16.608000000000001</v>
       </c>
-      <c r="BF6" s="7">
-        <f>+BE6</f>
+      <c r="BF6" s="6">
+        <f t="shared" si="11"/>
         <v>16.608000000000001</v>
       </c>
-      <c r="BO6" s="7">
-        <f t="shared" ref="BO6:BO8" si="11">SUM(BC6:BF6)</f>
+      <c r="BO6" s="6">
+        <f t="shared" ref="BO6:BO8" si="12">SUM(BC6:BF6)</f>
         <v>66.424000000000007</v>
       </c>
-      <c r="BP6" s="7">
+      <c r="BP6" s="6">
         <f>+BO6*1.1</f>
         <v>73.066400000000016</v>
       </c>
-      <c r="BQ6" s="7">
-        <f t="shared" ref="BQ6:BU6" si="12">+BP6*1.1</f>
+      <c r="BQ6" s="6">
+        <f t="shared" ref="BQ6:BU6" si="13">+BP6*1.1</f>
         <v>80.373040000000017</v>
       </c>
-      <c r="BR6" s="7">
+      <c r="BR6" s="6">
+        <f t="shared" si="13"/>
+        <v>88.410344000000023</v>
+      </c>
+      <c r="BS6" s="6">
+        <f t="shared" si="13"/>
+        <v>97.251378400000036</v>
+      </c>
+      <c r="BT6" s="6">
+        <f t="shared" si="13"/>
+        <v>106.97651624000005</v>
+      </c>
+      <c r="BU6" s="6">
+        <f t="shared" si="13"/>
+        <v>117.67416786400007</v>
+      </c>
+      <c r="BV6" s="6">
+        <f t="shared" ref="BV6:BZ6" si="14">+BU6*1.1</f>
+        <v>129.44158465040007</v>
+      </c>
+      <c r="BW6" s="6">
+        <f t="shared" si="14"/>
+        <v>142.38574311544011</v>
+      </c>
+      <c r="BX6" s="6">
+        <f t="shared" si="14"/>
+        <v>156.62431742698413</v>
+      </c>
+      <c r="BY6" s="6">
+        <f t="shared" si="14"/>
+        <v>172.28674916968257</v>
+      </c>
+      <c r="BZ6" s="6">
+        <f t="shared" si="14"/>
+        <v>189.51542408665082</v>
+      </c>
+    </row>
+    <row r="7" spans="1:230" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="L7" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="N7" s="7">
+        <v>3</v>
+      </c>
+      <c r="O7" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="P7" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="R7" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="S7" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="T7" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="U7" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="V7" s="7">
+        <v>2</v>
+      </c>
+      <c r="W7" s="7">
+        <v>2</v>
+      </c>
+      <c r="X7" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="AD7" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="AI7" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="AJ7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AK7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AL7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AM7" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="AN7" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="AO7" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="AP7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="AS7" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="AT7" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="AU7" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="AV7" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="AW7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AY7" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="AZ7" s="7">
+        <v>1.403</v>
+      </c>
+      <c r="BA7" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="BB7" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="BC7" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="BD7" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="BE7" s="6">
+        <f t="shared" si="11"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="BF7" s="6">
+        <f t="shared" si="11"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="BO7" s="6">
         <f t="shared" si="12"/>
-        <v>88.410344000000023</v>
-      </c>
-      <c r="BS6" s="7">
+        <v>2.08</v>
+      </c>
+      <c r="BP7" s="6">
+        <f t="shared" ref="BP7:BU7" si="15">+BO7*1.1</f>
+        <v>2.2880000000000003</v>
+      </c>
+      <c r="BQ7" s="6">
+        <f t="shared" si="15"/>
+        <v>2.5168000000000004</v>
+      </c>
+      <c r="BR7" s="6">
+        <f t="shared" si="15"/>
+        <v>2.7684800000000007</v>
+      </c>
+      <c r="BS7" s="6">
+        <f t="shared" si="15"/>
+        <v>3.0453280000000009</v>
+      </c>
+      <c r="BT7" s="6">
+        <f t="shared" si="15"/>
+        <v>3.3498608000000014</v>
+      </c>
+      <c r="BU7" s="6">
+        <f t="shared" si="15"/>
+        <v>3.684846880000002</v>
+      </c>
+      <c r="BV7" s="6">
+        <f t="shared" ref="BV7:BZ7" si="16">+BU7*1.1</f>
+        <v>4.0533315680000026</v>
+      </c>
+      <c r="BW7" s="6">
+        <f t="shared" si="16"/>
+        <v>4.4586647248000029</v>
+      </c>
+      <c r="BX7" s="6">
+        <f t="shared" si="16"/>
+        <v>4.9045311972800034</v>
+      </c>
+      <c r="BY7" s="6">
+        <f t="shared" si="16"/>
+        <v>5.3949843170080038</v>
+      </c>
+      <c r="BZ7" s="6">
+        <f t="shared" si="16"/>
+        <v>5.9344827487088043</v>
+      </c>
+    </row>
+    <row r="8" spans="1:230" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="7"/>
+      <c r="AS8" s="7"/>
+      <c r="AT8" s="7"/>
+      <c r="AU8" s="7"/>
+      <c r="AV8" s="7"/>
+      <c r="AW8" s="7"/>
+      <c r="AX8" s="7"/>
+      <c r="AY8" s="7"/>
+      <c r="AZ8" s="7">
+        <v>1.333</v>
+      </c>
+      <c r="BA8" s="7"/>
+      <c r="BB8" s="7"/>
+      <c r="BC8" s="7"/>
+      <c r="BD8" s="7">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="BE8" s="6">
+        <f t="shared" si="11"/>
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="BF8" s="6">
+        <f t="shared" si="11"/>
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="BO8" s="6">
         <f t="shared" si="12"/>
-        <v>97.251378400000036</v>
-      </c>
-      <c r="BT6" s="7">
-        <f t="shared" si="12"/>
-        <v>106.97651624000005</v>
-      </c>
-      <c r="BU6" s="7">
-        <f t="shared" si="12"/>
-        <v>117.67416786400007</v>
-      </c>
-      <c r="BV6" s="7">
-        <f t="shared" ref="BV6:BZ6" si="13">+BU6*1.1</f>
-        <v>129.44158465040007</v>
-      </c>
-      <c r="BW6" s="7">
-        <f t="shared" si="13"/>
-        <v>142.38574311544011</v>
-      </c>
-      <c r="BX6" s="7">
-        <f t="shared" si="13"/>
-        <v>156.62431742698413</v>
-      </c>
-      <c r="BY6" s="7">
-        <f t="shared" si="13"/>
-        <v>172.28674916968257</v>
-      </c>
-      <c r="BZ6" s="7">
-        <f t="shared" si="13"/>
-        <v>189.51542408665082</v>
+        <v>2.8259999999999996</v>
+      </c>
+      <c r="BP8" s="6">
+        <f t="shared" ref="BP8:BU8" si="17">+BO8*1.1</f>
+        <v>3.1086</v>
+      </c>
+      <c r="BQ8" s="6">
+        <f t="shared" si="17"/>
+        <v>3.4194600000000004</v>
+      </c>
+      <c r="BR8" s="6">
+        <f t="shared" si="17"/>
+        <v>3.7614060000000009</v>
+      </c>
+      <c r="BS8" s="6">
+        <f t="shared" si="17"/>
+        <v>4.1375466000000012</v>
+      </c>
+      <c r="BT8" s="6">
+        <f t="shared" si="17"/>
+        <v>4.5513012600000016</v>
+      </c>
+      <c r="BU8" s="6">
+        <f t="shared" si="17"/>
+        <v>5.0064313860000018</v>
+      </c>
+      <c r="BV8" s="6">
+        <f t="shared" ref="BV8:BZ8" si="18">+BU8*1.1</f>
+        <v>5.5070745246000028</v>
+      </c>
+      <c r="BW8" s="6">
+        <f t="shared" si="18"/>
+        <v>6.0577819770600039</v>
+      </c>
+      <c r="BX8" s="6">
+        <f t="shared" si="18"/>
+        <v>6.6635601747660047</v>
+      </c>
+      <c r="BY8" s="6">
+        <f t="shared" si="18"/>
+        <v>7.3299161922426057</v>
+      </c>
+      <c r="BZ8" s="6">
+        <f t="shared" si="18"/>
+        <v>8.0629078114668662</v>
       </c>
     </row>
-    <row r="7" spans="1:230" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="I7" s="8">
-        <v>1.9</v>
-      </c>
-      <c r="J7" s="8">
+    <row r="9" spans="1:230" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="7">
+        <f t="shared" ref="C9:BC9" si="19">+C8+C7+C6</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="19"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" si="19"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="19"/>
+        <v>0.7</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="19"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="19"/>
         <v>1.3</v>
       </c>
-      <c r="K7" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="L7" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="M7" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="N7" s="8">
-        <v>3</v>
-      </c>
-      <c r="O7" s="8">
-        <v>4.3</v>
-      </c>
-      <c r="P7" s="8">
-        <v>1.8</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="R7" s="8">
-        <v>1.9</v>
-      </c>
-      <c r="S7" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="T7" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="U7" s="8">
-        <v>2.1</v>
-      </c>
-      <c r="V7" s="8">
-        <v>2</v>
-      </c>
-      <c r="W7" s="8">
-        <v>2</v>
-      </c>
-      <c r="X7" s="8">
+      <c r="I9" s="7">
+        <f t="shared" si="19"/>
         <v>3.4</v>
       </c>
-      <c r="Y7" s="8">
-        <v>1.7</v>
-      </c>
-      <c r="Z7" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="AA7" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="AB7" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="AC7" s="8">
-        <v>1.8</v>
-      </c>
-      <c r="AD7" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="AE7" s="8">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="8">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="8">
-        <v>1</v>
-      </c>
-      <c r="AH7" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="AI7" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="AJ7" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="AK7" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="AL7" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="AM7" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="AN7" s="8">
-        <v>1.7</v>
-      </c>
-      <c r="AO7" s="8">
-        <v>1.7</v>
-      </c>
-      <c r="AP7" s="8">
-        <v>1</v>
-      </c>
-      <c r="AQ7" s="8">
-        <v>1</v>
-      </c>
-      <c r="AR7" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="AS7" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="AT7" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="AU7" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="AV7" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="AW7" s="8">
-        <v>1</v>
-      </c>
-      <c r="AX7" s="8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AY7" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="AZ7" s="8">
-        <v>1.403</v>
-      </c>
-      <c r="BA7" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="BB7" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="BC7" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="BD7" s="8">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="BE7" s="7">
-        <f>+BD7</f>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="BF7" s="7">
-        <f>+BE7</f>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="BO7" s="7">
-        <f t="shared" si="11"/>
-        <v>2.08</v>
-      </c>
-      <c r="BP7" s="7">
-        <f t="shared" ref="BP7:BU7" si="14">+BO7*1.1</f>
-        <v>2.2880000000000003</v>
-      </c>
-      <c r="BQ7" s="7">
-        <f t="shared" si="14"/>
-        <v>2.5168000000000004</v>
-      </c>
-      <c r="BR7" s="7">
-        <f t="shared" si="14"/>
-        <v>2.7684800000000007</v>
-      </c>
-      <c r="BS7" s="7">
-        <f t="shared" si="14"/>
-        <v>3.0453280000000009</v>
-      </c>
-      <c r="BT7" s="7">
-        <f t="shared" si="14"/>
-        <v>3.3498608000000014</v>
-      </c>
-      <c r="BU7" s="7">
-        <f t="shared" si="14"/>
-        <v>3.684846880000002</v>
-      </c>
-      <c r="BV7" s="7">
-        <f t="shared" ref="BV7:BZ7" si="15">+BU7*1.1</f>
-        <v>4.0533315680000026</v>
-      </c>
-      <c r="BW7" s="7">
-        <f t="shared" si="15"/>
-        <v>4.4586647248000029</v>
-      </c>
-      <c r="BX7" s="7">
-        <f t="shared" si="15"/>
-        <v>4.9045311972800034</v>
-      </c>
-      <c r="BY7" s="7">
-        <f t="shared" si="15"/>
-        <v>5.3949843170080038</v>
-      </c>
-      <c r="BZ7" s="7">
-        <f t="shared" si="15"/>
-        <v>5.9344827487088043</v>
-      </c>
-    </row>
-    <row r="8" spans="1:230" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8"/>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="8"/>
-      <c r="AI8" s="8"/>
-      <c r="AJ8" s="8"/>
-      <c r="AK8" s="8"/>
-      <c r="AL8" s="8"/>
-      <c r="AM8" s="8"/>
-      <c r="AN8" s="8"/>
-      <c r="AO8" s="8"/>
-      <c r="AP8" s="8"/>
-      <c r="AQ8" s="8"/>
-      <c r="AR8" s="8"/>
-      <c r="AS8" s="8"/>
-      <c r="AT8" s="8"/>
-      <c r="AU8" s="8"/>
-      <c r="AV8" s="8"/>
-      <c r="AW8" s="8"/>
-      <c r="AX8" s="8"/>
-      <c r="AY8" s="8"/>
-      <c r="AZ8" s="8">
-        <v>1.333</v>
-      </c>
-      <c r="BA8" s="8"/>
-      <c r="BB8" s="8"/>
-      <c r="BC8" s="8"/>
-      <c r="BD8" s="8">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="BE8" s="7">
-        <f>+BD8</f>
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="BF8" s="7">
-        <f>+BE8</f>
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="BO8" s="7">
-        <f t="shared" si="11"/>
-        <v>2.8259999999999996</v>
-      </c>
-      <c r="BP8" s="7">
-        <f t="shared" ref="BP8:BU8" si="16">+BO8*1.1</f>
-        <v>3.1086</v>
-      </c>
-      <c r="BQ8" s="7">
-        <f t="shared" si="16"/>
-        <v>3.4194600000000004</v>
-      </c>
-      <c r="BR8" s="7">
-        <f t="shared" si="16"/>
-        <v>3.7614060000000009</v>
-      </c>
-      <c r="BS8" s="7">
-        <f t="shared" si="16"/>
-        <v>4.1375466000000012</v>
-      </c>
-      <c r="BT8" s="7">
-        <f t="shared" si="16"/>
-        <v>4.5513012600000016</v>
-      </c>
-      <c r="BU8" s="7">
-        <f t="shared" si="16"/>
-        <v>5.0064313860000018</v>
-      </c>
-      <c r="BV8" s="7">
-        <f t="shared" ref="BV8:BZ8" si="17">+BU8*1.1</f>
-        <v>5.5070745246000028</v>
-      </c>
-      <c r="BW8" s="7">
-        <f t="shared" si="17"/>
-        <v>6.0577819770600039</v>
-      </c>
-      <c r="BX8" s="7">
-        <f t="shared" si="17"/>
-        <v>6.6635601747660047</v>
-      </c>
-      <c r="BY8" s="7">
-        <f t="shared" si="17"/>
-        <v>7.3299161922426057</v>
-      </c>
-      <c r="BZ8" s="7">
-        <f t="shared" si="17"/>
-        <v>8.0629078114668662</v>
-      </c>
-    </row>
-    <row r="9" spans="1:230" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="8">
-        <f t="shared" ref="C9:BC9" si="18">+C8+C7+C6</f>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="D9" s="8">
-        <f t="shared" si="18"/>
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="E9" s="8">
-        <f t="shared" si="18"/>
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="F9" s="8">
-        <f t="shared" si="18"/>
-        <v>0.7</v>
-      </c>
-      <c r="G9" s="8">
-        <f t="shared" si="18"/>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="H9" s="8">
-        <f t="shared" si="18"/>
-        <v>1.3</v>
-      </c>
-      <c r="I9" s="8">
-        <f t="shared" si="18"/>
+      <c r="J9" s="7">
+        <f t="shared" si="19"/>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" si="19"/>
         <v>3.4</v>
       </c>
-      <c r="J9" s="8">
-        <f t="shared" si="18"/>
-        <v>2.4000000000000004</v>
-      </c>
-      <c r="K9" s="8">
-        <f t="shared" si="18"/>
-        <v>3.4</v>
-      </c>
-      <c r="L9" s="8">
-        <f t="shared" si="18"/>
+      <c r="L9" s="7">
+        <f t="shared" si="19"/>
         <v>5.0999999999999996</v>
       </c>
-      <c r="M9" s="8">
-        <f t="shared" si="18"/>
+      <c r="M9" s="7">
+        <f t="shared" si="19"/>
         <v>2.9</v>
       </c>
-      <c r="N9" s="8">
-        <f t="shared" si="18"/>
+      <c r="N9" s="7">
+        <f t="shared" si="19"/>
         <v>4.7</v>
       </c>
-      <c r="O9" s="8">
-        <f t="shared" si="18"/>
+      <c r="O9" s="7">
+        <f t="shared" si="19"/>
         <v>6.1999999999999993</v>
       </c>
-      <c r="P9" s="8">
-        <f t="shared" si="18"/>
+      <c r="P9" s="7">
+        <f t="shared" si="19"/>
         <v>4.2</v>
       </c>
-      <c r="Q9" s="8">
-        <f t="shared" si="18"/>
+      <c r="Q9" s="7">
+        <f t="shared" si="19"/>
         <v>3.6</v>
       </c>
-      <c r="R9" s="8">
-        <f t="shared" si="18"/>
+      <c r="R9" s="7">
+        <f t="shared" si="19"/>
         <v>4.1999999999999993</v>
       </c>
-      <c r="S9" s="8">
-        <f t="shared" si="18"/>
+      <c r="S9" s="7">
+        <f t="shared" si="19"/>
         <v>3.8</v>
       </c>
-      <c r="T9" s="8">
-        <f t="shared" si="18"/>
+      <c r="T9" s="7">
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
-      <c r="U9" s="8">
-        <f t="shared" si="18"/>
+      <c r="U9" s="7">
+        <f t="shared" si="19"/>
         <v>5.4</v>
       </c>
-      <c r="V9" s="8">
-        <f t="shared" si="18"/>
+      <c r="V9" s="7">
+        <f t="shared" si="19"/>
         <v>5.0999999999999996</v>
       </c>
-      <c r="W9" s="8">
-        <f t="shared" si="18"/>
+      <c r="W9" s="7">
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="X9" s="8">
-        <f t="shared" si="18"/>
+      <c r="X9" s="7">
+        <f t="shared" si="19"/>
         <v>6.4</v>
       </c>
-      <c r="Y9" s="8">
-        <f t="shared" si="18"/>
+      <c r="Y9" s="7">
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="Z9" s="8">
-        <f t="shared" si="18"/>
+      <c r="Z9" s="7">
+        <f t="shared" si="19"/>
         <v>5.3</v>
       </c>
-      <c r="AA9" s="8">
-        <f t="shared" si="18"/>
+      <c r="AA9" s="7">
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
-      <c r="AB9" s="8">
-        <f t="shared" si="18"/>
+      <c r="AB9" s="7">
+        <f t="shared" si="19"/>
         <v>7.4</v>
       </c>
-      <c r="AC9" s="8">
-        <f t="shared" si="18"/>
+      <c r="AC9" s="7">
+        <f t="shared" si="19"/>
         <v>7.6</v>
       </c>
-      <c r="AD9" s="8">
-        <f t="shared" si="18"/>
+      <c r="AD9" s="7">
+        <f t="shared" si="19"/>
         <v>8.9</v>
       </c>
-      <c r="AE9" s="8">
-        <f t="shared" si="18"/>
+      <c r="AE9" s="7">
+        <f t="shared" si="19"/>
         <v>8.1999999999999993</v>
       </c>
-      <c r="AF9" s="8">
-        <f t="shared" si="18"/>
+      <c r="AF9" s="7">
+        <f t="shared" si="19"/>
         <v>8.1999999999999993</v>
       </c>
-      <c r="AG9" s="8">
-        <f t="shared" si="18"/>
+      <c r="AG9" s="7">
+        <f t="shared" si="19"/>
         <v>8.6</v>
       </c>
-      <c r="AH9" s="8">
-        <f t="shared" si="18"/>
+      <c r="AH9" s="7">
+        <f t="shared" si="19"/>
         <v>9.2000000000000011</v>
       </c>
-      <c r="AI9" s="8">
-        <f t="shared" si="18"/>
+      <c r="AI9" s="7">
+        <f t="shared" si="19"/>
         <v>7.1000000000000005</v>
       </c>
-      <c r="AJ9" s="8">
-        <f t="shared" si="18"/>
+      <c r="AJ9" s="7">
+        <f t="shared" si="19"/>
         <v>7.2</v>
       </c>
-      <c r="AK9" s="8">
-        <f t="shared" si="18"/>
+      <c r="AK9" s="7">
+        <f t="shared" si="19"/>
         <v>8.1999999999999993</v>
       </c>
-      <c r="AL9" s="8">
-        <f t="shared" si="18"/>
+      <c r="AL9" s="7">
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
-      <c r="AM9" s="8">
-        <f t="shared" si="18"/>
+      <c r="AM9" s="7">
+        <f t="shared" si="19"/>
         <v>9.9</v>
       </c>
-      <c r="AN9" s="8">
-        <f t="shared" si="18"/>
+      <c r="AN9" s="7">
+        <f t="shared" si="19"/>
         <v>11.299999999999999</v>
       </c>
-      <c r="AO9" s="8">
-        <f t="shared" si="18"/>
+      <c r="AO9" s="7">
+        <f t="shared" si="19"/>
         <v>12</v>
       </c>
-      <c r="AP9" s="8">
-        <f t="shared" si="18"/>
+      <c r="AP9" s="7">
+        <f t="shared" si="19"/>
         <v>11.9</v>
       </c>
-      <c r="AQ9" s="8">
-        <f t="shared" si="18"/>
+      <c r="AQ9" s="7">
+        <f t="shared" si="19"/>
         <v>13.3</v>
       </c>
-      <c r="AR9" s="8">
-        <f t="shared" si="18"/>
+      <c r="AR9" s="7">
+        <f t="shared" si="19"/>
         <v>14.399999999999999</v>
       </c>
-      <c r="AS9" s="8">
-        <f t="shared" si="18"/>
+      <c r="AS9" s="7">
+        <f t="shared" si="19"/>
         <v>14.700000000000001</v>
       </c>
-      <c r="AT9" s="8">
-        <f t="shared" si="18"/>
+      <c r="AT9" s="7">
+        <f t="shared" si="19"/>
         <v>16.5</v>
       </c>
-      <c r="AU9" s="8">
-        <f t="shared" si="18"/>
+      <c r="AU9" s="7">
+        <f t="shared" si="19"/>
         <v>18.3</v>
       </c>
-      <c r="AV9" s="8">
-        <f t="shared" si="18"/>
+      <c r="AV9" s="7">
+        <f t="shared" si="19"/>
         <v>16.8</v>
       </c>
-      <c r="AW9" s="8">
-        <f t="shared" si="18"/>
+      <c r="AW9" s="7">
+        <f t="shared" si="19"/>
         <v>18.8</v>
       </c>
-      <c r="AX9" s="8">
-        <f t="shared" si="18"/>
+      <c r="AX9" s="7">
+        <f t="shared" si="19"/>
         <v>20.100000000000001</v>
       </c>
-      <c r="AY9" s="8">
-        <f t="shared" si="18"/>
+      <c r="AY9" s="7">
+        <f t="shared" si="19"/>
         <v>17.2</v>
       </c>
-      <c r="AZ9" s="8">
-        <f t="shared" si="18"/>
+      <c r="AZ9" s="7">
+        <f t="shared" si="19"/>
         <v>16.983999999999998</v>
       </c>
-      <c r="BA9" s="8">
-        <f t="shared" si="18"/>
+      <c r="BA9" s="7">
+        <f t="shared" si="19"/>
         <v>15.799999999999999</v>
       </c>
-      <c r="BB9" s="8">
-        <f t="shared" si="18"/>
+      <c r="BB9" s="7">
+        <f t="shared" si="19"/>
         <v>16.599999999999998</v>
       </c>
-      <c r="BC9" s="8">
-        <f t="shared" si="18"/>
+      <c r="BC9" s="7">
+        <f t="shared" si="19"/>
         <v>17</v>
       </c>
-      <c r="BD9" s="8">
+      <c r="BD9" s="7">
         <f>+BD8+BD7+BD6</f>
         <v>18.11</v>
       </c>
-      <c r="BE9" s="8">
-        <f t="shared" ref="BE9:BF9" si="19">+BE8+BE7+BE6</f>
+      <c r="BE9" s="7">
+        <f t="shared" ref="BE9:BF9" si="20">+BE8+BE7+BE6</f>
         <v>18.11</v>
       </c>
-      <c r="BF9" s="8">
-        <f t="shared" si="19"/>
+      <c r="BF9" s="7">
+        <f t="shared" si="20"/>
         <v>18.11</v>
       </c>
-      <c r="BO9" s="8">
+      <c r="BO9" s="7">
         <f>+BO8+BO7+BO6</f>
         <v>71.330000000000013</v>
       </c>
-      <c r="BP9" s="8">
-        <f t="shared" ref="BP9:BU9" si="20">+BP8+BP7+BP6</f>
+      <c r="BP9" s="7">
+        <f t="shared" ref="BP9:BU9" si="21">+BP8+BP7+BP6</f>
         <v>78.463000000000022</v>
       </c>
-      <c r="BQ9" s="8">
-        <f t="shared" si="20"/>
+      <c r="BQ9" s="7">
+        <f t="shared" si="21"/>
         <v>86.309300000000022</v>
       </c>
-      <c r="BR9" s="8">
-        <f t="shared" si="20"/>
+      <c r="BR9" s="7">
+        <f t="shared" si="21"/>
         <v>94.940230000000028</v>
       </c>
-      <c r="BS9" s="8">
-        <f t="shared" si="20"/>
+      <c r="BS9" s="7">
+        <f t="shared" si="21"/>
         <v>104.43425300000004</v>
       </c>
-      <c r="BT9" s="8">
-        <f t="shared" si="20"/>
+      <c r="BT9" s="7">
+        <f t="shared" si="21"/>
         <v>114.87767830000006</v>
       </c>
-      <c r="BU9" s="8">
-        <f t="shared" si="20"/>
+      <c r="BU9" s="7">
+        <f t="shared" si="21"/>
         <v>126.36544613000007</v>
       </c>
-      <c r="BV9" s="8">
-        <f t="shared" ref="BV9" si="21">+BV8+BV7+BV6</f>
+      <c r="BV9" s="7">
+        <f t="shared" ref="BV9" si="22">+BV8+BV7+BV6</f>
         <v>139.00199074300008</v>
       </c>
-      <c r="BW9" s="8">
-        <f t="shared" ref="BW9" si="22">+BW8+BW7+BW6</f>
+      <c r="BW9" s="7">
+        <f t="shared" ref="BW9" si="23">+BW8+BW7+BW6</f>
         <v>152.90218981730013</v>
       </c>
-      <c r="BX9" s="8">
-        <f t="shared" ref="BX9" si="23">+BX8+BX7+BX6</f>
+      <c r="BX9" s="7">
+        <f t="shared" ref="BX9" si="24">+BX8+BX7+BX6</f>
         <v>168.19240879903015</v>
       </c>
-      <c r="BY9" s="8">
-        <f t="shared" ref="BY9" si="24">+BY8+BY7+BY6</f>
+      <c r="BY9" s="7">
+        <f t="shared" ref="BY9" si="25">+BY8+BY7+BY6</f>
         <v>185.01164967893317</v>
       </c>
-      <c r="BZ9" s="8">
-        <f t="shared" ref="BZ9" si="25">+BZ8+BZ7+BZ6</f>
+      <c r="BZ9" s="7">
+        <f t="shared" ref="BZ9" si="26">+BZ8+BZ7+BZ6</f>
         <v>203.51281464682648</v>
       </c>
     </row>
-    <row r="10" spans="1:230" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="1:230" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="8">
-        <f t="shared" ref="C10:BC10" si="26">+C5-C9</f>
+      <c r="C10" s="7">
+        <f t="shared" ref="C10:BC10" si="27">+C5-C9</f>
         <v>-0.89999999999999991</v>
       </c>
-      <c r="D10" s="8">
-        <f t="shared" si="26"/>
+      <c r="D10" s="7">
+        <f t="shared" si="27"/>
         <v>-0.79999999999999993</v>
       </c>
-      <c r="E10" s="8">
-        <f t="shared" si="26"/>
+      <c r="E10" s="7">
+        <f t="shared" si="27"/>
         <v>-0.79999999999999993</v>
       </c>
-      <c r="F10" s="8">
-        <f t="shared" si="26"/>
+      <c r="F10" s="7">
+        <f t="shared" si="27"/>
         <v>-9.9999999999999978E-2</v>
       </c>
-      <c r="G10" s="8">
-        <f t="shared" si="26"/>
+      <c r="G10" s="7">
+        <f t="shared" si="27"/>
         <v>-1.2000000000000002</v>
       </c>
-      <c r="H10" s="8">
-        <f t="shared" si="26"/>
+      <c r="H10" s="7">
+        <f t="shared" si="27"/>
         <v>-1.2</v>
       </c>
-      <c r="I10" s="8">
-        <f t="shared" si="26"/>
+      <c r="I10" s="7">
+        <f t="shared" si="27"/>
         <v>-3.1999999999999997</v>
       </c>
-      <c r="J10" s="8">
-        <f t="shared" si="26"/>
+      <c r="J10" s="7">
+        <f t="shared" si="27"/>
         <v>-2.3000000000000003</v>
       </c>
-      <c r="K10" s="8">
-        <f t="shared" si="26"/>
+      <c r="K10" s="7">
+        <f t="shared" si="27"/>
         <v>-3.1</v>
       </c>
-      <c r="L10" s="8">
-        <f t="shared" si="26"/>
+      <c r="L10" s="7">
+        <f t="shared" si="27"/>
         <v>-5.6</v>
       </c>
-      <c r="M10" s="8">
-        <f t="shared" si="26"/>
+      <c r="M10" s="7">
+        <f t="shared" si="27"/>
         <v>-3.5999999999999996</v>
       </c>
-      <c r="N10" s="8">
-        <f t="shared" si="26"/>
+      <c r="N10" s="7">
+        <f t="shared" si="27"/>
         <v>-2.8000000000000003</v>
       </c>
-      <c r="O10" s="8">
-        <f t="shared" si="26"/>
+      <c r="O10" s="7">
+        <f t="shared" si="27"/>
         <v>-7.1</v>
       </c>
-      <c r="P10" s="8">
-        <f t="shared" si="26"/>
+      <c r="P10" s="7">
+        <f t="shared" si="27"/>
         <v>-5.1000000000000005</v>
       </c>
-      <c r="Q10" s="8">
-        <f t="shared" si="26"/>
+      <c r="Q10" s="7">
+        <f t="shared" si="27"/>
         <v>-5.8000000000000007</v>
       </c>
-      <c r="R10" s="8">
-        <f t="shared" si="26"/>
+      <c r="R10" s="7">
+        <f t="shared" si="27"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="S10" s="8">
-        <f t="shared" si="26"/>
+      <c r="S10" s="7">
+        <f t="shared" si="27"/>
         <v>-6.1999999999999993</v>
       </c>
-      <c r="T10" s="8">
-        <f t="shared" si="26"/>
+      <c r="T10" s="7">
+        <f t="shared" si="27"/>
         <v>-6.1</v>
       </c>
-      <c r="U10" s="8">
-        <f t="shared" si="26"/>
+      <c r="U10" s="7">
+        <f t="shared" si="27"/>
         <v>-8.3000000000000007</v>
       </c>
-      <c r="V10" s="8">
-        <f t="shared" si="26"/>
+      <c r="V10" s="7">
+        <f t="shared" si="27"/>
         <v>5.0999999999999996</v>
       </c>
-      <c r="W10" s="8">
-        <f t="shared" si="26"/>
+      <c r="W10" s="7">
+        <f t="shared" si="27"/>
         <v>-8.3000000000000007</v>
       </c>
-      <c r="X10" s="8">
-        <f t="shared" si="26"/>
+      <c r="X10" s="7">
+        <f t="shared" si="27"/>
         <v>-9.9</v>
       </c>
-      <c r="Y10" s="8">
-        <f t="shared" si="26"/>
+      <c r="Y10" s="7">
+        <f t="shared" si="27"/>
         <v>-3.8</v>
       </c>
-      <c r="Z10" s="8">
-        <f t="shared" si="26"/>
+      <c r="Z10" s="7">
+        <f t="shared" si="27"/>
         <v>4.7</v>
       </c>
-      <c r="AA10" s="8">
-        <f t="shared" si="26"/>
+      <c r="AA10" s="7">
+        <f t="shared" si="27"/>
         <v>-6</v>
       </c>
-      <c r="AB10" s="8">
-        <f t="shared" si="26"/>
+      <c r="AB10" s="7">
+        <f t="shared" si="27"/>
         <v>-8.3000000000000007</v>
       </c>
-      <c r="AC10" s="8">
-        <f t="shared" si="26"/>
+      <c r="AC10" s="7">
+        <f t="shared" si="27"/>
         <v>-14.2</v>
       </c>
-      <c r="AD10" s="8">
-        <f t="shared" si="26"/>
+      <c r="AD10" s="7">
+        <f t="shared" si="27"/>
         <v>-8.8000000000000007</v>
       </c>
-      <c r="AE10" s="8">
-        <f t="shared" si="26"/>
+      <c r="AE10" s="7">
+        <f t="shared" si="27"/>
         <v>-16.399999999999999</v>
       </c>
-      <c r="AF10" s="8">
-        <f t="shared" si="26"/>
+      <c r="AF10" s="7">
+        <f t="shared" si="27"/>
         <v>-13.2</v>
       </c>
-      <c r="AG10" s="8">
-        <f t="shared" si="26"/>
+      <c r="AG10" s="7">
+        <f t="shared" si="27"/>
         <v>-13.5</v>
       </c>
-      <c r="AH10" s="8">
-        <f t="shared" si="26"/>
+      <c r="AH10" s="7">
+        <f t="shared" si="27"/>
         <v>-16.3</v>
       </c>
-      <c r="AI10" s="8">
-        <f t="shared" si="26"/>
+      <c r="AI10" s="7">
+        <f t="shared" si="27"/>
         <v>-13</v>
       </c>
-      <c r="AJ10" s="8">
-        <f t="shared" si="26"/>
+      <c r="AJ10" s="7">
+        <f t="shared" si="27"/>
         <v>-11.1</v>
       </c>
-      <c r="AK10" s="8">
-        <f t="shared" si="26"/>
+      <c r="AK10" s="7">
+        <f t="shared" si="27"/>
         <v>-8.8999999999999986</v>
       </c>
-      <c r="AL10" s="8">
-        <f t="shared" si="26"/>
+      <c r="AL10" s="7">
+        <f t="shared" si="27"/>
         <v>-7.7</v>
       </c>
-      <c r="AM10" s="8">
-        <f t="shared" si="26"/>
+      <c r="AM10" s="7">
+        <f t="shared" si="27"/>
         <v>-16.5</v>
       </c>
-      <c r="AN10" s="8">
-        <f t="shared" si="26"/>
+      <c r="AN10" s="7">
+        <f t="shared" si="27"/>
         <v>-3.4999999999999991</v>
       </c>
-      <c r="AO10" s="8">
-        <f t="shared" si="26"/>
+      <c r="AO10" s="7">
+        <f t="shared" si="27"/>
         <v>-1.6999999999999993</v>
       </c>
-      <c r="AP10" s="8">
-        <f t="shared" si="26"/>
+      <c r="AP10" s="7">
+        <f t="shared" si="27"/>
         <v>-42.4</v>
       </c>
-      <c r="AQ10" s="8">
-        <f t="shared" si="26"/>
+      <c r="AQ10" s="7">
+        <f t="shared" si="27"/>
         <v>-15</v>
       </c>
-      <c r="AR10" s="8">
-        <f t="shared" si="26"/>
+      <c r="AR10" s="7">
+        <f t="shared" si="27"/>
         <v>-15.399999999999999</v>
       </c>
-      <c r="AS10" s="8">
-        <f t="shared" si="26"/>
+      <c r="AS10" s="7">
+        <f t="shared" si="27"/>
         <v>-14.3</v>
       </c>
-      <c r="AT10" s="8">
-        <f t="shared" si="26"/>
+      <c r="AT10" s="7">
+        <f t="shared" si="27"/>
         <v>-13</v>
       </c>
-      <c r="AU10" s="8">
-        <f t="shared" si="26"/>
+      <c r="AU10" s="7">
+        <f t="shared" si="27"/>
         <v>-14.600000000000001</v>
       </c>
-      <c r="AV10" s="8">
-        <f t="shared" si="26"/>
+      <c r="AV10" s="7">
+        <f t="shared" si="27"/>
         <v>-9</v>
       </c>
-      <c r="AW10" s="8">
-        <f t="shared" si="26"/>
+      <c r="AW10" s="7">
+        <f t="shared" si="27"/>
         <v>-9.1000000000000014</v>
       </c>
-      <c r="AX10" s="8">
-        <f t="shared" si="26"/>
+      <c r="AX10" s="7">
+        <f t="shared" si="27"/>
         <v>-5.9000000000000021</v>
       </c>
-      <c r="AY10" s="8">
-        <f t="shared" si="26"/>
+      <c r="AY10" s="7">
+        <f t="shared" si="27"/>
         <v>-0.69999999999999929</v>
       </c>
-      <c r="AZ10" s="8">
-        <f t="shared" si="26"/>
+      <c r="AZ10" s="7">
+        <f t="shared" si="27"/>
         <v>-0.28399999999999537</v>
       </c>
-      <c r="BA10" s="8">
-        <f t="shared" si="26"/>
+      <c r="BA10" s="7">
+        <f t="shared" si="27"/>
         <v>8.8999999999999968</v>
       </c>
-      <c r="BB10" s="8">
-        <f t="shared" si="26"/>
+      <c r="BB10" s="7">
+        <f t="shared" si="27"/>
         <v>14.500000000000011</v>
       </c>
-      <c r="BC10" s="8">
-        <f t="shared" si="26"/>
+      <c r="BC10" s="7">
+        <f t="shared" si="27"/>
         <v>22.100000000000009</v>
       </c>
-      <c r="BD10" s="8">
+      <c r="BD10" s="7">
         <f>+BD5-BD9</f>
         <v>39.39</v>
       </c>
-      <c r="BE10" s="8">
-        <f t="shared" ref="BE10:BF10" si="27">+BE5-BE9</f>
+      <c r="BE10" s="7">
+        <f t="shared" ref="BE10:BF10" si="28">+BE5-BE9</f>
         <v>44.722000000000001</v>
       </c>
-      <c r="BF10" s="8">
-        <f t="shared" si="27"/>
+      <c r="BF10" s="7">
+        <f t="shared" si="28"/>
         <v>49.866</v>
       </c>
-      <c r="BO10" s="8">
+      <c r="BO10" s="7">
         <f>+BO5-BO9</f>
         <v>156.078</v>
       </c>
-      <c r="BP10" s="8">
-        <f t="shared" ref="BP10:BU10" si="28">+BP5-BP9</f>
+      <c r="BP10" s="7">
+        <f t="shared" ref="BP10:BU10" si="29">+BP5-BP9</f>
         <v>261.35899999999992</v>
       </c>
-      <c r="BQ10" s="8">
-        <f t="shared" si="28"/>
+      <c r="BQ10" s="7">
+        <f t="shared" si="29"/>
         <v>370.69269999999995</v>
       </c>
-      <c r="BR10" s="8">
-        <f t="shared" si="28"/>
+      <c r="BR10" s="7">
+        <f t="shared" si="29"/>
         <v>471.7422499999999</v>
       </c>
-      <c r="BS10" s="8">
-        <f t="shared" si="28"/>
+      <c r="BS10" s="7">
+        <f t="shared" si="29"/>
         <v>586.55277099999989</v>
       </c>
-      <c r="BT10" s="8">
-        <f t="shared" si="28"/>
+      <c r="BT10" s="7">
+        <f t="shared" si="29"/>
         <v>692.37065449999989</v>
       </c>
-      <c r="BU10" s="8">
-        <f t="shared" si="28"/>
+      <c r="BU10" s="7">
+        <f t="shared" si="29"/>
         <v>816.4753800699998</v>
       </c>
-      <c r="BV10" s="8">
-        <f t="shared" ref="BV10" si="29">+BV5-BV9</f>
+      <c r="BV10" s="7">
+        <f t="shared" ref="BV10" si="30">+BV5-BV9</f>
         <v>945.26495938699964</v>
       </c>
-      <c r="BW10" s="8">
-        <f t="shared" ref="BW10" si="30">+BW5-BW9</f>
+      <c r="BW10" s="7">
+        <f t="shared" ref="BW10" si="31">+BW5-BW9</f>
         <v>1039.7914553256999</v>
       </c>
-      <c r="BX10" s="8">
-        <f t="shared" ref="BX10" si="31">+BX5-BX9</f>
+      <c r="BX10" s="7">
+        <f t="shared" ref="BX10" si="32">+BX5-BX9</f>
         <v>1143.7706008582697</v>
       </c>
-      <c r="BY10" s="8">
-        <f t="shared" ref="BY10" si="32">+BY5-BY9</f>
+      <c r="BY10" s="7">
+        <f t="shared" ref="BY10" si="33">+BY5-BY9</f>
         <v>1192.5495104612319</v>
       </c>
-      <c r="BZ10" s="8">
-        <f t="shared" ref="BZ10" si="33">+BZ5-BZ9</f>
+      <c r="BZ10" s="7">
+        <f t="shared" ref="BZ10" si="34">+BZ5-BZ9</f>
         <v>1242.9264035003469</v>
       </c>
     </row>
-    <row r="11" spans="1:230" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="8" t="s">
+    <row r="11" spans="1:230" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>-0.3</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>-0.2</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>-0.2</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>-0.8</v>
       </c>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
-      <c r="I11" s="8">
-        <v>0</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0</v>
-      </c>
-      <c r="K11" s="8">
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
         <v>-0.1</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <v>-0.1</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="7">
         <v>-0.2</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="7">
         <v>-0.2</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="7">
         <v>-0.2</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="7">
         <v>-0.4</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="7">
         <v>-0.3</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="7">
         <v>-0.4</v>
       </c>
-      <c r="S11" s="8">
+      <c r="S11" s="7">
         <v>-0.4</v>
       </c>
-      <c r="T11" s="8">
+      <c r="T11" s="7">
         <v>-1.2</v>
       </c>
-      <c r="U11" s="8">
+      <c r="U11" s="7">
         <v>-0.4</v>
       </c>
-      <c r="V11" s="8">
+      <c r="V11" s="7">
         <v>-0.5</v>
       </c>
-      <c r="W11" s="8">
+      <c r="W11" s="7">
         <v>-0.5</v>
       </c>
-      <c r="X11" s="8">
+      <c r="X11" s="7">
         <v>-0.5</v>
       </c>
-      <c r="Y11" s="8">
+      <c r="Y11" s="7">
         <v>-0.6</v>
       </c>
-      <c r="Z11" s="8">
+      <c r="Z11" s="7">
         <v>-0.6</v>
       </c>
-      <c r="AA11" s="8">
+      <c r="AA11" s="7">
         <v>-0.6</v>
       </c>
-      <c r="AB11" s="8">
+      <c r="AB11" s="7">
         <v>-0.6</v>
       </c>
-      <c r="AC11" s="8">
+      <c r="AC11" s="7">
         <v>-0.8</v>
       </c>
-      <c r="AD11" s="8">
+      <c r="AD11" s="7">
         <v>-2.4</v>
       </c>
-      <c r="AE11" s="8">
+      <c r="AE11" s="7">
         <v>-1.3</v>
       </c>
-      <c r="AF11" s="8">
+      <c r="AF11" s="7">
         <v>-1.3</v>
       </c>
-      <c r="AG11" s="8">
+      <c r="AG11" s="7">
         <v>-1.3</v>
       </c>
-      <c r="AH11" s="8">
+      <c r="AH11" s="7">
         <v>-1.5</v>
       </c>
-      <c r="AI11" s="8">
+      <c r="AI11" s="7">
         <v>0.1</v>
       </c>
-      <c r="AJ11" s="8">
+      <c r="AJ11" s="7">
         <v>-1.9</v>
       </c>
-      <c r="AK11" s="8">
+      <c r="AK11" s="7">
         <v>-2.4</v>
       </c>
-      <c r="AL11" s="8">
+      <c r="AL11" s="7">
         <v>-2.7</v>
       </c>
-      <c r="AM11" s="8">
+      <c r="AM11" s="7">
         <v>-2.5</v>
       </c>
-      <c r="AN11" s="8">
+      <c r="AN11" s="7">
         <v>-3.1</v>
       </c>
-      <c r="AO11" s="8">
+      <c r="AO11" s="7">
         <v>-3.1</v>
       </c>
-      <c r="AP11" s="8">
+      <c r="AP11" s="7">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="AQ11" s="8">
+      <c r="AQ11" s="7">
         <v>-3.2</v>
       </c>
-      <c r="AR11" s="8">
+      <c r="AR11" s="7">
         <v>-3.3</v>
       </c>
-      <c r="AS11" s="8">
+      <c r="AS11" s="7">
         <v>-3.3</v>
       </c>
-      <c r="AT11" s="8">
+      <c r="AT11" s="7">
         <v>-3.5</v>
       </c>
-      <c r="AU11" s="8">
+      <c r="AU11" s="7">
         <v>-10.199999999999999</v>
       </c>
-      <c r="AV11" s="8">
+      <c r="AV11" s="7">
         <v>-4.5999999999999996</v>
       </c>
-      <c r="AW11" s="8">
+      <c r="AW11" s="7">
         <v>-5.6</v>
       </c>
-      <c r="AX11" s="8">
+      <c r="AX11" s="7">
         <v>-6.2</v>
       </c>
-      <c r="AY11" s="8">
+      <c r="AY11" s="7">
         <v>-6</v>
       </c>
-      <c r="AZ11" s="8">
+      <c r="AZ11" s="7">
         <v>-5.9</v>
       </c>
-      <c r="BA11" s="8">
+      <c r="BA11" s="7">
         <v>-6.1</v>
       </c>
-      <c r="BB11" s="8">
+      <c r="BB11" s="7">
         <v>-31.9</v>
       </c>
-      <c r="BC11" s="8">
+      <c r="BC11" s="7">
         <v>-3.4</v>
       </c>
-      <c r="BD11" s="8">
+      <c r="BD11" s="7">
         <v>-3.4</v>
       </c>
-      <c r="BP11" s="7">
-        <f>+BO21*$BZ$23</f>
+      <c r="BP11" s="6">
+        <f t="shared" ref="BP11:BZ11" si="35">+BO21*$BZ$23</f>
         <v>2.5878999999999994</v>
       </c>
-      <c r="BQ11" s="7">
-        <f>+BP21*$BZ$23</f>
+      <c r="BQ11" s="6">
+        <f t="shared" si="35"/>
         <v>12.485908749999997</v>
       </c>
-      <c r="BR11" s="7">
-        <f>+BQ21*$BZ$23</f>
+      <c r="BR11" s="6">
+        <f t="shared" si="35"/>
         <v>26.855106578124992</v>
       </c>
-      <c r="BS11" s="7">
-        <f>+BR21*$BZ$23</f>
+      <c r="BS11" s="6">
+        <f t="shared" si="35"/>
         <v>45.552507449804679</v>
       </c>
-      <c r="BT11" s="7">
-        <f>+BS21*$BZ$23</f>
+      <c r="BT11" s="6">
+        <f t="shared" si="35"/>
         <v>69.256455391672361</v>
       </c>
-      <c r="BU11" s="7">
-        <f>+BT21*$BZ$23</f>
+      <c r="BU11" s="6">
+        <f t="shared" si="35"/>
         <v>97.817472012610068</v>
       </c>
-      <c r="BV11" s="7">
-        <f>+BU21*$BZ$23</f>
+      <c r="BV11" s="6">
+        <f t="shared" si="35"/>
         <v>132.10345396570793</v>
       </c>
-      <c r="BW11" s="7">
-        <f>+BV21*$BZ$23</f>
+      <c r="BW11" s="6">
+        <f t="shared" si="35"/>
         <v>172.50476946643448</v>
       </c>
-      <c r="BX11" s="7">
-        <f>+BW21*$BZ$23</f>
+      <c r="BX11" s="6">
+        <f t="shared" si="35"/>
         <v>217.96587789613952</v>
       </c>
-      <c r="BY11" s="7">
-        <f>+BX21*$BZ$23</f>
+      <c r="BY11" s="6">
+        <f t="shared" si="35"/>
         <v>269.03099584942987</v>
       </c>
-      <c r="BZ11" s="7">
-        <f>+BY21*$BZ$23</f>
+      <c r="BZ11" s="6">
+        <f t="shared" si="35"/>
         <v>323.84026483607971</v>
       </c>
     </row>
-    <row r="12" spans="1:230" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="8" t="s">
+    <row r="12" spans="1:230" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>-1.9</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>-2.4</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>-1</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>-1</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>-1.2</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <v>-1.2</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <v>-3.2</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <v>-3.2</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="7">
         <v>-5.6</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="7">
         <v>-3.8</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="7">
         <v>-2.9</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="7">
         <v>-7.4</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="7">
         <v>-5.4</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="7">
         <v>-6.1</v>
       </c>
-      <c r="R12" s="8">
+      <c r="R12" s="7">
         <v>1.6</v>
       </c>
-      <c r="S12" s="8">
+      <c r="S12" s="7">
         <v>-6.6</v>
       </c>
-      <c r="T12" s="8">
+      <c r="T12" s="7">
         <v>-7.3</v>
       </c>
-      <c r="U12" s="8">
+      <c r="U12" s="7">
         <v>-8.6999999999999993</v>
       </c>
-      <c r="V12" s="8">
+      <c r="V12" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="W12" s="8">
+      <c r="W12" s="7">
         <v>-8.8000000000000007</v>
       </c>
-      <c r="X12" s="8">
+      <c r="X12" s="7">
         <v>-10.5</v>
       </c>
-      <c r="Y12" s="8">
+      <c r="Y12" s="7">
         <v>-4.3</v>
       </c>
-      <c r="Z12" s="8">
+      <c r="Z12" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AA12" s="8">
+      <c r="AA12" s="7">
         <v>-6.5</v>
       </c>
-      <c r="AB12" s="8">
+      <c r="AB12" s="7">
         <v>-9</v>
       </c>
-      <c r="AC12" s="8">
+      <c r="AC12" s="7">
         <v>-15.2</v>
       </c>
-      <c r="AD12" s="8">
+      <c r="AD12" s="7">
         <v>-13</v>
       </c>
-      <c r="AE12" s="8">
+      <c r="AE12" s="7">
         <v>-17.8</v>
       </c>
-      <c r="AF12" s="8">
+      <c r="AF12" s="7">
         <v>-14.7</v>
       </c>
-      <c r="AG12" s="8">
+      <c r="AG12" s="7">
         <v>-15.1</v>
       </c>
-      <c r="AH12" s="8">
+      <c r="AH12" s="7">
         <v>-18</v>
       </c>
-      <c r="AI12" s="8">
+      <c r="AI12" s="7">
         <v>-13.1</v>
       </c>
-      <c r="AJ12" s="8">
+      <c r="AJ12" s="7">
         <v>-13.2</v>
       </c>
-      <c r="AK12" s="8">
+      <c r="AK12" s="7">
         <v>-11.4</v>
       </c>
-      <c r="AL12" s="8">
+      <c r="AL12" s="7">
         <v>-10.6</v>
       </c>
-      <c r="AM12" s="8">
+      <c r="AM12" s="7">
         <v>-19.2</v>
       </c>
-      <c r="AN12" s="8">
+      <c r="AN12" s="7">
         <v>-20.2</v>
       </c>
-      <c r="AO12" s="8">
+      <c r="AO12" s="7">
         <v>-41</v>
       </c>
-      <c r="AP12" s="8">
+      <c r="AP12" s="7">
         <v>4.7</v>
       </c>
-      <c r="AQ12" s="8">
+      <c r="AQ12" s="7">
         <v>-18.399999999999999</v>
       </c>
-      <c r="AR12" s="8">
+      <c r="AR12" s="7">
         <v>-18.899999999999999</v>
       </c>
-      <c r="AS12" s="8">
+      <c r="AS12" s="7">
         <v>-17.7</v>
       </c>
-      <c r="AT12" s="8">
+      <c r="AT12" s="7">
         <v>-16.600000000000001</v>
       </c>
-      <c r="AU12" s="8">
+      <c r="AU12" s="7">
         <v>-25</v>
       </c>
-      <c r="AV12" s="8">
+      <c r="AV12" s="7">
         <v>-13.8</v>
       </c>
-      <c r="AW12" s="8">
+      <c r="AW12" s="7">
         <v>-14.9</v>
       </c>
-      <c r="AX12" s="8">
+      <c r="AX12" s="7">
         <v>-12.2</v>
       </c>
-      <c r="AY12" s="8">
+      <c r="AY12" s="7">
         <v>-6.8</v>
       </c>
-      <c r="AZ12" s="8">
-        <f t="shared" ref="AZ12:BC12" si="34">+AZ10+AZ11</f>
+      <c r="AZ12" s="7">
+        <f t="shared" ref="AZ12:BC12" si="36">+AZ10+AZ11</f>
         <v>-6.1839999999999957</v>
       </c>
-      <c r="BA12" s="8">
-        <f t="shared" si="34"/>
+      <c r="BA12" s="7">
+        <f t="shared" si="36"/>
         <v>2.7999999999999972</v>
       </c>
-      <c r="BB12" s="8">
-        <f t="shared" si="34"/>
+      <c r="BB12" s="7">
+        <f t="shared" si="36"/>
         <v>-17.399999999999988</v>
       </c>
-      <c r="BC12" s="8">
-        <f t="shared" si="34"/>
+      <c r="BC12" s="7">
+        <f t="shared" si="36"/>
         <v>18.70000000000001</v>
       </c>
-      <c r="BD12" s="8">
+      <c r="BD12" s="7">
         <f>+BD10+BD11</f>
         <v>35.99</v>
       </c>
-      <c r="BE12" s="8">
+      <c r="BE12" s="7">
         <f>+BE10+BE11</f>
         <v>44.722000000000001</v>
       </c>
-      <c r="BF12" s="8">
+      <c r="BF12" s="7">
         <f>+BF10+BF11</f>
         <v>49.866</v>
       </c>
-      <c r="BO12" s="7">
+      <c r="BO12" s="6">
         <f>+BO10+BO11</f>
         <v>156.078</v>
       </c>
-      <c r="BP12" s="7">
-        <f t="shared" ref="BP12:BU12" si="35">+BP10+BP11</f>
+      <c r="BP12" s="6">
+        <f t="shared" ref="BP12:BU12" si="37">+BP10+BP11</f>
         <v>263.94689999999991</v>
       </c>
-      <c r="BQ12" s="7">
-        <f t="shared" si="35"/>
+      <c r="BQ12" s="6">
+        <f t="shared" si="37"/>
         <v>383.17860874999997</v>
       </c>
-      <c r="BR12" s="7">
-        <f t="shared" si="35"/>
+      <c r="BR12" s="6">
+        <f t="shared" si="37"/>
         <v>498.5973565781249</v>
       </c>
-      <c r="BS12" s="7">
-        <f t="shared" si="35"/>
+      <c r="BS12" s="6">
+        <f t="shared" si="37"/>
         <v>632.10527844980459</v>
       </c>
-      <c r="BT12" s="7">
-        <f t="shared" si="35"/>
+      <c r="BT12" s="6">
+        <f t="shared" si="37"/>
         <v>761.62710989167226</v>
       </c>
-      <c r="BU12" s="7">
-        <f t="shared" si="35"/>
+      <c r="BU12" s="6">
+        <f t="shared" si="37"/>
         <v>914.2928520826099</v>
       </c>
-      <c r="BV12" s="7">
-        <f t="shared" ref="BV12" si="36">+BV10+BV11</f>
+      <c r="BV12" s="6">
+        <f t="shared" ref="BV12" si="38">+BV10+BV11</f>
         <v>1077.3684133527076</v>
       </c>
-      <c r="BW12" s="7">
-        <f t="shared" ref="BW12" si="37">+BW10+BW11</f>
+      <c r="BW12" s="6">
+        <f t="shared" ref="BW12" si="39">+BW10+BW11</f>
         <v>1212.2962247921344</v>
       </c>
-      <c r="BX12" s="7">
-        <f t="shared" ref="BX12" si="38">+BX10+BX11</f>
+      <c r="BX12" s="6">
+        <f t="shared" ref="BX12" si="40">+BX10+BX11</f>
         <v>1361.7364787544093</v>
       </c>
-      <c r="BY12" s="7">
-        <f t="shared" ref="BY12" si="39">+BY10+BY11</f>
+      <c r="BY12" s="6">
+        <f t="shared" ref="BY12" si="41">+BY10+BY11</f>
         <v>1461.5805063106618</v>
       </c>
-      <c r="BZ12" s="7">
-        <f t="shared" ref="BZ12" si="40">+BZ10+BZ11</f>
+      <c r="BZ12" s="6">
+        <f t="shared" ref="BZ12" si="42">+BZ10+BZ11</f>
         <v>1566.7666683364266</v>
       </c>
     </row>
-    <row r="13" spans="1:230" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="8" t="s">
+    <row r="13" spans="1:230" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>-0.3</v>
       </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
         <v>-0.6</v>
       </c>
-      <c r="H13" s="8">
-        <v>0</v>
-      </c>
-      <c r="I13" s="8">
-        <v>0</v>
-      </c>
-      <c r="J13" s="8">
-        <v>0</v>
-      </c>
-      <c r="K13" s="8">
-        <v>0</v>
-      </c>
-      <c r="L13" s="8">
-        <v>0</v>
-      </c>
-      <c r="M13" s="8">
-        <v>0</v>
-      </c>
-      <c r="N13" s="8">
-        <v>0</v>
-      </c>
-      <c r="O13" s="8">
-        <v>0</v>
-      </c>
-      <c r="P13" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="8">
-        <v>0</v>
-      </c>
-      <c r="R13" s="8">
-        <v>0</v>
-      </c>
-      <c r="S13" s="8">
-        <v>0</v>
-      </c>
-      <c r="T13" s="8">
-        <v>0</v>
-      </c>
-      <c r="U13" s="8">
-        <v>0</v>
-      </c>
-      <c r="V13" s="8">
-        <v>0</v>
-      </c>
-      <c r="W13" s="8">
-        <v>0</v>
-      </c>
-      <c r="X13" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AS13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AT13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AU13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AY13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AZ13" s="8">
-        <v>0</v>
-      </c>
-      <c r="BA13" s="8">
-        <v>0</v>
-      </c>
-      <c r="BB13" s="8">
-        <v>0</v>
-      </c>
-      <c r="BC13" s="8">
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>0</v>
+      </c>
+      <c r="R13" s="7">
+        <v>0</v>
+      </c>
+      <c r="S13" s="7">
+        <v>0</v>
+      </c>
+      <c r="T13" s="7">
+        <v>0</v>
+      </c>
+      <c r="U13" s="7">
+        <v>0</v>
+      </c>
+      <c r="V13" s="7">
+        <v>0</v>
+      </c>
+      <c r="W13" s="7">
+        <v>0</v>
+      </c>
+      <c r="X13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="7">
         <v>0.6</v>
       </c>
-      <c r="BD13" s="8">
+      <c r="BD13" s="7">
         <v>3.8</v>
       </c>
-      <c r="BP13" s="7">
+      <c r="BP13" s="6">
         <f>+BP12*0.25</f>
         <v>65.986724999999979</v>
       </c>
-      <c r="BQ13" s="7">
-        <f t="shared" ref="BQ13:BU13" si="41">+BQ12*0.25</f>
+      <c r="BQ13" s="6">
+        <f t="shared" ref="BQ13:BU13" si="43">+BQ12*0.25</f>
         <v>95.794652187499992</v>
       </c>
-      <c r="BR13" s="7">
-        <f t="shared" si="41"/>
+      <c r="BR13" s="6">
+        <f t="shared" si="43"/>
         <v>124.64933914453123</v>
       </c>
-      <c r="BS13" s="7">
-        <f t="shared" si="41"/>
+      <c r="BS13" s="6">
+        <f t="shared" si="43"/>
         <v>158.02631961245115</v>
       </c>
-      <c r="BT13" s="7">
-        <f t="shared" si="41"/>
+      <c r="BT13" s="6">
+        <f t="shared" si="43"/>
         <v>190.40677747291807</v>
       </c>
-      <c r="BU13" s="7">
-        <f t="shared" si="41"/>
+      <c r="BU13" s="6">
+        <f t="shared" si="43"/>
         <v>228.57321302065247</v>
       </c>
-      <c r="BV13" s="7">
-        <f t="shared" ref="BV13" si="42">+BV12*0.25</f>
+      <c r="BV13" s="6">
+        <f t="shared" ref="BV13" si="44">+BV12*0.25</f>
         <v>269.34210333817691</v>
       </c>
-      <c r="BW13" s="7">
-        <f t="shared" ref="BW13" si="43">+BW12*0.25</f>
+      <c r="BW13" s="6">
+        <f t="shared" ref="BW13" si="45">+BW12*0.25</f>
         <v>303.07405619803359</v>
       </c>
-      <c r="BX13" s="7">
-        <f t="shared" ref="BX13" si="44">+BX12*0.25</f>
+      <c r="BX13" s="6">
+        <f t="shared" ref="BX13" si="46">+BX12*0.25</f>
         <v>340.43411968860232</v>
       </c>
-      <c r="BY13" s="7">
-        <f t="shared" ref="BY13" si="45">+BY12*0.25</f>
+      <c r="BY13" s="6">
+        <f t="shared" ref="BY13" si="47">+BY12*0.25</f>
         <v>365.39512657766545</v>
       </c>
-      <c r="BZ13" s="7">
-        <f t="shared" ref="BZ13" si="46">+BZ12*0.25</f>
+      <c r="BZ13" s="6">
+        <f t="shared" ref="BZ13" si="48">+BZ12*0.25</f>
         <v>391.69166708410665</v>
       </c>
     </row>
-    <row r="14" spans="1:230" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="8" t="s">
+    <row r="14" spans="1:230" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="8">
-        <f t="shared" ref="C14:BC14" si="47">+C12-C13</f>
+      <c r="C14" s="7">
+        <f t="shared" ref="C14:BC14" si="49">+C12-C13</f>
         <v>-1.5999999999999999</v>
       </c>
-      <c r="D14" s="8">
-        <f t="shared" si="47"/>
+      <c r="D14" s="7">
+        <f t="shared" si="49"/>
         <v>-2.4</v>
       </c>
-      <c r="E14" s="8">
-        <f t="shared" si="47"/>
+      <c r="E14" s="7">
+        <f t="shared" si="49"/>
         <v>-1</v>
       </c>
-      <c r="F14" s="8">
-        <f t="shared" si="47"/>
+      <c r="F14" s="7">
+        <f t="shared" si="49"/>
         <v>-1</v>
       </c>
-      <c r="G14" s="8">
-        <f t="shared" si="47"/>
+      <c r="G14" s="7">
+        <f t="shared" si="49"/>
         <v>-0.6</v>
       </c>
-      <c r="H14" s="8">
-        <f t="shared" si="47"/>
+      <c r="H14" s="7">
+        <f t="shared" si="49"/>
         <v>-1.2</v>
       </c>
-      <c r="I14" s="8">
-        <f t="shared" si="47"/>
+      <c r="I14" s="7">
+        <f t="shared" si="49"/>
         <v>-3.2</v>
       </c>
-      <c r="J14" s="8">
-        <f t="shared" si="47"/>
+      <c r="J14" s="7">
+        <f t="shared" si="49"/>
         <v>-2.2999999999999998</v>
       </c>
-      <c r="K14" s="8">
-        <f t="shared" si="47"/>
+      <c r="K14" s="7">
+        <f t="shared" si="49"/>
         <v>-3.2</v>
       </c>
-      <c r="L14" s="8">
-        <f t="shared" si="47"/>
+      <c r="L14" s="7">
+        <f t="shared" si="49"/>
         <v>-5.6</v>
       </c>
-      <c r="M14" s="8">
-        <f t="shared" si="47"/>
+      <c r="M14" s="7">
+        <f t="shared" si="49"/>
         <v>-3.8</v>
       </c>
-      <c r="N14" s="8">
-        <f t="shared" si="47"/>
+      <c r="N14" s="7">
+        <f t="shared" si="49"/>
         <v>-2.9</v>
       </c>
-      <c r="O14" s="8">
-        <f t="shared" si="47"/>
+      <c r="O14" s="7">
+        <f t="shared" si="49"/>
         <v>-7.4</v>
       </c>
-      <c r="P14" s="8">
-        <f t="shared" si="47"/>
+      <c r="P14" s="7">
+        <f t="shared" si="49"/>
         <v>-5.4</v>
       </c>
-      <c r="Q14" s="8">
-        <f t="shared" si="47"/>
+      <c r="Q14" s="7">
+        <f t="shared" si="49"/>
         <v>-6.1</v>
       </c>
-      <c r="R14" s="8">
-        <f t="shared" si="47"/>
+      <c r="R14" s="7">
+        <f t="shared" si="49"/>
         <v>1.6</v>
       </c>
-      <c r="S14" s="8">
-        <f t="shared" si="47"/>
+      <c r="S14" s="7">
+        <f t="shared" si="49"/>
         <v>-6.6</v>
       </c>
-      <c r="T14" s="8">
-        <f t="shared" si="47"/>
+      <c r="T14" s="7">
+        <f t="shared" si="49"/>
         <v>-7.3</v>
       </c>
-      <c r="U14" s="8">
-        <f t="shared" si="47"/>
+      <c r="U14" s="7">
+        <f t="shared" si="49"/>
         <v>-8.6999999999999993</v>
       </c>
-      <c r="V14" s="8">
-        <f t="shared" si="47"/>
+      <c r="V14" s="7">
+        <f t="shared" si="49"/>
         <v>4.5999999999999996</v>
       </c>
-      <c r="W14" s="8">
-        <f t="shared" si="47"/>
+      <c r="W14" s="7">
+        <f t="shared" si="49"/>
         <v>-8.8000000000000007</v>
       </c>
-      <c r="X14" s="8">
-        <f t="shared" si="47"/>
+      <c r="X14" s="7">
+        <f t="shared" si="49"/>
         <v>-10.5</v>
       </c>
-      <c r="Y14" s="8">
-        <f t="shared" si="47"/>
+      <c r="Y14" s="7">
+        <f t="shared" si="49"/>
         <v>-4.3</v>
       </c>
-      <c r="Z14" s="8">
-        <f t="shared" si="47"/>
+      <c r="Z14" s="7">
+        <f t="shared" si="49"/>
         <v>4.0999999999999996</v>
       </c>
-      <c r="AA14" s="8">
-        <f t="shared" si="47"/>
+      <c r="AA14" s="7">
+        <f t="shared" si="49"/>
         <v>-6.5</v>
       </c>
-      <c r="AB14" s="8">
-        <f t="shared" si="47"/>
+      <c r="AB14" s="7">
+        <f t="shared" si="49"/>
         <v>-9</v>
       </c>
-      <c r="AC14" s="8">
-        <f t="shared" si="47"/>
+      <c r="AC14" s="7">
+        <f t="shared" si="49"/>
         <v>-15.2</v>
       </c>
-      <c r="AD14" s="8">
-        <f t="shared" si="47"/>
+      <c r="AD14" s="7">
+        <f t="shared" si="49"/>
         <v>-13</v>
       </c>
-      <c r="AE14" s="8">
-        <f t="shared" si="47"/>
+      <c r="AE14" s="7">
+        <f t="shared" si="49"/>
         <v>-17.8</v>
       </c>
-      <c r="AF14" s="8">
-        <f t="shared" si="47"/>
+      <c r="AF14" s="7">
+        <f t="shared" si="49"/>
         <v>-14.7</v>
       </c>
-      <c r="AG14" s="8">
-        <f t="shared" si="47"/>
+      <c r="AG14" s="7">
+        <f t="shared" si="49"/>
         <v>-15.1</v>
       </c>
-      <c r="AH14" s="8">
-        <f t="shared" si="47"/>
+      <c r="AH14" s="7">
+        <f t="shared" si="49"/>
         <v>-18</v>
       </c>
-      <c r="AI14" s="8">
-        <f t="shared" si="47"/>
+      <c r="AI14" s="7">
+        <f t="shared" si="49"/>
         <v>-13.1</v>
       </c>
-      <c r="AJ14" s="8">
-        <f t="shared" si="47"/>
+      <c r="AJ14" s="7">
+        <f t="shared" si="49"/>
         <v>-13.2</v>
       </c>
-      <c r="AK14" s="8">
-        <f t="shared" si="47"/>
+      <c r="AK14" s="7">
+        <f t="shared" si="49"/>
         <v>-11.4</v>
       </c>
-      <c r="AL14" s="8">
-        <f t="shared" si="47"/>
+      <c r="AL14" s="7">
+        <f t="shared" si="49"/>
         <v>-10.6</v>
       </c>
-      <c r="AM14" s="8">
-        <f t="shared" si="47"/>
+      <c r="AM14" s="7">
+        <f t="shared" si="49"/>
         <v>-19.2</v>
       </c>
-      <c r="AN14" s="8">
-        <f t="shared" si="47"/>
+      <c r="AN14" s="7">
+        <f t="shared" si="49"/>
         <v>-20.2</v>
       </c>
-      <c r="AO14" s="8">
-        <f t="shared" si="47"/>
+      <c r="AO14" s="7">
+        <f t="shared" si="49"/>
         <v>-41</v>
       </c>
-      <c r="AP14" s="8">
-        <f t="shared" si="47"/>
+      <c r="AP14" s="7">
+        <f t="shared" si="49"/>
         <v>4.7</v>
       </c>
-      <c r="AQ14" s="8">
-        <f t="shared" si="47"/>
+      <c r="AQ14" s="7">
+        <f t="shared" si="49"/>
         <v>-18.399999999999999</v>
       </c>
-      <c r="AR14" s="8">
-        <f t="shared" si="47"/>
+      <c r="AR14" s="7">
+        <f t="shared" si="49"/>
         <v>-18.899999999999999</v>
       </c>
-      <c r="AS14" s="8">
-        <f t="shared" si="47"/>
+      <c r="AS14" s="7">
+        <f t="shared" si="49"/>
         <v>-17.7</v>
       </c>
-      <c r="AT14" s="8">
-        <f t="shared" si="47"/>
+      <c r="AT14" s="7">
+        <f t="shared" si="49"/>
         <v>-16.600000000000001</v>
       </c>
-      <c r="AU14" s="8">
-        <f t="shared" si="47"/>
+      <c r="AU14" s="7">
+        <f t="shared" si="49"/>
         <v>-25</v>
       </c>
-      <c r="AV14" s="8">
-        <f t="shared" si="47"/>
+      <c r="AV14" s="7">
+        <f t="shared" si="49"/>
         <v>-13.8</v>
       </c>
-      <c r="AW14" s="8">
-        <f t="shared" ref="AW14" si="48">+AW12-AW13</f>
+      <c r="AW14" s="7">
+        <f t="shared" ref="AW14" si="50">+AW12-AW13</f>
         <v>-14.9</v>
       </c>
-      <c r="AX14" s="8">
-        <f t="shared" ref="AX14" si="49">+AX12-AX13</f>
+      <c r="AX14" s="7">
+        <f t="shared" ref="AX14" si="51">+AX12-AX13</f>
         <v>-12.2</v>
       </c>
-      <c r="AY14" s="8">
-        <f t="shared" ref="AY14" si="50">+AY12-AY13</f>
+      <c r="AY14" s="7">
+        <f t="shared" ref="AY14" si="52">+AY12-AY13</f>
         <v>-6.8</v>
       </c>
-      <c r="AZ14" s="8">
-        <f t="shared" ref="AZ14" si="51">+AZ12-AZ13</f>
+      <c r="AZ14" s="7">
+        <f t="shared" ref="AZ14" si="53">+AZ12-AZ13</f>
         <v>-6.1839999999999957</v>
       </c>
-      <c r="BA14" s="8">
+      <c r="BA14" s="7">
         <f>+BA12-BA13</f>
         <v>2.7999999999999972</v>
       </c>
-      <c r="BB14" s="8">
-        <f t="shared" ref="BB14" si="52">+BB12-BB13</f>
+      <c r="BB14" s="7">
+        <f t="shared" ref="BB14" si="54">+BB12-BB13</f>
         <v>-17.399999999999988</v>
       </c>
-      <c r="BC14" s="8">
-        <f t="shared" si="47"/>
+      <c r="BC14" s="7">
+        <f t="shared" si="49"/>
         <v>18.100000000000009</v>
       </c>
-      <c r="BD14" s="8">
+      <c r="BD14" s="7">
         <f>+BD12-BD13</f>
         <v>32.190000000000005</v>
       </c>
-      <c r="BE14" s="8">
+      <c r="BE14" s="7">
         <f>+BE12-BE13</f>
         <v>44.722000000000001</v>
       </c>
-      <c r="BF14" s="8">
+      <c r="BF14" s="7">
         <f>+BF12-BF13</f>
         <v>49.866</v>
       </c>
-      <c r="BP14" s="7">
+      <c r="BP14" s="6">
         <f>+BP12-BP13</f>
         <v>197.96017499999994</v>
       </c>
-      <c r="BQ14" s="7">
-        <f t="shared" ref="BQ14:BU14" si="53">+BQ12-BQ13</f>
+      <c r="BQ14" s="6">
+        <f t="shared" ref="BQ14:BU14" si="55">+BQ12-BQ13</f>
         <v>287.38395656249998</v>
       </c>
-      <c r="BR14" s="7">
-        <f t="shared" si="53"/>
+      <c r="BR14" s="6">
+        <f t="shared" si="55"/>
         <v>373.94801743359369</v>
       </c>
-      <c r="BS14" s="7">
-        <f t="shared" si="53"/>
+      <c r="BS14" s="6">
+        <f t="shared" si="55"/>
         <v>474.07895883735341</v>
       </c>
-      <c r="BT14" s="7">
-        <f t="shared" si="53"/>
+      <c r="BT14" s="6">
+        <f t="shared" si="55"/>
         <v>571.2203324187542</v>
       </c>
-      <c r="BU14" s="7">
-        <f t="shared" si="53"/>
+      <c r="BU14" s="6">
+        <f t="shared" si="55"/>
         <v>685.71963906195742</v>
       </c>
-      <c r="BV14" s="7">
-        <f t="shared" ref="BV14" si="54">+BV12-BV13</f>
+      <c r="BV14" s="6">
+        <f t="shared" ref="BV14" si="56">+BV12-BV13</f>
         <v>808.02631001453074</v>
       </c>
-      <c r="BW14" s="7">
-        <f t="shared" ref="BW14" si="55">+BW12-BW13</f>
+      <c r="BW14" s="6">
+        <f t="shared" ref="BW14" si="57">+BW12-BW13</f>
         <v>909.22216859410082</v>
       </c>
-      <c r="BX14" s="7">
-        <f t="shared" ref="BX14" si="56">+BX12-BX13</f>
+      <c r="BX14" s="6">
+        <f t="shared" ref="BX14" si="58">+BX12-BX13</f>
         <v>1021.302359065807</v>
       </c>
-      <c r="BY14" s="7">
-        <f t="shared" ref="BY14" si="57">+BY12-BY13</f>
+      <c r="BY14" s="6">
+        <f t="shared" ref="BY14" si="59">+BY12-BY13</f>
         <v>1096.1853797329964</v>
       </c>
-      <c r="BZ14" s="7">
-        <f t="shared" ref="BZ14" si="58">+BZ12-BZ13</f>
+      <c r="BZ14" s="6">
+        <f t="shared" ref="BZ14" si="60">+BZ12-BZ13</f>
         <v>1175.0750012523199</v>
       </c>
-      <c r="CA14" s="7">
-        <f>+BZ14*(1+$BZ$25)</f>
+      <c r="CA14" s="6">
+        <f t="shared" ref="CA14:DF14" si="61">+BZ14*(1+$BZ$25)</f>
         <v>1186.8257512648431</v>
       </c>
-      <c r="CB14" s="7">
-        <f>+CA14*(1+$BZ$25)</f>
+      <c r="CB14" s="6">
+        <f t="shared" si="61"/>
         <v>1198.6940087774915</v>
       </c>
-      <c r="CC14" s="7">
-        <f>+CB14*(1+$BZ$25)</f>
+      <c r="CC14" s="6">
+        <f t="shared" si="61"/>
         <v>1210.6809488652664</v>
       </c>
-      <c r="CD14" s="7">
-        <f>+CC14*(1+$BZ$25)</f>
+      <c r="CD14" s="6">
+        <f t="shared" si="61"/>
         <v>1222.7877583539191</v>
       </c>
-      <c r="CE14" s="7">
-        <f>+CD14*(1+$BZ$25)</f>
+      <c r="CE14" s="6">
+        <f t="shared" si="61"/>
         <v>1235.0156359374582</v>
       </c>
-      <c r="CF14" s="7">
-        <f>+CE14*(1+$BZ$25)</f>
+      <c r="CF14" s="6">
+        <f t="shared" si="61"/>
         <v>1247.3657922968328</v>
       </c>
-      <c r="CG14" s="7">
-        <f>+CF14*(1+$BZ$25)</f>
+      <c r="CG14" s="6">
+        <f t="shared" si="61"/>
         <v>1259.8394502198012</v>
       </c>
-      <c r="CH14" s="7">
-        <f>+CG14*(1+$BZ$25)</f>
+      <c r="CH14" s="6">
+        <f t="shared" si="61"/>
         <v>1272.4378447219992</v>
       </c>
-      <c r="CI14" s="7">
-        <f>+CH14*(1+$BZ$25)</f>
+      <c r="CI14" s="6">
+        <f t="shared" si="61"/>
         <v>1285.1622231692193</v>
       </c>
-      <c r="CJ14" s="7">
-        <f>+CI14*(1+$BZ$25)</f>
+      <c r="CJ14" s="6">
+        <f t="shared" si="61"/>
         <v>1298.0138454009116</v>
       </c>
-      <c r="CK14" s="7">
-        <f>+CJ14*(1+$BZ$25)</f>
+      <c r="CK14" s="6">
+        <f t="shared" si="61"/>
         <v>1310.9939838549208</v>
       </c>
-      <c r="CL14" s="7">
-        <f>+CK14*(1+$BZ$25)</f>
+      <c r="CL14" s="6">
+        <f t="shared" si="61"/>
         <v>1324.1039236934701</v>
       </c>
-      <c r="CM14" s="7">
-        <f>+CL14*(1+$BZ$25)</f>
+      <c r="CM14" s="6">
+        <f t="shared" si="61"/>
         <v>1337.3449629304048</v>
       </c>
-      <c r="CN14" s="7">
-        <f>+CM14*(1+$BZ$25)</f>
+      <c r="CN14" s="6">
+        <f t="shared" si="61"/>
         <v>1350.7184125597089</v>
       </c>
-      <c r="CO14" s="7">
-        <f>+CN14*(1+$BZ$25)</f>
+      <c r="CO14" s="6">
+        <f t="shared" si="61"/>
         <v>1364.2255966853061</v>
       </c>
-      <c r="CP14" s="7">
-        <f>+CO14*(1+$BZ$25)</f>
+      <c r="CP14" s="6">
+        <f t="shared" si="61"/>
         <v>1377.8678526521592</v>
       </c>
-      <c r="CQ14" s="7">
-        <f>+CP14*(1+$BZ$25)</f>
+      <c r="CQ14" s="6">
+        <f t="shared" si="61"/>
         <v>1391.6465311786808</v>
       </c>
-      <c r="CR14" s="7">
-        <f>+CQ14*(1+$BZ$25)</f>
+      <c r="CR14" s="6">
+        <f t="shared" si="61"/>
         <v>1405.5629964904676</v>
       </c>
-      <c r="CS14" s="7">
-        <f>+CR14*(1+$BZ$25)</f>
+      <c r="CS14" s="6">
+        <f t="shared" si="61"/>
         <v>1419.6186264553724</v>
       </c>
-      <c r="CT14" s="7">
-        <f>+CS14*(1+$BZ$25)</f>
+      <c r="CT14" s="6">
+        <f t="shared" si="61"/>
         <v>1433.8148127199261</v>
       </c>
-      <c r="CU14" s="7">
-        <f>+CT14*(1+$BZ$25)</f>
+      <c r="CU14" s="6">
+        <f t="shared" si="61"/>
         <v>1448.1529608471253</v>
       </c>
-      <c r="CV14" s="7">
-        <f>+CU14*(1+$BZ$25)</f>
+      <c r="CV14" s="6">
+        <f t="shared" si="61"/>
         <v>1462.6344904555965</v>
       </c>
-      <c r="CW14" s="7">
-        <f>+CV14*(1+$BZ$25)</f>
+      <c r="CW14" s="6">
+        <f t="shared" si="61"/>
         <v>1477.2608353601524</v>
       </c>
-      <c r="CX14" s="7">
-        <f>+CW14*(1+$BZ$25)</f>
+      <c r="CX14" s="6">
+        <f t="shared" si="61"/>
         <v>1492.033443713754</v>
       </c>
-      <c r="CY14" s="7">
-        <f>+CX14*(1+$BZ$25)</f>
+      <c r="CY14" s="6">
+        <f t="shared" si="61"/>
         <v>1506.9537781508916</v>
       </c>
-      <c r="CZ14" s="7">
-        <f>+CY14*(1+$BZ$25)</f>
+      <c r="CZ14" s="6">
+        <f t="shared" si="61"/>
         <v>1522.0233159324005</v>
       </c>
-      <c r="DA14" s="7">
-        <f>+CZ14*(1+$BZ$25)</f>
+      <c r="DA14" s="6">
+        <f t="shared" si="61"/>
         <v>1537.2435490917244</v>
       </c>
-      <c r="DB14" s="7">
-        <f>+DA14*(1+$BZ$25)</f>
+      <c r="DB14" s="6">
+        <f t="shared" si="61"/>
         <v>1552.6159845826417</v>
       </c>
-      <c r="DC14" s="7">
-        <f>+DB14*(1+$BZ$25)</f>
+      <c r="DC14" s="6">
+        <f t="shared" si="61"/>
         <v>1568.1421444284681</v>
       </c>
-      <c r="DD14" s="7">
-        <f>+DC14*(1+$BZ$25)</f>
+      <c r="DD14" s="6">
+        <f t="shared" si="61"/>
         <v>1583.8235658727529</v>
       </c>
-      <c r="DE14" s="7">
-        <f>+DD14*(1+$BZ$25)</f>
+      <c r="DE14" s="6">
+        <f t="shared" si="61"/>
         <v>1599.6618015314805</v>
       </c>
-      <c r="DF14" s="7">
-        <f>+DE14*(1+$BZ$25)</f>
+      <c r="DF14" s="6">
+        <f t="shared" si="61"/>
         <v>1615.6584195467954</v>
       </c>
-      <c r="DG14" s="7">
-        <f>+DF14*(1+$BZ$25)</f>
+      <c r="DG14" s="6">
+        <f t="shared" ref="DG14:EL14" si="62">+DF14*(1+$BZ$25)</f>
         <v>1631.8150037422633</v>
       </c>
-      <c r="DH14" s="7">
-        <f>+DG14*(1+$BZ$25)</f>
+      <c r="DH14" s="6">
+        <f t="shared" si="62"/>
         <v>1648.1331537796859</v>
       </c>
-      <c r="DI14" s="7">
-        <f>+DH14*(1+$BZ$25)</f>
+      <c r="DI14" s="6">
+        <f t="shared" si="62"/>
         <v>1664.6144853174828</v>
       </c>
-      <c r="DJ14" s="7">
-        <f>+DI14*(1+$BZ$25)</f>
+      <c r="DJ14" s="6">
+        <f t="shared" si="62"/>
         <v>1681.2606301706576</v>
       </c>
-      <c r="DK14" s="7">
-        <f>+DJ14*(1+$BZ$25)</f>
+      <c r="DK14" s="6">
+        <f t="shared" si="62"/>
         <v>1698.0732364723642</v>
       </c>
-      <c r="DL14" s="7">
-        <f>+DK14*(1+$BZ$25)</f>
+      <c r="DL14" s="6">
+        <f t="shared" si="62"/>
         <v>1715.053968837088</v>
       </c>
-      <c r="DM14" s="7">
-        <f>+DL14*(1+$BZ$25)</f>
+      <c r="DM14" s="6">
+        <f t="shared" si="62"/>
         <v>1732.2045085254588</v>
       </c>
-      <c r="DN14" s="7">
-        <f>+DM14*(1+$BZ$25)</f>
+      <c r="DN14" s="6">
+        <f t="shared" si="62"/>
         <v>1749.5265536107133</v>
       </c>
-      <c r="DO14" s="7">
-        <f>+DN14*(1+$BZ$25)</f>
+      <c r="DO14" s="6">
+        <f t="shared" si="62"/>
         <v>1767.0218191468205</v>
       </c>
-      <c r="DP14" s="7">
-        <f>+DO14*(1+$BZ$25)</f>
+      <c r="DP14" s="6">
+        <f t="shared" si="62"/>
         <v>1784.6920373382886</v>
       </c>
-      <c r="DQ14" s="7">
-        <f>+DP14*(1+$BZ$25)</f>
+      <c r="DQ14" s="6">
+        <f t="shared" si="62"/>
         <v>1802.5389577116716</v>
       </c>
-      <c r="DR14" s="7">
-        <f>+DQ14*(1+$BZ$25)</f>
+      <c r="DR14" s="6">
+        <f t="shared" si="62"/>
         <v>1820.5643472887884</v>
       </c>
-      <c r="DS14" s="7">
-        <f>+DR14*(1+$BZ$25)</f>
+      <c r="DS14" s="6">
+        <f t="shared" si="62"/>
         <v>1838.7699907616764</v>
       </c>
-      <c r="DT14" s="7">
-        <f>+DS14*(1+$BZ$25)</f>
+      <c r="DT14" s="6">
+        <f t="shared" si="62"/>
         <v>1857.1576906692931</v>
       </c>
-      <c r="DU14" s="7">
-        <f>+DT14*(1+$BZ$25)</f>
+      <c r="DU14" s="6">
+        <f t="shared" si="62"/>
         <v>1875.7292675759861</v>
       </c>
-      <c r="DV14" s="7">
-        <f>+DU14*(1+$BZ$25)</f>
+      <c r="DV14" s="6">
+        <f t="shared" si="62"/>
         <v>1894.4865602517459</v>
       </c>
-      <c r="DW14" s="7">
-        <f>+DV14*(1+$BZ$25)</f>
+      <c r="DW14" s="6">
+        <f t="shared" si="62"/>
         <v>1913.4314258542634</v>
       </c>
-      <c r="DX14" s="7">
-        <f>+DW14*(1+$BZ$25)</f>
+      <c r="DX14" s="6">
+        <f t="shared" si="62"/>
         <v>1932.565740112806</v>
       </c>
-      <c r="DY14" s="7">
-        <f>+DX14*(1+$BZ$25)</f>
+      <c r="DY14" s="6">
+        <f t="shared" si="62"/>
         <v>1951.8913975139342</v>
       </c>
-      <c r="DZ14" s="7">
-        <f>+DY14*(1+$BZ$25)</f>
+      <c r="DZ14" s="6">
+        <f t="shared" si="62"/>
         <v>1971.4103114890736</v>
       </c>
-      <c r="EA14" s="7">
-        <f>+DZ14*(1+$BZ$25)</f>
+      <c r="EA14" s="6">
+        <f t="shared" si="62"/>
         <v>1991.1244146039644</v>
       </c>
-      <c r="EB14" s="7">
-        <f>+EA14*(1+$BZ$25)</f>
+      <c r="EB14" s="6">
+        <f t="shared" si="62"/>
         <v>2011.0356587500041</v>
       </c>
-      <c r="EC14" s="7">
-        <f>+EB14*(1+$BZ$25)</f>
+      <c r="EC14" s="6">
+        <f t="shared" si="62"/>
         <v>2031.1460153375042</v>
       </c>
-      <c r="ED14" s="7">
-        <f>+EC14*(1+$BZ$25)</f>
+      <c r="ED14" s="6">
+        <f t="shared" si="62"/>
         <v>2051.4574754908795</v>
       </c>
-      <c r="EE14" s="7">
-        <f>+ED14*(1+$BZ$25)</f>
+      <c r="EE14" s="6">
+        <f t="shared" si="62"/>
         <v>2071.9720502457881</v>
       </c>
-      <c r="EF14" s="7">
-        <f>+EE14*(1+$BZ$25)</f>
+      <c r="EF14" s="6">
+        <f t="shared" si="62"/>
         <v>2092.6917707482457</v>
       </c>
-      <c r="EG14" s="7">
-        <f>+EF14*(1+$BZ$25)</f>
+      <c r="EG14" s="6">
+        <f t="shared" si="62"/>
         <v>2113.6186884557283</v>
       </c>
-      <c r="EH14" s="7">
-        <f>+EG14*(1+$BZ$25)</f>
+      <c r="EH14" s="6">
+        <f t="shared" si="62"/>
         <v>2134.7548753402857</v>
       </c>
-      <c r="EI14" s="7">
-        <f>+EH14*(1+$BZ$25)</f>
+      <c r="EI14" s="6">
+        <f t="shared" si="62"/>
         <v>2156.1024240936886</v>
       </c>
-      <c r="EJ14" s="7">
-        <f>+EI14*(1+$BZ$25)</f>
+      <c r="EJ14" s="6">
+        <f t="shared" si="62"/>
         <v>2177.6634483346256</v>
       </c>
-      <c r="EK14" s="7">
-        <f>+EJ14*(1+$BZ$25)</f>
+      <c r="EK14" s="6">
+        <f t="shared" si="62"/>
         <v>2199.4400828179719</v>
       </c>
-      <c r="EL14" s="7">
-        <f>+EK14*(1+$BZ$25)</f>
+      <c r="EL14" s="6">
+        <f t="shared" si="62"/>
         <v>2221.4344836461514</v>
       </c>
-      <c r="EM14" s="7">
-        <f>+EL14*(1+$BZ$25)</f>
+      <c r="EM14" s="6">
+        <f t="shared" ref="EM14:FR14" si="63">+EL14*(1+$BZ$25)</f>
         <v>2243.6488284826128</v>
       </c>
-      <c r="EN14" s="7">
-        <f>+EM14*(1+$BZ$25)</f>
+      <c r="EN14" s="6">
+        <f t="shared" si="63"/>
         <v>2266.0853167674391</v>
       </c>
-      <c r="EO14" s="7">
-        <f>+EN14*(1+$BZ$25)</f>
+      <c r="EO14" s="6">
+        <f t="shared" si="63"/>
         <v>2288.7461699351134</v>
       </c>
-      <c r="EP14" s="7">
-        <f>+EO14*(1+$BZ$25)</f>
+      <c r="EP14" s="6">
+        <f t="shared" si="63"/>
         <v>2311.6336316344646</v>
       </c>
-      <c r="EQ14" s="7">
-        <f>+EP14*(1+$BZ$25)</f>
+      <c r="EQ14" s="6">
+        <f t="shared" si="63"/>
         <v>2334.7499679508092</v>
       </c>
-      <c r="ER14" s="7">
-        <f>+EQ14*(1+$BZ$25)</f>
+      <c r="ER14" s="6">
+        <f t="shared" si="63"/>
         <v>2358.0974676303172</v>
       </c>
-      <c r="ES14" s="7">
-        <f>+ER14*(1+$BZ$25)</f>
+      <c r="ES14" s="6">
+        <f t="shared" si="63"/>
         <v>2381.6784423066206</v>
       </c>
-      <c r="ET14" s="7">
-        <f>+ES14*(1+$BZ$25)</f>
+      <c r="ET14" s="6">
+        <f t="shared" si="63"/>
         <v>2405.4952267296867</v>
       </c>
-      <c r="EU14" s="7">
-        <f>+ET14*(1+$BZ$25)</f>
+      <c r="EU14" s="6">
+        <f t="shared" si="63"/>
         <v>2429.5501789969835</v>
       </c>
-      <c r="EV14" s="7">
-        <f>+EU14*(1+$BZ$25)</f>
+      <c r="EV14" s="6">
+        <f t="shared" si="63"/>
         <v>2453.8456807869534</v>
       </c>
-      <c r="EW14" s="7">
-        <f>+EV14*(1+$BZ$25)</f>
+      <c r="EW14" s="6">
+        <f t="shared" si="63"/>
         <v>2478.3841375948227</v>
       </c>
-      <c r="EX14" s="7">
-        <f>+EW14*(1+$BZ$25)</f>
+      <c r="EX14" s="6">
+        <f t="shared" si="63"/>
         <v>2503.1679789707709</v>
       </c>
-      <c r="EY14" s="7">
-        <f>+EX14*(1+$BZ$25)</f>
+      <c r="EY14" s="6">
+        <f t="shared" si="63"/>
         <v>2528.1996587604785</v>
       </c>
-      <c r="EZ14" s="7">
-        <f>+EY14*(1+$BZ$25)</f>
+      <c r="EZ14" s="6">
+        <f t="shared" si="63"/>
         <v>2553.4816553480832</v>
       </c>
-      <c r="FA14" s="7">
-        <f>+EZ14*(1+$BZ$25)</f>
+      <c r="FA14" s="6">
+        <f t="shared" si="63"/>
         <v>2579.0164719015643</v>
       </c>
-      <c r="FB14" s="7">
-        <f>+FA14*(1+$BZ$25)</f>
+      <c r="FB14" s="6">
+        <f t="shared" si="63"/>
         <v>2604.8066366205799</v>
       </c>
-      <c r="FC14" s="7">
-        <f>+FB14*(1+$BZ$25)</f>
+      <c r="FC14" s="6">
+        <f t="shared" si="63"/>
         <v>2630.8547029867855</v>
       </c>
-      <c r="FD14" s="7">
-        <f>+FC14*(1+$BZ$25)</f>
+      <c r="FD14" s="6">
+        <f t="shared" si="63"/>
         <v>2657.1632500166534</v>
       </c>
-      <c r="FE14" s="7">
-        <f>+FD14*(1+$BZ$25)</f>
+      <c r="FE14" s="6">
+        <f t="shared" si="63"/>
         <v>2683.7348825168201</v>
       </c>
-      <c r="FF14" s="7">
-        <f>+FE14*(1+$BZ$25)</f>
+      <c r="FF14" s="6">
+        <f t="shared" si="63"/>
         <v>2710.5722313419883</v>
       </c>
-      <c r="FG14" s="7">
-        <f>+FF14*(1+$BZ$25)</f>
+      <c r="FG14" s="6">
+        <f t="shared" si="63"/>
         <v>2737.6779536554081</v>
       </c>
-      <c r="FH14" s="7">
-        <f>+FG14*(1+$BZ$25)</f>
+      <c r="FH14" s="6">
+        <f t="shared" si="63"/>
         <v>2765.0547331919624</v>
       </c>
-      <c r="FI14" s="7">
-        <f>+FH14*(1+$BZ$25)</f>
+      <c r="FI14" s="6">
+        <f t="shared" si="63"/>
         <v>2792.7052805238823</v>
       </c>
-      <c r="FJ14" s="7">
-        <f>+FI14*(1+$BZ$25)</f>
+      <c r="FJ14" s="6">
+        <f t="shared" si="63"/>
         <v>2820.6323333291211</v>
       </c>
-      <c r="FK14" s="7">
-        <f>+FJ14*(1+$BZ$25)</f>
+      <c r="FK14" s="6">
+        <f t="shared" si="63"/>
         <v>2848.8386566624122</v>
       </c>
-      <c r="FL14" s="7">
-        <f>+FK14*(1+$BZ$25)</f>
+      <c r="FL14" s="6">
+        <f t="shared" si="63"/>
         <v>2877.3270432290365</v>
       </c>
-      <c r="FM14" s="7">
-        <f>+FL14*(1+$BZ$25)</f>
+      <c r="FM14" s="6">
+        <f t="shared" si="63"/>
         <v>2906.1003136613267</v>
       </c>
-      <c r="FN14" s="7">
-        <f>+FM14*(1+$BZ$25)</f>
+      <c r="FN14" s="6">
+        <f t="shared" si="63"/>
         <v>2935.1613167979399</v>
       </c>
-      <c r="FO14" s="7">
-        <f>+FN14*(1+$BZ$25)</f>
+      <c r="FO14" s="6">
+        <f t="shared" si="63"/>
         <v>2964.5129299659193</v>
       </c>
-      <c r="FP14" s="7">
-        <f>+FO14*(1+$BZ$25)</f>
+      <c r="FP14" s="6">
+        <f t="shared" si="63"/>
         <v>2994.1580592655787</v>
       </c>
-      <c r="FQ14" s="7">
-        <f>+FP14*(1+$BZ$25)</f>
+      <c r="FQ14" s="6">
+        <f t="shared" si="63"/>
         <v>3024.0996398582347</v>
       </c>
-      <c r="FR14" s="7">
-        <f>+FQ14*(1+$BZ$25)</f>
+      <c r="FR14" s="6">
+        <f t="shared" si="63"/>
         <v>3054.3406362568171</v>
       </c>
-      <c r="FS14" s="7">
-        <f>+FR14*(1+$BZ$25)</f>
+      <c r="FS14" s="6">
+        <f t="shared" ref="FS14:GX14" si="64">+FR14*(1+$BZ$25)</f>
         <v>3084.8840426193851</v>
       </c>
-      <c r="FT14" s="7">
-        <f>+FS14*(1+$BZ$25)</f>
+      <c r="FT14" s="6">
+        <f t="shared" si="64"/>
         <v>3115.732883045579</v>
       </c>
-      <c r="FU14" s="7">
-        <f>+FT14*(1+$BZ$25)</f>
+      <c r="FU14" s="6">
+        <f t="shared" si="64"/>
         <v>3146.8902118760348</v>
       </c>
-      <c r="FV14" s="7">
-        <f>+FU14*(1+$BZ$25)</f>
+      <c r="FV14" s="6">
+        <f t="shared" si="64"/>
         <v>3178.3591139947953</v>
       </c>
-      <c r="FW14" s="7">
-        <f>+FV14*(1+$BZ$25)</f>
+      <c r="FW14" s="6">
+        <f t="shared" si="64"/>
         <v>3210.1427051347432</v>
       </c>
-      <c r="FX14" s="7">
-        <f>+FW14*(1+$BZ$25)</f>
+      <c r="FX14" s="6">
+        <f t="shared" si="64"/>
         <v>3242.2441321860906</v>
       </c>
-      <c r="FY14" s="7">
-        <f>+FX14*(1+$BZ$25)</f>
+      <c r="FY14" s="6">
+        <f t="shared" si="64"/>
         <v>3274.6665735079514</v>
       </c>
-      <c r="FZ14" s="7">
-        <f>+FY14*(1+$BZ$25)</f>
+      <c r="FZ14" s="6">
+        <f t="shared" si="64"/>
         <v>3307.4132392430311</v>
       </c>
-      <c r="GA14" s="7">
-        <f>+FZ14*(1+$BZ$25)</f>
+      <c r="GA14" s="6">
+        <f t="shared" si="64"/>
         <v>3340.4873716354614</v>
       </c>
-      <c r="GB14" s="7">
-        <f>+GA14*(1+$BZ$25)</f>
+      <c r="GB14" s="6">
+        <f t="shared" si="64"/>
         <v>3373.8922453518162</v>
       </c>
-      <c r="GC14" s="7">
-        <f>+GB14*(1+$BZ$25)</f>
+      <c r="GC14" s="6">
+        <f t="shared" si="64"/>
         <v>3407.6311678053344</v>
       </c>
-      <c r="GD14" s="7">
-        <f>+GC14*(1+$BZ$25)</f>
+      <c r="GD14" s="6">
+        <f t="shared" si="64"/>
         <v>3441.7074794833879</v>
       </c>
-      <c r="GE14" s="7">
-        <f>+GD14*(1+$BZ$25)</f>
+      <c r="GE14" s="6">
+        <f t="shared" si="64"/>
         <v>3476.1245542782217</v>
       </c>
-      <c r="GF14" s="7">
-        <f>+GE14*(1+$BZ$25)</f>
+      <c r="GF14" s="6">
+        <f t="shared" si="64"/>
         <v>3510.8857998210037</v>
       </c>
-      <c r="GG14" s="7">
-        <f>+GF14*(1+$BZ$25)</f>
+      <c r="GG14" s="6">
+        <f t="shared" si="64"/>
         <v>3545.9946578192139</v>
       </c>
-      <c r="GH14" s="7">
-        <f>+GG14*(1+$BZ$25)</f>
+      <c r="GH14" s="6">
+        <f t="shared" si="64"/>
         <v>3581.454604397406</v>
       </c>
-      <c r="GI14" s="7">
-        <f>+GH14*(1+$BZ$25)</f>
+      <c r="GI14" s="6">
+        <f t="shared" si="64"/>
         <v>3617.2691504413801</v>
       </c>
-      <c r="GJ14" s="7">
-        <f>+GI14*(1+$BZ$25)</f>
+      <c r="GJ14" s="6">
+        <f t="shared" si="64"/>
         <v>3653.4418419457938</v>
       </c>
-      <c r="GK14" s="7">
-        <f>+GJ14*(1+$BZ$25)</f>
+      <c r="GK14" s="6">
+        <f t="shared" si="64"/>
         <v>3689.9762603652516</v>
       </c>
-      <c r="GL14" s="7">
-        <f>+GK14*(1+$BZ$25)</f>
+      <c r="GL14" s="6">
+        <f t="shared" si="64"/>
         <v>3726.8760229689042</v>
       </c>
-      <c r="GM14" s="7">
-        <f>+GL14*(1+$BZ$25)</f>
+      <c r="GM14" s="6">
+        <f t="shared" si="64"/>
         <v>3764.1447831985934</v>
       </c>
-      <c r="GN14" s="7">
-        <f>+GM14*(1+$BZ$25)</f>
+      <c r="GN14" s="6">
+        <f t="shared" si="64"/>
         <v>3801.7862310305795</v>
       </c>
-      <c r="GO14" s="7">
-        <f>+GN14*(1+$BZ$25)</f>
+      <c r="GO14" s="6">
+        <f t="shared" si="64"/>
         <v>3839.8040933408852</v>
       </c>
-      <c r="GP14" s="7">
-        <f>+GO14*(1+$BZ$25)</f>
+      <c r="GP14" s="6">
+        <f t="shared" si="64"/>
         <v>3878.2021342742942</v>
       </c>
-      <c r="GQ14" s="7">
-        <f>+GP14*(1+$BZ$25)</f>
+      <c r="GQ14" s="6">
+        <f t="shared" si="64"/>
         <v>3916.9841556170372</v>
       </c>
-      <c r="GR14" s="7">
-        <f>+GQ14*(1+$BZ$25)</f>
+      <c r="GR14" s="6">
+        <f t="shared" si="64"/>
         <v>3956.1539971732077</v>
       </c>
-      <c r="GS14" s="7">
-        <f>+GR14*(1+$BZ$25)</f>
+      <c r="GS14" s="6">
+        <f t="shared" si="64"/>
         <v>3995.7155371449398</v>
       </c>
-      <c r="GT14" s="7">
-        <f>+GS14*(1+$BZ$25)</f>
+      <c r="GT14" s="6">
+        <f t="shared" si="64"/>
         <v>4035.6726925163894</v>
       </c>
-      <c r="GU14" s="7">
-        <f>+GT14*(1+$BZ$25)</f>
+      <c r="GU14" s="6">
+        <f t="shared" si="64"/>
         <v>4076.0294194415533</v>
       </c>
-      <c r="GV14" s="7">
-        <f>+GU14*(1+$BZ$25)</f>
+      <c r="GV14" s="6">
+        <f t="shared" si="64"/>
         <v>4116.7897136359688</v>
       </c>
-      <c r="GW14" s="7">
-        <f>+GV14*(1+$BZ$25)</f>
+      <c r="GW14" s="6">
+        <f t="shared" si="64"/>
         <v>4157.9576107723287</v>
       </c>
-      <c r="GX14" s="7">
-        <f>+GW14*(1+$BZ$25)</f>
+      <c r="GX14" s="6">
+        <f t="shared" si="64"/>
         <v>4199.5371868800521</v>
       </c>
-      <c r="GY14" s="7">
-        <f>+GX14*(1+$BZ$25)</f>
+      <c r="GY14" s="6">
+        <f t="shared" ref="GY14:HV14" si="65">+GX14*(1+$BZ$25)</f>
         <v>4241.5325587488524</v>
       </c>
-      <c r="GZ14" s="7">
-        <f>+GY14*(1+$BZ$25)</f>
+      <c r="GZ14" s="6">
+        <f t="shared" si="65"/>
         <v>4283.9478843363413</v>
       </c>
-      <c r="HA14" s="7">
-        <f>+GZ14*(1+$BZ$25)</f>
+      <c r="HA14" s="6">
+        <f t="shared" si="65"/>
         <v>4326.7873631797047</v>
       </c>
-      <c r="HB14" s="7">
-        <f>+HA14*(1+$BZ$25)</f>
+      <c r="HB14" s="6">
+        <f t="shared" si="65"/>
         <v>4370.0552368115013</v>
       </c>
-      <c r="HC14" s="7">
-        <f>+HB14*(1+$BZ$25)</f>
+      <c r="HC14" s="6">
+        <f t="shared" si="65"/>
         <v>4413.7557891796168</v>
       </c>
-      <c r="HD14" s="7">
-        <f>+HC14*(1+$BZ$25)</f>
+      <c r="HD14" s="6">
+        <f t="shared" si="65"/>
         <v>4457.8933470714128</v>
       </c>
-      <c r="HE14" s="7">
-        <f>+HD14*(1+$BZ$25)</f>
+      <c r="HE14" s="6">
+        <f t="shared" si="65"/>
         <v>4502.472280542127</v>
       </c>
-      <c r="HF14" s="7">
-        <f>+HE14*(1+$BZ$25)</f>
+      <c r="HF14" s="6">
+        <f t="shared" si="65"/>
         <v>4547.4970033475483</v>
       </c>
-      <c r="HG14" s="7">
-        <f>+HF14*(1+$BZ$25)</f>
+      <c r="HG14" s="6">
+        <f t="shared" si="65"/>
         <v>4592.9719733810234</v>
       </c>
-      <c r="HH14" s="7">
-        <f>+HG14*(1+$BZ$25)</f>
+      <c r="HH14" s="6">
+        <f t="shared" si="65"/>
         <v>4638.9016931148335</v>
       </c>
-      <c r="HI14" s="7">
-        <f>+HH14*(1+$BZ$25)</f>
+      <c r="HI14" s="6">
+        <f t="shared" si="65"/>
         <v>4685.2907100459815</v>
       </c>
-      <c r="HJ14" s="7">
-        <f>+HI14*(1+$BZ$25)</f>
+      <c r="HJ14" s="6">
+        <f t="shared" si="65"/>
         <v>4732.1436171464411</v>
       </c>
-      <c r="HK14" s="7">
-        <f>+HJ14*(1+$BZ$25)</f>
+      <c r="HK14" s="6">
+        <f t="shared" si="65"/>
         <v>4779.4650533179056</v>
       </c>
-      <c r="HL14" s="7">
-        <f>+HK14*(1+$BZ$25)</f>
+      <c r="HL14" s="6">
+        <f t="shared" si="65"/>
         <v>4827.2597038510849</v>
       </c>
-      <c r="HM14" s="7">
-        <f>+HL14*(1+$BZ$25)</f>
+      <c r="HM14" s="6">
+        <f t="shared" si="65"/>
         <v>4875.5323008895957</v>
       </c>
-      <c r="HN14" s="7">
-        <f>+HM14*(1+$BZ$25)</f>
+      <c r="HN14" s="6">
+        <f t="shared" si="65"/>
         <v>4924.2876238984918</v>
       </c>
-      <c r="HO14" s="7">
-        <f>+HN14*(1+$BZ$25)</f>
+      <c r="HO14" s="6">
+        <f t="shared" si="65"/>
         <v>4973.5305001374763</v>
       </c>
-      <c r="HP14" s="7">
-        <f>+HO14*(1+$BZ$25)</f>
+      <c r="HP14" s="6">
+        <f t="shared" si="65"/>
         <v>5023.2658051388507</v>
       </c>
-      <c r="HQ14" s="7">
-        <f>+HP14*(1+$BZ$25)</f>
+      <c r="HQ14" s="6">
+        <f t="shared" si="65"/>
         <v>5073.4984631902389</v>
       </c>
-      <c r="HR14" s="7">
-        <f>+HQ14*(1+$BZ$25)</f>
+      <c r="HR14" s="6">
+        <f t="shared" si="65"/>
         <v>5124.233447822141</v>
       </c>
-      <c r="HS14" s="7">
-        <f>+HR14*(1+$BZ$25)</f>
+      <c r="HS14" s="6">
+        <f t="shared" si="65"/>
         <v>5175.4757823003629</v>
       </c>
-      <c r="HT14" s="7">
-        <f>+HS14*(1+$BZ$25)</f>
+      <c r="HT14" s="6">
+        <f t="shared" si="65"/>
         <v>5227.2305401233662</v>
       </c>
-      <c r="HU14" s="7">
-        <f>+HT14*(1+$BZ$25)</f>
+      <c r="HU14" s="6">
+        <f t="shared" si="65"/>
         <v>5279.5028455246002</v>
       </c>
-      <c r="HV14" s="7">
-        <f>+HU14*(1+$BZ$25)</f>
+      <c r="HV14" s="6">
+        <f t="shared" si="65"/>
         <v>5332.2978739798464</v>
       </c>
     </row>
-    <row r="15" spans="1:230" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="8" t="s">
+    <row r="15" spans="1:230" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="8"/>
-      <c r="AD15" s="8"/>
-      <c r="AE15" s="8"/>
-      <c r="AF15" s="8"/>
-      <c r="AG15" s="8"/>
-      <c r="AH15" s="8"/>
-      <c r="AI15" s="8"/>
-      <c r="AJ15" s="8"/>
-      <c r="AK15" s="8"/>
-      <c r="AL15" s="8"/>
-      <c r="AM15" s="8"/>
-      <c r="AN15" s="8"/>
-      <c r="AO15" s="8"/>
-      <c r="AP15" s="8"/>
-      <c r="AQ15" s="8"/>
-      <c r="AR15" s="8"/>
-      <c r="AS15" s="8"/>
-      <c r="AT15" s="8"/>
-      <c r="AU15" s="8"/>
-      <c r="AV15" s="8"/>
-      <c r="AW15" s="8"/>
-      <c r="AX15" s="8"/>
-      <c r="AY15" s="8"/>
-      <c r="AZ15" s="13">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="7"/>
+      <c r="AJ15" s="7"/>
+      <c r="AK15" s="7"/>
+      <c r="AL15" s="7"/>
+      <c r="AM15" s="7"/>
+      <c r="AN15" s="7"/>
+      <c r="AO15" s="7"/>
+      <c r="AP15" s="7"/>
+      <c r="AQ15" s="7"/>
+      <c r="AR15" s="7"/>
+      <c r="AS15" s="7"/>
+      <c r="AT15" s="7"/>
+      <c r="AU15" s="7"/>
+      <c r="AV15" s="7"/>
+      <c r="AW15" s="7"/>
+      <c r="AX15" s="7"/>
+      <c r="AY15" s="7"/>
+      <c r="AZ15" s="10">
         <f>+AZ14/AZ16</f>
         <v>-2.7770369027922959E-2</v>
       </c>
-      <c r="BA15" s="8"/>
-      <c r="BB15" s="8"/>
-      <c r="BC15" s="8"/>
-      <c r="BD15" s="13">
+      <c r="BA15" s="7"/>
+      <c r="BB15" s="7"/>
+      <c r="BC15" s="7"/>
+      <c r="BD15" s="10">
         <f>+BD14/BD16</f>
         <v>0.13292476030762765</v>
       </c>
-      <c r="BP15" s="26">
+      <c r="BP15" s="21">
         <f>+BP14/BP16</f>
         <v>0.81745289879872662</v>
       </c>
-      <c r="BQ15" s="26">
-        <f t="shared" ref="BQ15:BU15" si="59">+BQ14/BQ16</f>
+      <c r="BQ15" s="21">
+        <f t="shared" ref="BQ15:BU15" si="66">+BQ14/BQ16</f>
         <v>1.1867177242102509</v>
       </c>
-      <c r="BR15" s="26">
-        <f t="shared" si="59"/>
+      <c r="BR15" s="21">
+        <f t="shared" si="66"/>
         <v>1.5441736745844361</v>
       </c>
-      <c r="BS15" s="26">
-        <f t="shared" si="59"/>
+      <c r="BS15" s="21">
+        <f t="shared" si="66"/>
         <v>1.957652437724289</v>
       </c>
-      <c r="BT15" s="26">
-        <f t="shared" si="59"/>
+      <c r="BT15" s="21">
+        <f t="shared" si="66"/>
         <v>2.3587861376081478</v>
       </c>
-      <c r="BU15" s="26">
-        <f t="shared" si="59"/>
+      <c r="BU15" s="21">
+        <f t="shared" si="66"/>
         <v>2.8315973488829953</v>
       </c>
-      <c r="BV15" s="26">
-        <f t="shared" ref="BV15" si="60">+BV14/BV16</f>
+      <c r="BV15" s="21">
+        <f t="shared" ref="BV15" si="67">+BV14/BV16</f>
         <v>3.3366481385814946</v>
       </c>
-      <c r="BW15" s="26">
-        <f t="shared" ref="BW15" si="61">+BW14/BW16</f>
+      <c r="BW15" s="21">
+        <f t="shared" ref="BW15" si="68">+BW14/BW16</f>
         <v>3.754524350007836</v>
       </c>
-      <c r="BX15" s="26">
-        <f t="shared" ref="BX15" si="62">+BX14/BX16</f>
+      <c r="BX15" s="21">
+        <f t="shared" ref="BX15" si="69">+BX14/BX16</f>
         <v>4.217346109985618</v>
       </c>
-      <c r="BY15" s="26">
-        <f t="shared" ref="BY15" si="63">+BY14/BY16</f>
+      <c r="BY15" s="21">
+        <f t="shared" ref="BY15" si="70">+BY14/BY16</f>
         <v>4.5265665999917459</v>
       </c>
-      <c r="BZ15" s="26">
-        <f t="shared" ref="BZ15" si="64">+BZ14/BZ16</f>
+      <c r="BZ15" s="21">
+        <f t="shared" ref="BZ15" si="71">+BZ14/BZ16</f>
         <v>4.8523318696784674</v>
       </c>
     </row>
-    <row r="16" spans="1:230" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="12" t="s">
+    <row r="16" spans="1:230" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AZ16" s="7">
+      <c r="AZ16" s="6">
         <v>222.683393</v>
       </c>
-      <c r="BD16" s="7">
+      <c r="BD16" s="6">
         <v>242.16707199999999</v>
       </c>
-      <c r="BP16" s="7">
+      <c r="BP16" s="6">
         <f>BD16</f>
         <v>242.16707199999999</v>
       </c>
-      <c r="BQ16" s="7">
+      <c r="BQ16" s="6">
         <f>+BP16</f>
         <v>242.16707199999999</v>
       </c>
-      <c r="BR16" s="7">
-        <f t="shared" ref="BR16:BU16" si="65">+BQ16</f>
+      <c r="BR16" s="6">
+        <f t="shared" ref="BR16:BU16" si="72">+BQ16</f>
         <v>242.16707199999999</v>
       </c>
-      <c r="BS16" s="7">
-        <f t="shared" si="65"/>
+      <c r="BS16" s="6">
+        <f t="shared" si="72"/>
         <v>242.16707199999999</v>
       </c>
-      <c r="BT16" s="7">
-        <f t="shared" si="65"/>
+      <c r="BT16" s="6">
+        <f t="shared" si="72"/>
         <v>242.16707199999999</v>
       </c>
-      <c r="BU16" s="7">
-        <f t="shared" si="65"/>
+      <c r="BU16" s="6">
+        <f t="shared" si="72"/>
         <v>242.16707199999999</v>
       </c>
-      <c r="BV16" s="7">
-        <f t="shared" ref="BV16:BZ16" si="66">+BU16</f>
+      <c r="BV16" s="6">
+        <f t="shared" ref="BV16:BZ16" si="73">+BU16</f>
         <v>242.16707199999999</v>
       </c>
-      <c r="BW16" s="7">
-        <f t="shared" si="66"/>
+      <c r="BW16" s="6">
+        <f t="shared" si="73"/>
         <v>242.16707199999999</v>
       </c>
-      <c r="BX16" s="7">
-        <f t="shared" si="66"/>
+      <c r="BX16" s="6">
+        <f t="shared" si="73"/>
         <v>242.16707199999999</v>
       </c>
-      <c r="BY16" s="7">
-        <f t="shared" si="66"/>
+      <c r="BY16" s="6">
+        <f t="shared" si="73"/>
         <v>242.16707199999999</v>
       </c>
-      <c r="BZ16" s="7">
-        <f t="shared" si="66"/>
+      <c r="BZ16" s="6">
+        <f t="shared" si="73"/>
         <v>242.16707199999999</v>
       </c>
     </row>
     <row r="18" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B18" s="6" t="s">
+      <c r="B18" t="s">
         <v>68</v>
       </c>
       <c r="AR18" s="5">
-        <f t="shared" ref="AR18" si="67">+AR3/AN3-1</f>
+        <f t="shared" ref="AR18" si="74">+AR3/AN3-1</f>
         <v>1.2820512820512824</v>
       </c>
       <c r="AS18" s="5">
-        <f t="shared" ref="AS18" si="68">+AS3/AO3-1</f>
+        <f t="shared" ref="AS18" si="75">+AS3/AO3-1</f>
         <v>1.0097087378640777</v>
       </c>
       <c r="AT18" s="5">
-        <f t="shared" ref="AT18" si="69">+AT3/AP3-1</f>
+        <f t="shared" ref="AT18" si="76">+AT3/AP3-1</f>
         <v>0.88571428571428568</v>
       </c>
       <c r="AU18" s="5">
-        <f t="shared" ref="AU18" si="70">+AU3/AQ3-1</f>
+        <f t="shared" ref="AU18" si="77">+AU3/AQ3-1</f>
         <v>0.81875000000000009</v>
       </c>
       <c r="AV18" s="5">
-        <f t="shared" ref="AV18:AY18" si="71">+AV3/AR3-1</f>
+        <f t="shared" ref="AV18:AY18" si="78">+AV3/AR3-1</f>
         <v>0.90449438202247179</v>
       </c>
       <c r="AW18" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>0.98550724637681175</v>
       </c>
       <c r="AX18" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>0.89393939393939403</v>
       </c>
       <c r="AY18" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>0.95532646048109959</v>
       </c>
       <c r="AZ18" s="5">
-        <f>+AZ3/AV3-1</f>
+        <f t="shared" ref="AZ18:BF18" si="79">+AZ3/AV3-1</f>
         <v>0.77286135693215341</v>
       </c>
       <c r="BA18" s="5">
-        <f>+BA3/AW3-1</f>
+        <f t="shared" si="79"/>
         <v>0.63746958637469575</v>
       </c>
       <c r="BB18" s="5">
-        <f>+BB3/AX3-1</f>
+        <f t="shared" si="79"/>
         <v>0.4780000000000002</v>
       </c>
       <c r="BC18" s="5">
-        <f>+BC3/AY3-1</f>
+        <f t="shared" si="79"/>
         <v>0.4393673110720564</v>
       </c>
       <c r="BD18" s="5">
@@ -4901,11 +4860,11 @@
         <v>0.78369384359400995</v>
       </c>
       <c r="BE18" s="5">
-        <f>+BE3/BA3-1</f>
+        <f t="shared" si="79"/>
         <v>0.66716196136701345</v>
       </c>
       <c r="BF18" s="5">
-        <f>+BF3/BB3-1</f>
+        <f t="shared" si="79"/>
         <v>0.58592692828146142</v>
       </c>
       <c r="BP18" s="5">
@@ -4921,88 +4880,88 @@
         <v>0.19999999999999996</v>
       </c>
       <c r="BS18" s="5">
-        <f t="shared" ref="BS18:BU18" si="72">+BS3/BR3-1</f>
+        <f t="shared" ref="BS18:BU18" si="80">+BS3/BR3-1</f>
         <v>0.19999999999999996</v>
       </c>
       <c r="BT18" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="80"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="BU18" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="80"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="BV18" s="5">
-        <f t="shared" ref="BV18:BZ18" si="73">+BV3/BU3-1</f>
+        <f t="shared" ref="BV18:BZ18" si="81">+BV3/BU3-1</f>
         <v>0.14999999999999991</v>
       </c>
       <c r="BW18" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="81"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BX18" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="81"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BY18" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="81"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BZ18" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="81"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
     <row r="19" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="7" t="s">
         <v>102</v>
       </c>
       <c r="AR19" s="5">
-        <f t="shared" ref="AR19:AV19" si="74">+AR5/AR3</f>
+        <f t="shared" ref="AR19:AU19" si="82">+AR5/AR3</f>
         <v>-5.6179775280898875E-2</v>
       </c>
       <c r="AS19" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>1.9323671497584544E-2</v>
       </c>
       <c r="AT19" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>0.13257575757575757</v>
       </c>
       <c r="AU19" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>0.12714776632302405</v>
       </c>
       <c r="AV19" s="5">
-        <f t="shared" ref="AV19:AZ19" si="75">+AV5/AV3</f>
+        <f t="shared" ref="AV19:AY19" si="83">+AV5/AV3</f>
         <v>0.23008849557522124</v>
       </c>
       <c r="AW19" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="83"/>
         <v>0.23600973236009729</v>
       </c>
       <c r="AX19" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="83"/>
         <v>0.28399999999999997</v>
       </c>
       <c r="AY19" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="83"/>
         <v>0.28998242530755713</v>
       </c>
       <c r="AZ19" s="5">
-        <f t="shared" ref="AZ19:BD19" si="76">+AZ5/AZ3</f>
+        <f t="shared" ref="AZ19:BC19" si="84">+AZ5/AZ3</f>
         <v>0.27787021630615644</v>
       </c>
       <c r="BA19" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="84"/>
         <v>0.36701337295690933</v>
       </c>
       <c r="BB19" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="84"/>
         <v>0.42083897158322064</v>
       </c>
       <c r="BC19" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="84"/>
         <v>0.47741147741147749</v>
       </c>
       <c r="BD19" s="5">
@@ -5010,140 +4969,140 @@
         <v>0.53638059701492535</v>
       </c>
       <c r="BE19" s="5">
-        <f t="shared" ref="BE19:BF19" si="77">+BE5/BE3</f>
+        <f t="shared" ref="BE19:BF19" si="85">+BE5/BE3</f>
         <v>0.55999999999999994</v>
       </c>
       <c r="BF19" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="85"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="BO19" s="5">
-        <f t="shared" ref="BO19:BR19" si="78">+BO5/BO3</f>
+        <f t="shared" ref="BO19:BR19" si="86">+BO5/BO3</f>
         <v>0.54338829151732382</v>
       </c>
       <c r="BP19" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="86"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="BQ19" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="86"/>
         <v>0.6</v>
       </c>
       <c r="BR19" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="86"/>
         <v>0.62</v>
       </c>
       <c r="BS19" s="5">
-        <f t="shared" ref="BS19:BU19" si="79">+BS5/BS3</f>
+        <f t="shared" ref="BS19:BU19" si="87">+BS5/BS3</f>
         <v>0.63</v>
       </c>
       <c r="BT19" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>0.64</v>
       </c>
       <c r="BU19" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>0.65</v>
       </c>
       <c r="BV19" s="5">
-        <f t="shared" ref="BV19:BZ19" si="80">+BV5/BV3</f>
+        <f t="shared" ref="BV19:BZ19" si="88">+BV5/BV3</f>
         <v>0.65</v>
       </c>
       <c r="BW19" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>0.65</v>
       </c>
       <c r="BX19" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>0.65</v>
       </c>
       <c r="BY19" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>0.65</v>
       </c>
       <c r="BZ19" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>0.65</v>
       </c>
     </row>
     <row r="21" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B21" s="6" t="s">
+      <c r="B21" t="s">
         <v>93</v>
       </c>
-      <c r="BD21" s="7">
+      <c r="BD21" s="6">
         <f>+BD22-BD36</f>
         <v>-42.830000000000013</v>
       </c>
-      <c r="BE21" s="7">
+      <c r="BE21" s="6">
         <f>+BD21+BE14</f>
         <v>1.8919999999999888</v>
       </c>
-      <c r="BF21" s="7">
+      <c r="BF21" s="6">
         <f>+BE21+BF14</f>
         <v>51.757999999999988</v>
       </c>
-      <c r="BO21" s="7">
+      <c r="BO21" s="6">
         <f>+BF21</f>
         <v>51.757999999999988</v>
       </c>
-      <c r="BP21" s="7">
+      <c r="BP21" s="6">
         <f>+BO21+BP14</f>
         <v>249.71817499999992</v>
       </c>
-      <c r="BQ21" s="7">
-        <f t="shared" ref="BQ21:BU21" si="81">+BP21+BQ14</f>
+      <c r="BQ21" s="6">
+        <f t="shared" ref="BQ21:BU21" si="89">+BP21+BQ14</f>
         <v>537.10213156249984</v>
       </c>
-      <c r="BR21" s="7">
-        <f t="shared" si="81"/>
+      <c r="BR21" s="6">
+        <f t="shared" si="89"/>
         <v>911.05014899609353</v>
       </c>
-      <c r="BS21" s="7">
-        <f t="shared" si="81"/>
+      <c r="BS21" s="6">
+        <f t="shared" si="89"/>
         <v>1385.1291078334471</v>
       </c>
-      <c r="BT21" s="7">
-        <f t="shared" si="81"/>
+      <c r="BT21" s="6">
+        <f t="shared" si="89"/>
         <v>1956.3494402522012</v>
       </c>
-      <c r="BU21" s="7">
-        <f t="shared" si="81"/>
+      <c r="BU21" s="6">
+        <f t="shared" si="89"/>
         <v>2642.0690793141584</v>
       </c>
-      <c r="BV21" s="7">
-        <f t="shared" ref="BV21:BZ21" si="82">+BU21+BV14</f>
+      <c r="BV21" s="6">
+        <f t="shared" ref="BV21:BZ21" si="90">+BU21+BV14</f>
         <v>3450.0953893286892</v>
       </c>
-      <c r="BW21" s="7">
-        <f t="shared" si="82"/>
+      <c r="BW21" s="6">
+        <f t="shared" si="90"/>
         <v>4359.31755792279</v>
       </c>
-      <c r="BX21" s="7">
-        <f t="shared" si="82"/>
+      <c r="BX21" s="6">
+        <f t="shared" si="90"/>
         <v>5380.6199169885967</v>
       </c>
-      <c r="BY21" s="7">
-        <f t="shared" si="82"/>
+      <c r="BY21" s="6">
+        <f t="shared" si="90"/>
         <v>6476.8052967215935</v>
       </c>
-      <c r="BZ21" s="7">
-        <f t="shared" si="82"/>
+      <c r="BZ21" s="6">
+        <f t="shared" si="90"/>
         <v>7651.8802979739139</v>
       </c>
     </row>
-    <row r="22" spans="2:78" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="14" t="s">
+    <row r="22" spans="2:78" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="BD22" s="7">
+      <c r="BD22" s="6">
         <v>88.244</v>
       </c>
     </row>
-    <row r="23" spans="2:78" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="14" t="s">
+    <row r="23" spans="2:78" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="BD23" s="7">
+      <c r="BD23" s="6">
         <v>30.113</v>
       </c>
       <c r="BY23" s="2" t="s">
@@ -5153,11 +5112,11 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="24" spans="2:78" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="14" t="s">
+    <row r="24" spans="2:78" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="BD24" s="7">
+      <c r="BD24" s="6">
         <v>179.81</v>
       </c>
       <c r="BY24" s="2" t="s">
@@ -5167,11 +5126,11 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="2:78" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="14" t="s">
+    <row r="25" spans="2:78" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="BD25" s="14">
+      <c r="BD25" s="11">
         <v>5.524</v>
       </c>
       <c r="BY25" s="2" t="s">
@@ -5181,134 +5140,134 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="2:78" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="14" t="s">
+    <row r="26" spans="2:78" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="BD26" s="14">
+      <c r="BD26" s="11">
         <v>54.326000000000001</v>
       </c>
       <c r="BY26" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BZ26" s="7">
+      <c r="BZ26" s="6">
         <f>NPV(BZ24,BP14:ID14)</f>
         <v>8492.3352684623715</v>
       </c>
     </row>
-    <row r="27" spans="2:78" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="14" t="s">
+    <row r="27" spans="2:78" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="BD27" s="7">
+      <c r="BD27" s="6">
         <f>0.479+3.53</f>
         <v>4.0089999999999995</v>
       </c>
-      <c r="BY27" s="7" t="s">
+      <c r="BY27" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="BZ27" s="26">
+      <c r="BZ27" s="21">
         <f>+BZ26/Main!L3</f>
         <v>35.092294497778397</v>
       </c>
     </row>
-    <row r="28" spans="2:78" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="14" t="s">
+    <row r="28" spans="2:78" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="BD28" s="14">
+      <c r="BD28" s="11">
         <v>9.1519999999999992</v>
       </c>
     </row>
-    <row r="29" spans="2:78" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="14" t="s">
+    <row r="29" spans="2:78" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="BD29" s="14">
+      <c r="BD29" s="11">
         <v>5.2210000000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:78" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="14" t="s">
+    <row r="30" spans="2:78" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="BD30" s="7">
+      <c r="BD30" s="6">
         <f>SUM(BD22:BD29)</f>
         <v>376.39900000000006</v>
       </c>
     </row>
-    <row r="31" spans="2:78" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:78" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="14" t="s">
+    <row r="31" spans="2:78" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:78" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="BD32" s="7">
+      <c r="BD32" s="6">
         <v>14.179</v>
       </c>
     </row>
-    <row r="33" spans="2:56" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="14" t="s">
+    <row r="33" spans="2:56" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="BD33" s="14">
+      <c r="BD33" s="11">
         <v>27.725999999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:56" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="14" t="s">
+    <row r="34" spans="2:56" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="BD34" s="7">
+      <c r="BD34" s="6">
         <f>1.13+1.619</f>
         <v>2.7489999999999997</v>
       </c>
     </row>
-    <row r="35" spans="2:56" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="14" t="s">
+    <row r="35" spans="2:56" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="BD35" s="7">
+      <c r="BD35" s="6">
         <f>1.142+9.182</f>
         <v>10.324</v>
       </c>
     </row>
-    <row r="36" spans="2:56" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="14" t="s">
+    <row r="36" spans="2:56" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="BD36" s="7">
+      <c r="BD36" s="6">
         <v>131.07400000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:56" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="14" t="s">
+    <row r="37" spans="2:56" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="BD37" s="14">
+      <c r="BD37" s="11">
         <v>1.6879999999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:56" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="14" t="s">
+    <row r="38" spans="2:56" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="BD38" s="14">
+      <c r="BD38" s="11">
         <v>0.39</v>
       </c>
     </row>
-    <row r="39" spans="2:56" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="14" t="s">
+    <row r="39" spans="2:56" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="BD39" s="14">
+      <c r="BD39" s="11">
         <v>188.26900000000001</v>
       </c>
     </row>
-    <row r="40" spans="2:56" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="14" t="s">
+    <row r="40" spans="2:56" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="BD40" s="7">
+      <c r="BD40" s="6">
         <f>SUM(BD32:BD39)</f>
         <v>376.399</v>
       </c>

--- a/ADMA.xlsx
+++ b/ADMA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0FA22B-F11A-466F-98A2-ECB1DBB430AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD8E5F3-DFAF-40D5-9AAD-60C4A9535516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50445" yWindow="7815" windowWidth="27480" windowHeight="18705" xr2:uid="{C805B1BA-B66D-4BA0-8D01-D55633D0E2D4}"/>
+    <workbookView xWindow="-27780" yWindow="4335" windowWidth="27240" windowHeight="15915" activeTab="1" xr2:uid="{C805B1BA-B66D-4BA0-8D01-D55633D0E2D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,53 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={E3F37B9D-CD18-477C-AE4C-90A9A21DB23F}</author>
+    <author>tc={B8D1733D-207D-4417-8510-2415C0EFF817}</author>
+    <author>tc={6164F4AF-2358-4583-A0E3-3FEBA42EF04C}</author>
+    <author>tc={EB39AFCC-A003-4102-A9BB-43783682501B}</author>
+  </authors>
+  <commentList>
+    <comment ref="BT3" authorId="0" shapeId="0" xr:uid="{E3F37B9D-CD18-477C-AE4C-90A9A21DB23F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q125 guidance: FY25 &gt;500m</t>
+      </text>
+    </comment>
+    <comment ref="BU3" authorId="1" shapeId="0" xr:uid="{B8D1733D-207D-4417-8510-2415C0EFF817}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q125: FY26 guidance &gt;625m</t>
+      </text>
+    </comment>
+    <comment ref="BT14" authorId="2" shapeId="0" xr:uid="{6164F4AF-2358-4583-A0E3-3FEBA42EF04C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q125: adjNI guidance &gt;175m</t>
+      </text>
+    </comment>
+    <comment ref="BU14" authorId="3" shapeId="0" xr:uid="{EB39AFCC-A003-4102-A9BB-43783682501B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q125: FY26 adj NI 245m</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="113">
   <si>
     <t>Price</t>
   </si>
@@ -361,13 +406,28 @@
   </si>
   <si>
     <t>Share</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>SE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -399,6 +459,12 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -562,16 +628,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>56</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>32657</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>21771</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>56</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>32657</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>59872</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>118242</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -586,8 +652,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="34932257" y="21771"/>
-          <a:ext cx="0" cy="6242958"/>
+          <a:off x="36838571" y="0"/>
+          <a:ext cx="0" cy="8657897"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -611,6 +677,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Martin Shkreli" id="{2098C640-D946-4E96-B733-A5B98DE1444E}" userId="9ffda80931a57275" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -928,11 +1000,30 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="BT3" dT="2025-05-08T14:35:02.72" personId="{2098C640-D946-4E96-B733-A5B98DE1444E}" id="{E3F37B9D-CD18-477C-AE4C-90A9A21DB23F}">
+    <text>Q125 guidance: FY25 &gt;500m</text>
+  </threadedComment>
+  <threadedComment ref="BU3" dT="2025-05-08T14:35:19.68" personId="{2098C640-D946-4E96-B733-A5B98DE1444E}" id="{B8D1733D-207D-4417-8510-2415C0EFF817}">
+    <text>Q125: FY26 guidance &gt;625m</text>
+  </threadedComment>
+  <threadedComment ref="BT14" dT="2025-05-08T14:36:14.44" personId="{2098C640-D946-4E96-B733-A5B98DE1444E}" id="{6164F4AF-2358-4583-A0E3-3FEBA42EF04C}">
+    <text>Q125: adjNI guidance &gt;175m</text>
+  </threadedComment>
+  <threadedComment ref="BU14" dT="2025-05-08T14:36:55.05" personId="{2098C640-D946-4E96-B733-A5B98DE1444E}" id="{EB39AFCC-A003-4102-A9BB-43783682501B}">
+    <text>Q125: FY26 adj NI 245m</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B465B17E-8CAF-402D-804E-49EB209CC6AE}">
   <dimension ref="B2:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1055,31 +1146,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FCB23D-CE21-4A3B-B18A-E37ACD1D9607}">
-  <dimension ref="A1:HV40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FCB23D-CE21-4A3B-B18A-E37ACD1D9607}">
+  <dimension ref="A1:HZ40"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BJ3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="BQ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BP5" sqref="BP5"/>
+      <selection pane="bottomRight" activeCell="BV3" sqref="BV3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="75" width="9.140625" style="2"/>
-    <col min="76" max="76" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="77" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="79" width="9.140625" style="2"/>
+    <col min="80" max="80" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="81" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:230" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:234" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:230" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:234" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1251,71 +1342,83 @@
       <c r="BF2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="BK2" s="2">
+      <c r="BG2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="BH2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="BI2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BJ2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO2" s="2">
         <v>2020</v>
       </c>
-      <c r="BL2" s="2">
-        <f>+BK2+1</f>
+      <c r="BP2" s="2">
+        <f>+BO2+1</f>
         <v>2021</v>
       </c>
-      <c r="BM2" s="2">
-        <f t="shared" ref="BM2:BR2" si="0">+BL2+1</f>
+      <c r="BQ2" s="2">
+        <f t="shared" ref="BQ2:BV2" si="0">+BP2+1</f>
         <v>2022</v>
       </c>
-      <c r="BN2" s="2">
+      <c r="BR2" s="2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="BO2" s="2">
+      <c r="BS2" s="2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="BP2" s="2">
+      <c r="BT2" s="2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="BQ2" s="2">
+      <c r="BU2" s="2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="BR2" s="2">
+      <c r="BV2" s="2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="BS2">
-        <f>+BR2+1</f>
+      <c r="BW2">
+        <f>+BV2+1</f>
         <v>2028</v>
       </c>
-      <c r="BT2">
-        <f t="shared" ref="BT2:BU2" si="1">+BS2+1</f>
+      <c r="BX2">
+        <f t="shared" ref="BX2:BY2" si="1">+BW2+1</f>
         <v>2029</v>
       </c>
-      <c r="BU2">
+      <c r="BY2">
         <f t="shared" si="1"/>
         <v>2030</v>
       </c>
-      <c r="BV2">
-        <f t="shared" ref="BV2:BZ2" si="2">+BU2+1</f>
+      <c r="BZ2">
+        <f t="shared" ref="BZ2:CD2" si="2">+BY2+1</f>
         <v>2031</v>
       </c>
-      <c r="BW2">
+      <c r="CA2">
         <f t="shared" si="2"/>
         <v>2032</v>
       </c>
-      <c r="BX2">
+      <c r="CB2">
         <f t="shared" si="2"/>
         <v>2033</v>
       </c>
-      <c r="BY2">
+      <c r="CC2">
         <f t="shared" si="2"/>
         <v>2034</v>
       </c>
-      <c r="BZ2">
+      <c r="CD2">
         <f t="shared" si="2"/>
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:230" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:234" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
         <v>59</v>
       </c>
@@ -1486,59 +1589,61 @@
         <v>112.2</v>
       </c>
       <c r="BF3" s="8">
-        <f>+BE3+5</f>
-        <v>117.2</v>
-      </c>
-      <c r="BO3" s="8">
+        <v>117.54900000000001</v>
+      </c>
+      <c r="BG3" s="8">
+        <v>114.8002</v>
+      </c>
+      <c r="BS3" s="8">
         <f>SUM(BC3:BF3)</f>
-        <v>418.5</v>
-      </c>
-      <c r="BP3" s="8">
-        <f>+BO3*1.4</f>
-        <v>585.9</v>
-      </c>
-      <c r="BQ3" s="8">
-        <f>+BP3*1.3</f>
-        <v>761.67</v>
-      </c>
-      <c r="BR3" s="8">
-        <f>+BQ3*1.2</f>
-        <v>914.00399999999991</v>
-      </c>
-      <c r="BS3" s="8">
-        <f>+BR3*1.2</f>
-        <v>1096.8047999999999</v>
+        <v>418.84900000000005</v>
       </c>
       <c r="BT3" s="8">
-        <f>+BS3*1.15</f>
-        <v>1261.3255199999999</v>
+        <f>+BS3*1.4</f>
+        <v>586.3886</v>
       </c>
       <c r="BU3" s="8">
-        <f>+BT3*1.15</f>
-        <v>1450.5243479999997</v>
+        <f>+BT3*1.3</f>
+        <v>762.30518000000006</v>
       </c>
       <c r="BV3" s="8">
-        <f>+BU3*1.15</f>
-        <v>1668.1030001999995</v>
+        <f>+BU3*1.2</f>
+        <v>914.7662160000001</v>
       </c>
       <c r="BW3" s="8">
-        <f>+BV3*1.1</f>
-        <v>1834.9133002199997</v>
+        <f>+BV3*1.2</f>
+        <v>1097.7194592000001</v>
       </c>
       <c r="BX3" s="8">
-        <f>+BW3*1.1</f>
-        <v>2018.4046302419997</v>
+        <f>+BW3*1.15</f>
+        <v>1262.37737808</v>
       </c>
       <c r="BY3" s="8">
-        <f>+BX3*1.05</f>
-        <v>2119.3248617540999</v>
+        <f>+BX3*1.15</f>
+        <v>1451.7339847919998</v>
       </c>
       <c r="BZ3" s="8">
-        <f>+BY3*1.05</f>
-        <v>2225.291104841805</v>
+        <f>+BY3*1.15</f>
+        <v>1669.4940825107997</v>
+      </c>
+      <c r="CA3" s="8">
+        <f>+BZ3*1.1</f>
+        <v>1836.4434907618797</v>
+      </c>
+      <c r="CB3" s="8">
+        <f>+CA3*1.1</f>
+        <v>2020.0878398380678</v>
+      </c>
+      <c r="CC3" s="8">
+        <f>+CB3*1.05</f>
+        <v>2121.0922318299713</v>
+      </c>
+      <c r="CD3" s="8">
+        <f>+CC3*1.05</f>
+        <v>2227.1468434214698</v>
       </c>
     </row>
-    <row r="4" spans="1:230" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:234" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>60</v>
       </c>
@@ -1709,59 +1814,61 @@
         <v>49.368000000000002</v>
       </c>
       <c r="BF4" s="6">
-        <f>+BF3*0.42</f>
-        <v>49.223999999999997</v>
-      </c>
-      <c r="BO4" s="6">
+        <v>54.216000000000001</v>
+      </c>
+      <c r="BG4" s="6">
+        <v>53.704999999999998</v>
+      </c>
+      <c r="BS4" s="6">
         <f>SUM(BC4:BF4)</f>
-        <v>191.09199999999998</v>
-      </c>
-      <c r="BP4" s="6">
-        <f>+BP3-BP5</f>
-        <v>246.07800000000003</v>
-      </c>
-      <c r="BQ4" s="6">
-        <f t="shared" ref="BQ4:BU4" si="3">+BQ3-BQ5</f>
-        <v>304.66800000000001</v>
-      </c>
-      <c r="BR4" s="6">
+        <v>196.084</v>
+      </c>
+      <c r="BT4" s="6">
+        <f>+BT3-BT5</f>
+        <v>246.28321200000005</v>
+      </c>
+      <c r="BU4" s="6">
+        <f t="shared" ref="BU4:BY4" si="3">+BU3-BU5</f>
+        <v>304.92207200000001</v>
+      </c>
+      <c r="BV4" s="6">
         <f t="shared" si="3"/>
-        <v>347.32151999999996</v>
-      </c>
-      <c r="BS4" s="6">
+        <v>347.61116207999999</v>
+      </c>
+      <c r="BW4" s="6">
         <f t="shared" si="3"/>
-        <v>405.81777599999998</v>
-      </c>
-      <c r="BT4" s="6">
+        <v>406.156199904</v>
+      </c>
+      <c r="BX4" s="6">
         <f t="shared" si="3"/>
-        <v>454.07718719999991</v>
-      </c>
-      <c r="BU4" s="6">
+        <v>454.45585610879994</v>
+      </c>
+      <c r="BY4" s="6">
         <f t="shared" si="3"/>
-        <v>507.68352179999988</v>
-      </c>
-      <c r="BV4" s="6">
-        <f t="shared" ref="BV4" si="4">+BV3-BV5</f>
-        <v>583.83605006999983</v>
-      </c>
-      <c r="BW4" s="6">
-        <f t="shared" ref="BW4" si="5">+BW3-BW5</f>
-        <v>642.21965507699974</v>
-      </c>
-      <c r="BX4" s="6">
-        <f t="shared" ref="BX4" si="6">+BX3-BX5</f>
-        <v>706.44162058469988</v>
-      </c>
-      <c r="BY4" s="6">
-        <f t="shared" ref="BY4" si="7">+BY3-BY5</f>
-        <v>741.76370161393493</v>
+        <v>508.10689467719988</v>
       </c>
       <c r="BZ4" s="6">
-        <f t="shared" ref="BZ4" si="8">+BZ3-BZ5</f>
-        <v>778.85188669463173</v>
+        <f t="shared" ref="BZ4" si="4">+BZ3-BZ5</f>
+        <v>584.32292887877975</v>
+      </c>
+      <c r="CA4" s="6">
+        <f t="shared" ref="CA4" si="5">+CA3-CA5</f>
+        <v>642.75522176665777</v>
+      </c>
+      <c r="CB4" s="6">
+        <f t="shared" ref="CB4" si="6">+CB3-CB5</f>
+        <v>707.03074394332361</v>
+      </c>
+      <c r="CC4" s="6">
+        <f t="shared" ref="CC4" si="7">+CC3-CC5</f>
+        <v>742.38228114048979</v>
+      </c>
+      <c r="CD4" s="6">
+        <f t="shared" ref="CD4" si="8">+CD3-CD5</f>
+        <v>779.50139519751428</v>
       </c>
     </row>
-    <row r="5" spans="1:230" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:234" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>61</v>
       </c>
@@ -1938,58 +2045,62 @@
       </c>
       <c r="BF5" s="6">
         <f>+BF3-BF4</f>
-        <v>67.975999999999999</v>
-      </c>
-      <c r="BO5" s="6">
-        <f>+BO3-BO4</f>
-        <v>227.40800000000002</v>
-      </c>
-      <c r="BP5" s="6">
-        <f>+BP3*0.58</f>
-        <v>339.82199999999995</v>
-      </c>
-      <c r="BQ5" s="6">
-        <f>+BQ3*0.6</f>
-        <v>457.00199999999995</v>
-      </c>
-      <c r="BR5" s="6">
-        <f>+BR3*0.62</f>
-        <v>566.68247999999994</v>
+        <v>63.333000000000006</v>
+      </c>
+      <c r="BG5" s="6">
+        <f>+BG3-BG4</f>
+        <v>61.095200000000006</v>
       </c>
       <c r="BS5" s="6">
-        <f>+BS3*0.63</f>
-        <v>690.98702399999991</v>
+        <f>+BS3-BS4</f>
+        <v>222.76500000000004</v>
       </c>
       <c r="BT5" s="6">
-        <f>+BT3*0.64</f>
-        <v>807.24833279999996</v>
+        <f>+BT3*0.58</f>
+        <v>340.10538799999995</v>
       </c>
       <c r="BU5" s="6">
-        <f>+BU3*0.65</f>
-        <v>942.84082619999981</v>
+        <f>+BU3*0.6</f>
+        <v>457.38310800000005</v>
       </c>
       <c r="BV5" s="6">
-        <f t="shared" ref="BV5:BZ5" si="10">+BV3*0.65</f>
-        <v>1084.2669501299997</v>
+        <f>+BV3*0.62</f>
+        <v>567.15505392000011</v>
       </c>
       <c r="BW5" s="6">
+        <f>+BW3*0.63</f>
+        <v>691.56325929600007</v>
+      </c>
+      <c r="BX5" s="6">
+        <f>+BX3*0.64</f>
+        <v>807.92152197120004</v>
+      </c>
+      <c r="BY5" s="6">
+        <f>+BY3*0.65</f>
+        <v>943.6270901147999</v>
+      </c>
+      <c r="BZ5" s="6">
+        <f t="shared" ref="BZ5:CD5" si="10">+BZ3*0.65</f>
+        <v>1085.1711536320199</v>
+      </c>
+      <c r="CA5" s="6">
         <f t="shared" si="10"/>
-        <v>1192.6936451429999</v>
-      </c>
-      <c r="BX5" s="6">
+        <v>1193.688268995222</v>
+      </c>
+      <c r="CB5" s="6">
         <f t="shared" si="10"/>
-        <v>1311.9630096572998</v>
-      </c>
-      <c r="BY5" s="6">
+        <v>1313.0570958947442</v>
+      </c>
+      <c r="CC5" s="6">
         <f t="shared" si="10"/>
-        <v>1377.5611601401649</v>
-      </c>
-      <c r="BZ5" s="6">
+        <v>1378.7099506894815</v>
+      </c>
+      <c r="CD5" s="6">
         <f t="shared" si="10"/>
-        <v>1446.4392181471733</v>
+        <v>1447.6454482239556</v>
       </c>
     </row>
-    <row r="6" spans="1:230" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:234" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>55</v>
       </c>
@@ -2147,7 +2258,7 @@
         <v>15.2</v>
       </c>
       <c r="BB6" s="7">
-        <v>16.2</v>
+        <v>15.535</v>
       </c>
       <c r="BC6" s="7">
         <v>16.600000000000001</v>
@@ -2160,59 +2271,61 @@
         <v>16.608000000000001</v>
       </c>
       <c r="BF6" s="6">
-        <f t="shared" si="11"/>
-        <v>16.608000000000001</v>
-      </c>
-      <c r="BO6" s="6">
-        <f t="shared" ref="BO6:BO8" si="12">SUM(BC6:BF6)</f>
-        <v>66.424000000000007</v>
-      </c>
-      <c r="BP6" s="6">
-        <f>+BO6*1.1</f>
-        <v>73.066400000000016</v>
-      </c>
-      <c r="BQ6" s="6">
-        <f t="shared" ref="BQ6:BU6" si="13">+BP6*1.1</f>
-        <v>80.373040000000017</v>
-      </c>
-      <c r="BR6" s="6">
+        <v>23.317</v>
+      </c>
+      <c r="BG6" s="6">
+        <v>24.079000000000001</v>
+      </c>
+      <c r="BS6" s="6">
+        <f t="shared" ref="BS6:BS8" si="12">SUM(BC6:BF6)</f>
+        <v>73.13300000000001</v>
+      </c>
+      <c r="BT6" s="6">
+        <f>+BS6*1.1</f>
+        <v>80.446300000000022</v>
+      </c>
+      <c r="BU6" s="6">
+        <f t="shared" ref="BU6:BY6" si="13">+BT6*1.1</f>
+        <v>88.490930000000034</v>
+      </c>
+      <c r="BV6" s="6">
         <f t="shared" si="13"/>
-        <v>88.410344000000023</v>
-      </c>
-      <c r="BS6" s="6">
+        <v>97.340023000000045</v>
+      </c>
+      <c r="BW6" s="6">
         <f t="shared" si="13"/>
-        <v>97.251378400000036</v>
-      </c>
-      <c r="BT6" s="6">
+        <v>107.07402530000006</v>
+      </c>
+      <c r="BX6" s="6">
         <f t="shared" si="13"/>
-        <v>106.97651624000005</v>
-      </c>
-      <c r="BU6" s="6">
+        <v>117.78142783000007</v>
+      </c>
+      <c r="BY6" s="6">
         <f t="shared" si="13"/>
-        <v>117.67416786400007</v>
-      </c>
-      <c r="BV6" s="6">
-        <f t="shared" ref="BV6:BZ6" si="14">+BU6*1.1</f>
-        <v>129.44158465040007</v>
-      </c>
-      <c r="BW6" s="6">
+        <v>129.55957061300009</v>
+      </c>
+      <c r="BZ6" s="6">
+        <f t="shared" ref="BZ6:CD6" si="14">+BY6*1.1</f>
+        <v>142.5155276743001</v>
+      </c>
+      <c r="CA6" s="6">
         <f t="shared" si="14"/>
-        <v>142.38574311544011</v>
-      </c>
-      <c r="BX6" s="6">
+        <v>156.76708044173012</v>
+      </c>
+      <c r="CB6" s="6">
         <f t="shared" si="14"/>
-        <v>156.62431742698413</v>
-      </c>
-      <c r="BY6" s="6">
+        <v>172.44378848590313</v>
+      </c>
+      <c r="CC6" s="6">
         <f t="shared" si="14"/>
-        <v>172.28674916968257</v>
-      </c>
-      <c r="BZ6" s="6">
+        <v>189.68816733449344</v>
+      </c>
+      <c r="CD6" s="6">
         <f t="shared" si="14"/>
-        <v>189.51542408665082</v>
+        <v>208.6569840679428</v>
       </c>
     </row>
-    <row r="7" spans="1:230" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:234" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
         <v>56</v>
       </c>
@@ -2370,7 +2483,7 @@
         <v>0.6</v>
       </c>
       <c r="BB7" s="7">
-        <v>0.4</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="BC7" s="7">
         <v>0.4</v>
@@ -2383,59 +2496,61 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="BF7" s="6">
-        <f t="shared" si="11"/>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="BO7" s="6">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="BG7" s="6">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="BS7" s="6">
         <f t="shared" si="12"/>
-        <v>2.08</v>
-      </c>
-      <c r="BP7" s="6">
-        <f t="shared" ref="BP7:BU7" si="15">+BO7*1.1</f>
-        <v>2.2880000000000003</v>
-      </c>
-      <c r="BQ7" s="6">
-        <f t="shared" si="15"/>
-        <v>2.5168000000000004</v>
-      </c>
-      <c r="BR7" s="6">
-        <f t="shared" si="15"/>
-        <v>2.7684800000000007</v>
-      </c>
-      <c r="BS7" s="6">
-        <f t="shared" si="15"/>
-        <v>3.0453280000000009</v>
+        <v>1.911</v>
       </c>
       <c r="BT7" s="6">
-        <f t="shared" si="15"/>
-        <v>3.3498608000000014</v>
+        <f t="shared" ref="BT7:BY7" si="15">+BS7*1.1</f>
+        <v>2.1021000000000001</v>
       </c>
       <c r="BU7" s="6">
         <f t="shared" si="15"/>
-        <v>3.684846880000002</v>
+        <v>2.3123100000000001</v>
       </c>
       <c r="BV7" s="6">
-        <f t="shared" ref="BV7:BZ7" si="16">+BU7*1.1</f>
-        <v>4.0533315680000026</v>
+        <f t="shared" si="15"/>
+        <v>2.5435410000000003</v>
       </c>
       <c r="BW7" s="6">
+        <f t="shared" si="15"/>
+        <v>2.7978951000000007</v>
+      </c>
+      <c r="BX7" s="6">
+        <f t="shared" si="15"/>
+        <v>3.0776846100000013</v>
+      </c>
+      <c r="BY7" s="6">
+        <f t="shared" si="15"/>
+        <v>3.3854530710000015</v>
+      </c>
+      <c r="BZ7" s="6">
+        <f t="shared" ref="BZ7:CD7" si="16">+BY7*1.1</f>
+        <v>3.7239983781000019</v>
+      </c>
+      <c r="CA7" s="6">
         <f t="shared" si="16"/>
-        <v>4.4586647248000029</v>
-      </c>
-      <c r="BX7" s="6">
+        <v>4.0963982159100025</v>
+      </c>
+      <c r="CB7" s="6">
         <f t="shared" si="16"/>
-        <v>4.9045311972800034</v>
-      </c>
-      <c r="BY7" s="6">
+        <v>4.5060380375010034</v>
+      </c>
+      <c r="CC7" s="6">
         <f t="shared" si="16"/>
-        <v>5.3949843170080038</v>
-      </c>
-      <c r="BZ7" s="6">
+        <v>4.9566418412511037</v>
+      </c>
+      <c r="CD7" s="6">
         <f t="shared" si="16"/>
-        <v>5.9344827487088043</v>
+        <v>5.4523060253762141</v>
       </c>
     </row>
-    <row r="8" spans="1:230" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:234" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>69</v>
       </c>
@@ -2492,7 +2607,9 @@
         <v>1.333</v>
       </c>
       <c r="BA8" s="7"/>
-      <c r="BB8" s="7"/>
+      <c r="BB8" s="7">
+        <v>0.68500000000000005</v>
+      </c>
       <c r="BC8" s="7"/>
       <c r="BD8" s="7">
         <v>0.94199999999999995</v>
@@ -2502,59 +2619,61 @@
         <v>0.94199999999999995</v>
       </c>
       <c r="BF8" s="6">
-        <f t="shared" si="11"/>
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="BO8" s="6">
+        <v>1.2769999999999999</v>
+      </c>
+      <c r="BG8" s="6">
+        <v>1.286</v>
+      </c>
+      <c r="BS8" s="6">
         <f t="shared" si="12"/>
-        <v>2.8259999999999996</v>
-      </c>
-      <c r="BP8" s="6">
-        <f t="shared" ref="BP8:BU8" si="17">+BO8*1.1</f>
-        <v>3.1086</v>
-      </c>
-      <c r="BQ8" s="6">
-        <f t="shared" si="17"/>
-        <v>3.4194600000000004</v>
-      </c>
-      <c r="BR8" s="6">
-        <f t="shared" si="17"/>
-        <v>3.7614060000000009</v>
-      </c>
-      <c r="BS8" s="6">
-        <f t="shared" si="17"/>
-        <v>4.1375466000000012</v>
+        <v>3.1609999999999996</v>
       </c>
       <c r="BT8" s="6">
-        <f t="shared" si="17"/>
-        <v>4.5513012600000016</v>
+        <f t="shared" ref="BT8:BY8" si="17">+BS8*1.1</f>
+        <v>3.4770999999999996</v>
       </c>
       <c r="BU8" s="6">
         <f t="shared" si="17"/>
-        <v>5.0064313860000018</v>
+        <v>3.8248099999999998</v>
       </c>
       <c r="BV8" s="6">
-        <f t="shared" ref="BV8:BZ8" si="18">+BU8*1.1</f>
-        <v>5.5070745246000028</v>
+        <f t="shared" si="17"/>
+        <v>4.2072910000000006</v>
       </c>
       <c r="BW8" s="6">
+        <f t="shared" si="17"/>
+        <v>4.6280201000000014</v>
+      </c>
+      <c r="BX8" s="6">
+        <f t="shared" si="17"/>
+        <v>5.0908221100000022</v>
+      </c>
+      <c r="BY8" s="6">
+        <f t="shared" si="17"/>
+        <v>5.599904321000003</v>
+      </c>
+      <c r="BZ8" s="6">
+        <f t="shared" ref="BZ8:CD8" si="18">+BY8*1.1</f>
+        <v>6.1598947531000041</v>
+      </c>
+      <c r="CA8" s="6">
         <f t="shared" si="18"/>
-        <v>6.0577819770600039</v>
-      </c>
-      <c r="BX8" s="6">
+        <v>6.7758842284100052</v>
+      </c>
+      <c r="CB8" s="6">
         <f t="shared" si="18"/>
-        <v>6.6635601747660047</v>
-      </c>
-      <c r="BY8" s="6">
+        <v>7.4534726512510066</v>
+      </c>
+      <c r="CC8" s="6">
         <f t="shared" si="18"/>
-        <v>7.3299161922426057</v>
-      </c>
-      <c r="BZ8" s="6">
+        <v>8.1988199163761077</v>
+      </c>
+      <c r="CD8" s="6">
         <f t="shared" si="18"/>
-        <v>8.0629078114668662</v>
+        <v>9.0187019080137194</v>
       </c>
     </row>
-    <row r="9" spans="1:230" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:234" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>70</v>
       </c>
@@ -2764,7 +2883,7 @@
       </c>
       <c r="BB9" s="7">
         <f t="shared" si="19"/>
-        <v>16.599999999999998</v>
+        <v>16.664999999999999</v>
       </c>
       <c r="BC9" s="7">
         <f t="shared" si="19"/>
@@ -2775,63 +2894,70 @@
         <v>18.11</v>
       </c>
       <c r="BE9" s="7">
-        <f t="shared" ref="BE9:BF9" si="20">+BE8+BE7+BE6</f>
+        <f t="shared" ref="BE9:BG9" si="20">+BE8+BE7+BE6</f>
         <v>18.11</v>
       </c>
       <c r="BF9" s="7">
         <f t="shared" si="20"/>
-        <v>18.11</v>
-      </c>
-      <c r="BO9" s="7">
-        <f>+BO8+BO7+BO6</f>
-        <v>71.330000000000013</v>
-      </c>
-      <c r="BP9" s="7">
-        <f t="shared" ref="BP9:BU9" si="21">+BP8+BP7+BP6</f>
-        <v>78.463000000000022</v>
-      </c>
-      <c r="BQ9" s="7">
-        <f t="shared" si="21"/>
-        <v>86.309300000000022</v>
-      </c>
-      <c r="BR9" s="7">
-        <f t="shared" si="21"/>
-        <v>94.940230000000028</v>
-      </c>
+        <v>24.984999999999999</v>
+      </c>
+      <c r="BG9" s="7">
+        <f t="shared" si="20"/>
+        <v>26.191000000000003</v>
+      </c>
+      <c r="BH9" s="7"/>
+      <c r="BI9" s="7"/>
+      <c r="BJ9" s="7"/>
       <c r="BS9" s="7">
-        <f t="shared" si="21"/>
-        <v>104.43425300000004</v>
+        <f>+BS8+BS7+BS6</f>
+        <v>78.205000000000013</v>
       </c>
       <c r="BT9" s="7">
-        <f t="shared" si="21"/>
-        <v>114.87767830000006</v>
+        <f t="shared" ref="BT9:BY9" si="21">+BT8+BT7+BT6</f>
+        <v>86.025500000000022</v>
       </c>
       <c r="BU9" s="7">
         <f t="shared" si="21"/>
-        <v>126.36544613000007</v>
+        <v>94.62805000000003</v>
       </c>
       <c r="BV9" s="7">
-        <f t="shared" ref="BV9" si="22">+BV8+BV7+BV6</f>
-        <v>139.00199074300008</v>
+        <f t="shared" si="21"/>
+        <v>104.09085500000005</v>
       </c>
       <c r="BW9" s="7">
-        <f t="shared" ref="BW9" si="23">+BW8+BW7+BW6</f>
-        <v>152.90218981730013</v>
+        <f t="shared" si="21"/>
+        <v>114.49994050000006</v>
       </c>
       <c r="BX9" s="7">
-        <f t="shared" ref="BX9" si="24">+BX8+BX7+BX6</f>
-        <v>168.19240879903015</v>
+        <f t="shared" si="21"/>
+        <v>125.94993455000008</v>
       </c>
       <c r="BY9" s="7">
-        <f t="shared" ref="BY9" si="25">+BY8+BY7+BY6</f>
-        <v>185.01164967893317</v>
+        <f t="shared" si="21"/>
+        <v>138.54492800500009</v>
       </c>
       <c r="BZ9" s="7">
-        <f t="shared" ref="BZ9" si="26">+BZ8+BZ7+BZ6</f>
-        <v>203.51281464682648</v>
+        <f t="shared" ref="BZ9" si="22">+BZ8+BZ7+BZ6</f>
+        <v>152.39942080550011</v>
+      </c>
+      <c r="CA9" s="7">
+        <f t="shared" ref="CA9" si="23">+CA8+CA7+CA6</f>
+        <v>167.63936288605012</v>
+      </c>
+      <c r="CB9" s="7">
+        <f t="shared" ref="CB9" si="24">+CB8+CB7+CB6</f>
+        <v>184.40329917465513</v>
+      </c>
+      <c r="CC9" s="7">
+        <f t="shared" ref="CC9" si="25">+CC8+CC7+CC6</f>
+        <v>202.84362909212066</v>
+      </c>
+      <c r="CD9" s="7">
+        <f t="shared" ref="CD9" si="26">+CD8+CD7+CD6</f>
+        <v>223.12799200133273</v>
       </c>
     </row>
-    <row r="10" spans="1:230" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:234" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
         <v>71</v>
       </c>
@@ -3041,7 +3167,7 @@
       </c>
       <c r="BB10" s="7">
         <f t="shared" si="27"/>
-        <v>14.500000000000011</v>
+        <v>14.435000000000009</v>
       </c>
       <c r="BC10" s="7">
         <f t="shared" si="27"/>
@@ -3052,63 +3178,70 @@
         <v>39.39</v>
       </c>
       <c r="BE10" s="7">
-        <f t="shared" ref="BE10:BF10" si="28">+BE5-BE9</f>
+        <f t="shared" ref="BE10:BG10" si="28">+BE5-BE9</f>
         <v>44.722000000000001</v>
       </c>
       <c r="BF10" s="7">
         <f t="shared" si="28"/>
-        <v>49.866</v>
-      </c>
-      <c r="BO10" s="7">
-        <f>+BO5-BO9</f>
-        <v>156.078</v>
-      </c>
-      <c r="BP10" s="7">
-        <f t="shared" ref="BP10:BU10" si="29">+BP5-BP9</f>
-        <v>261.35899999999992</v>
-      </c>
-      <c r="BQ10" s="7">
-        <f t="shared" si="29"/>
-        <v>370.69269999999995</v>
-      </c>
-      <c r="BR10" s="7">
-        <f t="shared" si="29"/>
-        <v>471.7422499999999</v>
-      </c>
+        <v>38.348000000000006</v>
+      </c>
+      <c r="BG10" s="7">
+        <f t="shared" si="28"/>
+        <v>34.904200000000003</v>
+      </c>
+      <c r="BH10" s="7"/>
+      <c r="BI10" s="7"/>
+      <c r="BJ10" s="7"/>
       <c r="BS10" s="7">
-        <f t="shared" si="29"/>
-        <v>586.55277099999989</v>
+        <f>+BS5-BS9</f>
+        <v>144.56000000000003</v>
       </c>
       <c r="BT10" s="7">
-        <f t="shared" si="29"/>
-        <v>692.37065449999989</v>
+        <f t="shared" ref="BT10:BY10" si="29">+BT5-BT9</f>
+        <v>254.07988799999993</v>
       </c>
       <c r="BU10" s="7">
         <f t="shared" si="29"/>
-        <v>816.4753800699998</v>
+        <v>362.75505800000002</v>
       </c>
       <c r="BV10" s="7">
-        <f t="shared" ref="BV10" si="30">+BV5-BV9</f>
-        <v>945.26495938699964</v>
+        <f t="shared" si="29"/>
+        <v>463.06419892000008</v>
       </c>
       <c r="BW10" s="7">
-        <f t="shared" ref="BW10" si="31">+BW5-BW9</f>
-        <v>1039.7914553256999</v>
+        <f t="shared" si="29"/>
+        <v>577.06331879599998</v>
       </c>
       <c r="BX10" s="7">
-        <f t="shared" ref="BX10" si="32">+BX5-BX9</f>
-        <v>1143.7706008582697</v>
+        <f t="shared" si="29"/>
+        <v>681.97158742119996</v>
       </c>
       <c r="BY10" s="7">
-        <f t="shared" ref="BY10" si="33">+BY5-BY9</f>
-        <v>1192.5495104612319</v>
+        <f t="shared" si="29"/>
+        <v>805.08216210979981</v>
       </c>
       <c r="BZ10" s="7">
-        <f t="shared" ref="BZ10" si="34">+BZ5-BZ9</f>
-        <v>1242.9264035003469</v>
+        <f t="shared" ref="BZ10" si="30">+BZ5-BZ9</f>
+        <v>932.77173282651984</v>
+      </c>
+      <c r="CA10" s="7">
+        <f t="shared" ref="CA10" si="31">+CA5-CA9</f>
+        <v>1026.0489061091719</v>
+      </c>
+      <c r="CB10" s="7">
+        <f t="shared" ref="CB10" si="32">+CB5-CB9</f>
+        <v>1128.6537967200891</v>
+      </c>
+      <c r="CC10" s="7">
+        <f t="shared" ref="CC10" si="33">+CC5-CC9</f>
+        <v>1175.8663215973609</v>
+      </c>
+      <c r="CD10" s="7">
+        <f t="shared" ref="CD10" si="34">+CD5-CD9</f>
+        <v>1224.5174562226227</v>
       </c>
     </row>
-    <row r="11" spans="1:230" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:234" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>72</v>
       </c>
@@ -3274,52 +3407,59 @@
       <c r="BD11" s="7">
         <v>-3.4</v>
       </c>
-      <c r="BP11" s="6">
-        <f t="shared" ref="BP11:BZ11" si="35">+BO21*$BZ$23</f>
-        <v>2.5878999999999994</v>
-      </c>
-      <c r="BQ11" s="6">
-        <f t="shared" si="35"/>
-        <v>12.485908749999997</v>
-      </c>
-      <c r="BR11" s="6">
-        <f t="shared" si="35"/>
-        <v>26.855106578124992</v>
-      </c>
-      <c r="BS11" s="6">
-        <f t="shared" si="35"/>
-        <v>45.552507449804679</v>
+      <c r="BF11" s="6">
+        <f>-2.879+0.598</f>
+        <v>-2.2810000000000001</v>
+      </c>
+      <c r="BG11" s="6">
+        <v>-1.431</v>
       </c>
       <c r="BT11" s="6">
-        <f t="shared" si="35"/>
-        <v>69.256455391672361</v>
+        <f t="shared" ref="BT11:CD11" si="35">+BS21*$CD$23</f>
+        <v>0</v>
       </c>
       <c r="BU11" s="6">
         <f t="shared" si="35"/>
-        <v>97.817472012610068</v>
+        <v>9.5279957999999976</v>
       </c>
       <c r="BV11" s="6">
         <f t="shared" si="35"/>
-        <v>132.10345396570793</v>
+        <v>23.488610317499997</v>
       </c>
       <c r="BW11" s="6">
         <f t="shared" si="35"/>
-        <v>172.50476946643448</v>
+        <v>41.734340663906252</v>
       </c>
       <c r="BX11" s="6">
         <f t="shared" si="35"/>
-        <v>217.96587789613952</v>
+        <v>64.939252893652721</v>
       </c>
       <c r="BY11" s="6">
         <f t="shared" si="35"/>
-        <v>269.03099584942987</v>
+        <v>92.948409405459699</v>
       </c>
       <c r="BZ11" s="6">
         <f t="shared" si="35"/>
-        <v>323.84026483607971</v>
+        <v>126.62455583728193</v>
+      </c>
+      <c r="CA11" s="6">
+        <f t="shared" si="35"/>
+        <v>166.35191666217449</v>
+      </c>
+      <c r="CB11" s="6">
+        <f t="shared" si="35"/>
+        <v>211.06694751609996</v>
+      </c>
+      <c r="CC11" s="6">
+        <f t="shared" si="35"/>
+        <v>261.30647542495706</v>
+      </c>
+      <c r="CD11" s="6">
+        <f t="shared" si="35"/>
+        <v>315.20045531329401</v>
       </c>
     </row>
-    <row r="12" spans="1:230" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:234" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>73</v>
       </c>
@@ -3480,7 +3620,7 @@
       </c>
       <c r="BB12" s="7">
         <f t="shared" si="36"/>
-        <v>-17.399999999999988</v>
+        <v>-17.464999999999989</v>
       </c>
       <c r="BC12" s="7">
         <f t="shared" si="36"/>
@@ -3496,58 +3636,65 @@
       </c>
       <c r="BF12" s="7">
         <f>+BF10+BF11</f>
-        <v>49.866</v>
-      </c>
-      <c r="BO12" s="6">
-        <f>+BO10+BO11</f>
-        <v>156.078</v>
-      </c>
-      <c r="BP12" s="6">
-        <f t="shared" ref="BP12:BU12" si="37">+BP10+BP11</f>
-        <v>263.94689999999991</v>
-      </c>
-      <c r="BQ12" s="6">
-        <f t="shared" si="37"/>
-        <v>383.17860874999997</v>
-      </c>
-      <c r="BR12" s="6">
-        <f t="shared" si="37"/>
-        <v>498.5973565781249</v>
-      </c>
+        <v>36.067000000000007</v>
+      </c>
+      <c r="BG12" s="7">
+        <f>+BG10+BG11</f>
+        <v>33.473200000000006</v>
+      </c>
+      <c r="BH12" s="7"/>
+      <c r="BI12" s="7"/>
+      <c r="BJ12" s="7"/>
       <c r="BS12" s="6">
-        <f t="shared" si="37"/>
-        <v>632.10527844980459</v>
+        <f>+BS10+BS11</f>
+        <v>144.56000000000003</v>
       </c>
       <c r="BT12" s="6">
-        <f t="shared" si="37"/>
-        <v>761.62710989167226</v>
+        <f t="shared" ref="BT12:BY12" si="37">+BT10+BT11</f>
+        <v>254.07988799999993</v>
       </c>
       <c r="BU12" s="6">
         <f t="shared" si="37"/>
-        <v>914.2928520826099</v>
+        <v>372.2830538</v>
       </c>
       <c r="BV12" s="6">
-        <f t="shared" ref="BV12" si="38">+BV10+BV11</f>
-        <v>1077.3684133527076</v>
+        <f t="shared" si="37"/>
+        <v>486.55280923750007</v>
       </c>
       <c r="BW12" s="6">
-        <f t="shared" ref="BW12" si="39">+BW10+BW11</f>
-        <v>1212.2962247921344</v>
+        <f t="shared" si="37"/>
+        <v>618.79765945990619</v>
       </c>
       <c r="BX12" s="6">
-        <f t="shared" ref="BX12" si="40">+BX10+BX11</f>
-        <v>1361.7364787544093</v>
+        <f t="shared" si="37"/>
+        <v>746.91084031485263</v>
       </c>
       <c r="BY12" s="6">
-        <f t="shared" ref="BY12" si="41">+BY10+BY11</f>
-        <v>1461.5805063106618</v>
+        <f t="shared" si="37"/>
+        <v>898.03057151525945</v>
       </c>
       <c r="BZ12" s="6">
-        <f t="shared" ref="BZ12" si="42">+BZ10+BZ11</f>
-        <v>1566.7666683364266</v>
+        <f t="shared" ref="BZ12" si="38">+BZ10+BZ11</f>
+        <v>1059.3962886638017</v>
+      </c>
+      <c r="CA12" s="6">
+        <f t="shared" ref="CA12" si="39">+CA10+CA11</f>
+        <v>1192.4008227713464</v>
+      </c>
+      <c r="CB12" s="6">
+        <f t="shared" ref="CB12" si="40">+CB10+CB11</f>
+        <v>1339.7207442361891</v>
+      </c>
+      <c r="CC12" s="6">
+        <f t="shared" ref="CC12" si="41">+CC10+CC11</f>
+        <v>1437.1727970223178</v>
+      </c>
+      <c r="CD12" s="6">
+        <f t="shared" ref="CD12" si="42">+CD10+CD11</f>
+        <v>1539.7179115359168</v>
       </c>
     </row>
-    <row r="13" spans="1:230" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:234" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>74</v>
       </c>
@@ -3713,52 +3860,58 @@
       <c r="BD13" s="7">
         <v>3.8</v>
       </c>
-      <c r="BP13" s="6">
-        <f>+BP12*0.25</f>
-        <v>65.986724999999979</v>
-      </c>
-      <c r="BQ13" s="6">
-        <f t="shared" ref="BQ13:BU13" si="43">+BQ12*0.25</f>
-        <v>95.794652187499992</v>
-      </c>
-      <c r="BR13" s="6">
+      <c r="BF13" s="6">
+        <v>0</v>
+      </c>
+      <c r="BG13" s="6">
+        <v>6.5460000000000003</v>
+      </c>
+      <c r="BT13" s="6">
+        <f>+BT12*0.25</f>
+        <v>63.519971999999981</v>
+      </c>
+      <c r="BU13" s="6">
+        <f t="shared" ref="BU13:BY13" si="43">+BU12*0.25</f>
+        <v>93.070763450000001</v>
+      </c>
+      <c r="BV13" s="6">
         <f t="shared" si="43"/>
-        <v>124.64933914453123</v>
-      </c>
-      <c r="BS13" s="6">
+        <v>121.63820230937502</v>
+      </c>
+      <c r="BW13" s="6">
         <f t="shared" si="43"/>
-        <v>158.02631961245115</v>
-      </c>
-      <c r="BT13" s="6">
+        <v>154.69941486497655</v>
+      </c>
+      <c r="BX13" s="6">
         <f t="shared" si="43"/>
-        <v>190.40677747291807</v>
-      </c>
-      <c r="BU13" s="6">
+        <v>186.72771007871316</v>
+      </c>
+      <c r="BY13" s="6">
         <f t="shared" si="43"/>
-        <v>228.57321302065247</v>
-      </c>
-      <c r="BV13" s="6">
-        <f t="shared" ref="BV13" si="44">+BV12*0.25</f>
-        <v>269.34210333817691</v>
-      </c>
-      <c r="BW13" s="6">
-        <f t="shared" ref="BW13" si="45">+BW12*0.25</f>
-        <v>303.07405619803359</v>
-      </c>
-      <c r="BX13" s="6">
-        <f t="shared" ref="BX13" si="46">+BX12*0.25</f>
-        <v>340.43411968860232</v>
-      </c>
-      <c r="BY13" s="6">
-        <f t="shared" ref="BY13" si="47">+BY12*0.25</f>
-        <v>365.39512657766545</v>
+        <v>224.50764287881486</v>
       </c>
       <c r="BZ13" s="6">
-        <f t="shared" ref="BZ13" si="48">+BZ12*0.25</f>
-        <v>391.69166708410665</v>
+        <f t="shared" ref="BZ13" si="44">+BZ12*0.25</f>
+        <v>264.84907216595042</v>
+      </c>
+      <c r="CA13" s="6">
+        <f t="shared" ref="CA13" si="45">+CA12*0.25</f>
+        <v>298.1002056928366</v>
+      </c>
+      <c r="CB13" s="6">
+        <f t="shared" ref="CB13" si="46">+CB12*0.25</f>
+        <v>334.93018605904729</v>
+      </c>
+      <c r="CC13" s="6">
+        <f t="shared" ref="CC13" si="47">+CC12*0.25</f>
+        <v>359.29319925557945</v>
+      </c>
+      <c r="CD13" s="6">
+        <f t="shared" ref="CD13" si="48">+CD12*0.25</f>
+        <v>384.92947788397919</v>
       </c>
     </row>
-    <row r="14" spans="1:230" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:234" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
         <v>57</v>
       </c>
@@ -3968,7 +4121,7 @@
       </c>
       <c r="BB14" s="7">
         <f t="shared" ref="BB14" si="54">+BB12-BB13</f>
-        <v>-17.399999999999988</v>
+        <v>-17.464999999999989</v>
       </c>
       <c r="BC14" s="7">
         <f t="shared" si="49"/>
@@ -3984,662 +4137,669 @@
       </c>
       <c r="BF14" s="7">
         <f>+BF12-BF13</f>
-        <v>49.866</v>
-      </c>
-      <c r="BP14" s="6">
-        <f>+BP12-BP13</f>
-        <v>197.96017499999994</v>
-      </c>
-      <c r="BQ14" s="6">
-        <f t="shared" ref="BQ14:BU14" si="55">+BQ12-BQ13</f>
-        <v>287.38395656249998</v>
-      </c>
-      <c r="BR14" s="6">
+        <v>36.067000000000007</v>
+      </c>
+      <c r="BG14" s="7">
+        <f>+BG12-BG13</f>
+        <v>26.927200000000006</v>
+      </c>
+      <c r="BH14" s="7"/>
+      <c r="BI14" s="7"/>
+      <c r="BJ14" s="7"/>
+      <c r="BT14" s="6">
+        <f>+BT12-BT13</f>
+        <v>190.55991599999993</v>
+      </c>
+      <c r="BU14" s="6">
+        <f t="shared" ref="BU14:BY14" si="55">+BU12-BU13</f>
+        <v>279.21229034999999</v>
+      </c>
+      <c r="BV14" s="6">
         <f t="shared" si="55"/>
-        <v>373.94801743359369</v>
-      </c>
-      <c r="BS14" s="6">
+        <v>364.91460692812507</v>
+      </c>
+      <c r="BW14" s="6">
         <f t="shared" si="55"/>
-        <v>474.07895883735341</v>
-      </c>
-      <c r="BT14" s="6">
+        <v>464.09824459492961</v>
+      </c>
+      <c r="BX14" s="6">
         <f t="shared" si="55"/>
-        <v>571.2203324187542</v>
-      </c>
-      <c r="BU14" s="6">
+        <v>560.1831302361395</v>
+      </c>
+      <c r="BY14" s="6">
         <f t="shared" si="55"/>
-        <v>685.71963906195742</v>
-      </c>
-      <c r="BV14" s="6">
-        <f t="shared" ref="BV14" si="56">+BV12-BV13</f>
-        <v>808.02631001453074</v>
-      </c>
-      <c r="BW14" s="6">
-        <f t="shared" ref="BW14" si="57">+BW12-BW13</f>
-        <v>909.22216859410082</v>
-      </c>
-      <c r="BX14" s="6">
-        <f t="shared" ref="BX14" si="58">+BX12-BX13</f>
-        <v>1021.302359065807</v>
-      </c>
-      <c r="BY14" s="6">
-        <f t="shared" ref="BY14" si="59">+BY12-BY13</f>
-        <v>1096.1853797329964</v>
+        <v>673.52292863644459</v>
       </c>
       <c r="BZ14" s="6">
-        <f t="shared" ref="BZ14" si="60">+BZ12-BZ13</f>
-        <v>1175.0750012523199</v>
+        <f t="shared" ref="BZ14" si="56">+BZ12-BZ13</f>
+        <v>794.5472164978512</v>
       </c>
       <c r="CA14" s="6">
-        <f t="shared" ref="CA14:DF14" si="61">+BZ14*(1+$BZ$25)</f>
-        <v>1186.8257512648431</v>
+        <f t="shared" ref="CA14" si="57">+CA12-CA13</f>
+        <v>894.30061707850973</v>
       </c>
       <c r="CB14" s="6">
-        <f t="shared" si="61"/>
-        <v>1198.6940087774915</v>
+        <f t="shared" ref="CB14" si="58">+CB12-CB13</f>
+        <v>1004.7905581771419</v>
       </c>
       <c r="CC14" s="6">
-        <f t="shared" si="61"/>
-        <v>1210.6809488652664</v>
+        <f t="shared" ref="CC14" si="59">+CC12-CC13</f>
+        <v>1077.8795977667382</v>
       </c>
       <c r="CD14" s="6">
-        <f t="shared" si="61"/>
-        <v>1222.7877583539191</v>
+        <f t="shared" ref="CD14" si="60">+CD12-CD13</f>
+        <v>1154.7884336519376</v>
       </c>
       <c r="CE14" s="6">
-        <f t="shared" si="61"/>
-        <v>1235.0156359374582</v>
+        <f t="shared" ref="CE14:DJ14" si="61">+CD14*(1+$CD$25)</f>
+        <v>1166.336317988457</v>
       </c>
       <c r="CF14" s="6">
         <f t="shared" si="61"/>
-        <v>1247.3657922968328</v>
+        <v>1177.9996811683416</v>
       </c>
       <c r="CG14" s="6">
         <f t="shared" si="61"/>
-        <v>1259.8394502198012</v>
+        <v>1189.7796779800251</v>
       </c>
       <c r="CH14" s="6">
         <f t="shared" si="61"/>
-        <v>1272.4378447219992</v>
+        <v>1201.6774747598254</v>
       </c>
       <c r="CI14" s="6">
         <f t="shared" si="61"/>
-        <v>1285.1622231692193</v>
+        <v>1213.6942495074236</v>
       </c>
       <c r="CJ14" s="6">
         <f t="shared" si="61"/>
-        <v>1298.0138454009116</v>
+        <v>1225.8311920024978</v>
       </c>
       <c r="CK14" s="6">
         <f t="shared" si="61"/>
-        <v>1310.9939838549208</v>
+        <v>1238.0895039225227</v>
       </c>
       <c r="CL14" s="6">
         <f t="shared" si="61"/>
-        <v>1324.1039236934701</v>
+        <v>1250.4703989617478</v>
       </c>
       <c r="CM14" s="6">
         <f t="shared" si="61"/>
-        <v>1337.3449629304048</v>
+        <v>1262.9751029513652</v>
       </c>
       <c r="CN14" s="6">
         <f t="shared" si="61"/>
-        <v>1350.7184125597089</v>
+        <v>1275.6048539808789</v>
       </c>
       <c r="CO14" s="6">
         <f t="shared" si="61"/>
-        <v>1364.2255966853061</v>
+        <v>1288.3609025206877</v>
       </c>
       <c r="CP14" s="6">
         <f t="shared" si="61"/>
-        <v>1377.8678526521592</v>
+        <v>1301.2445115458945</v>
       </c>
       <c r="CQ14" s="6">
         <f t="shared" si="61"/>
-        <v>1391.6465311786808</v>
+        <v>1314.2569566613536</v>
       </c>
       <c r="CR14" s="6">
         <f t="shared" si="61"/>
-        <v>1405.5629964904676</v>
+        <v>1327.399526227967</v>
       </c>
       <c r="CS14" s="6">
         <f t="shared" si="61"/>
-        <v>1419.6186264553724</v>
+        <v>1340.6735214902467</v>
       </c>
       <c r="CT14" s="6">
         <f t="shared" si="61"/>
-        <v>1433.8148127199261</v>
+        <v>1354.0802567051492</v>
       </c>
       <c r="CU14" s="6">
         <f t="shared" si="61"/>
-        <v>1448.1529608471253</v>
+        <v>1367.6210592722007</v>
       </c>
       <c r="CV14" s="6">
         <f t="shared" si="61"/>
-        <v>1462.6344904555965</v>
+        <v>1381.2972698649228</v>
       </c>
       <c r="CW14" s="6">
         <f t="shared" si="61"/>
-        <v>1477.2608353601524</v>
+        <v>1395.110242563572</v>
       </c>
       <c r="CX14" s="6">
         <f t="shared" si="61"/>
-        <v>1492.033443713754</v>
+        <v>1409.0613449892078</v>
       </c>
       <c r="CY14" s="6">
         <f t="shared" si="61"/>
-        <v>1506.9537781508916</v>
+        <v>1423.1519584390999</v>
       </c>
       <c r="CZ14" s="6">
         <f t="shared" si="61"/>
-        <v>1522.0233159324005</v>
+        <v>1437.3834780234909</v>
       </c>
       <c r="DA14" s="6">
         <f t="shared" si="61"/>
-        <v>1537.2435490917244</v>
+        <v>1451.7573128037259</v>
       </c>
       <c r="DB14" s="6">
         <f t="shared" si="61"/>
-        <v>1552.6159845826417</v>
+        <v>1466.2748859317633</v>
       </c>
       <c r="DC14" s="6">
         <f t="shared" si="61"/>
-        <v>1568.1421444284681</v>
+        <v>1480.9376347910809</v>
       </c>
       <c r="DD14" s="6">
         <f t="shared" si="61"/>
-        <v>1583.8235658727529</v>
+        <v>1495.7470111389916</v>
       </c>
       <c r="DE14" s="6">
         <f t="shared" si="61"/>
-        <v>1599.6618015314805</v>
+        <v>1510.7044812503816</v>
       </c>
       <c r="DF14" s="6">
         <f t="shared" si="61"/>
-        <v>1615.6584195467954</v>
+        <v>1525.8115260628854</v>
       </c>
       <c r="DG14" s="6">
-        <f t="shared" ref="DG14:EL14" si="62">+DF14*(1+$BZ$25)</f>
-        <v>1631.8150037422633</v>
+        <f t="shared" si="61"/>
+        <v>1541.0696413235141</v>
       </c>
       <c r="DH14" s="6">
-        <f t="shared" si="62"/>
-        <v>1648.1331537796859</v>
+        <f t="shared" si="61"/>
+        <v>1556.4803377367493</v>
       </c>
       <c r="DI14" s="6">
-        <f t="shared" si="62"/>
-        <v>1664.6144853174828</v>
+        <f t="shared" si="61"/>
+        <v>1572.0451411141169</v>
       </c>
       <c r="DJ14" s="6">
-        <f t="shared" si="62"/>
-        <v>1681.2606301706576</v>
+        <f t="shared" si="61"/>
+        <v>1587.7655925252579</v>
       </c>
       <c r="DK14" s="6">
-        <f t="shared" si="62"/>
-        <v>1698.0732364723642</v>
+        <f t="shared" ref="DK14:EP14" si="62">+DJ14*(1+$CD$25)</f>
+        <v>1603.6432484505106</v>
       </c>
       <c r="DL14" s="6">
         <f t="shared" si="62"/>
-        <v>1715.053968837088</v>
+        <v>1619.6796809350158</v>
       </c>
       <c r="DM14" s="6">
         <f t="shared" si="62"/>
-        <v>1732.2045085254588</v>
+        <v>1635.876477744366</v>
       </c>
       <c r="DN14" s="6">
         <f t="shared" si="62"/>
-        <v>1749.5265536107133</v>
+        <v>1652.2352425218096</v>
       </c>
       <c r="DO14" s="6">
         <f t="shared" si="62"/>
-        <v>1767.0218191468205</v>
+        <v>1668.7575949470277</v>
       </c>
       <c r="DP14" s="6">
         <f t="shared" si="62"/>
-        <v>1784.6920373382886</v>
+        <v>1685.445170896498</v>
       </c>
       <c r="DQ14" s="6">
         <f t="shared" si="62"/>
-        <v>1802.5389577116716</v>
+        <v>1702.2996226054629</v>
       </c>
       <c r="DR14" s="6">
         <f t="shared" si="62"/>
-        <v>1820.5643472887884</v>
+        <v>1719.3226188315175</v>
       </c>
       <c r="DS14" s="6">
         <f t="shared" si="62"/>
-        <v>1838.7699907616764</v>
+        <v>1736.5158450198328</v>
       </c>
       <c r="DT14" s="6">
         <f t="shared" si="62"/>
-        <v>1857.1576906692931</v>
+        <v>1753.8810034700311</v>
       </c>
       <c r="DU14" s="6">
         <f t="shared" si="62"/>
-        <v>1875.7292675759861</v>
+        <v>1771.4198135047316</v>
       </c>
       <c r="DV14" s="6">
         <f t="shared" si="62"/>
-        <v>1894.4865602517459</v>
+        <v>1789.1340116397789</v>
       </c>
       <c r="DW14" s="6">
         <f t="shared" si="62"/>
-        <v>1913.4314258542634</v>
+        <v>1807.0253517561766</v>
       </c>
       <c r="DX14" s="6">
         <f t="shared" si="62"/>
-        <v>1932.565740112806</v>
+        <v>1825.0956052737383</v>
       </c>
       <c r="DY14" s="6">
         <f t="shared" si="62"/>
-        <v>1951.8913975139342</v>
+        <v>1843.3465613264757</v>
       </c>
       <c r="DZ14" s="6">
         <f t="shared" si="62"/>
-        <v>1971.4103114890736</v>
+        <v>1861.7800269397405</v>
       </c>
       <c r="EA14" s="6">
         <f t="shared" si="62"/>
-        <v>1991.1244146039644</v>
+        <v>1880.3978272091379</v>
       </c>
       <c r="EB14" s="6">
         <f t="shared" si="62"/>
-        <v>2011.0356587500041</v>
+        <v>1899.2018054812293</v>
       </c>
       <c r="EC14" s="6">
         <f t="shared" si="62"/>
-        <v>2031.1460153375042</v>
+        <v>1918.1938235360415</v>
       </c>
       <c r="ED14" s="6">
         <f t="shared" si="62"/>
-        <v>2051.4574754908795</v>
+        <v>1937.3757617714018</v>
       </c>
       <c r="EE14" s="6">
         <f t="shared" si="62"/>
-        <v>2071.9720502457881</v>
+        <v>1956.7495193891159</v>
       </c>
       <c r="EF14" s="6">
         <f t="shared" si="62"/>
-        <v>2092.6917707482457</v>
+        <v>1976.317014583007</v>
       </c>
       <c r="EG14" s="6">
         <f t="shared" si="62"/>
-        <v>2113.6186884557283</v>
+        <v>1996.0801847288371</v>
       </c>
       <c r="EH14" s="6">
         <f t="shared" si="62"/>
-        <v>2134.7548753402857</v>
+        <v>2016.0409865761255</v>
       </c>
       <c r="EI14" s="6">
         <f t="shared" si="62"/>
-        <v>2156.1024240936886</v>
+        <v>2036.2013964418868</v>
       </c>
       <c r="EJ14" s="6">
         <f t="shared" si="62"/>
-        <v>2177.6634483346256</v>
+        <v>2056.5634104063056</v>
       </c>
       <c r="EK14" s="6">
         <f t="shared" si="62"/>
-        <v>2199.4400828179719</v>
+        <v>2077.1290445103687</v>
       </c>
       <c r="EL14" s="6">
         <f t="shared" si="62"/>
-        <v>2221.4344836461514</v>
+        <v>2097.9003349554723</v>
       </c>
       <c r="EM14" s="6">
-        <f t="shared" ref="EM14:FR14" si="63">+EL14*(1+$BZ$25)</f>
-        <v>2243.6488284826128</v>
+        <f t="shared" si="62"/>
+        <v>2118.879338305027</v>
       </c>
       <c r="EN14" s="6">
-        <f t="shared" si="63"/>
-        <v>2266.0853167674391</v>
+        <f t="shared" si="62"/>
+        <v>2140.0681316880773</v>
       </c>
       <c r="EO14" s="6">
-        <f t="shared" si="63"/>
-        <v>2288.7461699351134</v>
+        <f t="shared" si="62"/>
+        <v>2161.4688130049581</v>
       </c>
       <c r="EP14" s="6">
-        <f t="shared" si="63"/>
-        <v>2311.6336316344646</v>
+        <f t="shared" si="62"/>
+        <v>2183.0835011350077</v>
       </c>
       <c r="EQ14" s="6">
-        <f t="shared" si="63"/>
-        <v>2334.7499679508092</v>
+        <f t="shared" ref="EQ14:FV14" si="63">+EP14*(1+$CD$25)</f>
+        <v>2204.914336146358</v>
       </c>
       <c r="ER14" s="6">
         <f t="shared" si="63"/>
-        <v>2358.0974676303172</v>
+        <v>2226.9634795078214</v>
       </c>
       <c r="ES14" s="6">
         <f t="shared" si="63"/>
-        <v>2381.6784423066206</v>
+        <v>2249.2331143028996</v>
       </c>
       <c r="ET14" s="6">
         <f t="shared" si="63"/>
-        <v>2405.4952267296867</v>
+        <v>2271.7254454459285</v>
       </c>
       <c r="EU14" s="6">
         <f t="shared" si="63"/>
-        <v>2429.5501789969835</v>
+        <v>2294.4426999003877</v>
       </c>
       <c r="EV14" s="6">
         <f t="shared" si="63"/>
-        <v>2453.8456807869534</v>
+        <v>2317.3871268993917</v>
       </c>
       <c r="EW14" s="6">
         <f t="shared" si="63"/>
-        <v>2478.3841375948227</v>
+        <v>2340.5609981683856</v>
       </c>
       <c r="EX14" s="6">
         <f t="shared" si="63"/>
-        <v>2503.1679789707709</v>
+        <v>2363.9666081500695</v>
       </c>
       <c r="EY14" s="6">
         <f t="shared" si="63"/>
-        <v>2528.1996587604785</v>
+        <v>2387.6062742315703</v>
       </c>
       <c r="EZ14" s="6">
         <f t="shared" si="63"/>
-        <v>2553.4816553480832</v>
+        <v>2411.482336973886</v>
       </c>
       <c r="FA14" s="6">
         <f t="shared" si="63"/>
-        <v>2579.0164719015643</v>
+        <v>2435.5971603436251</v>
       </c>
       <c r="FB14" s="6">
         <f t="shared" si="63"/>
-        <v>2604.8066366205799</v>
+        <v>2459.9531319470611</v>
       </c>
       <c r="FC14" s="6">
         <f t="shared" si="63"/>
-        <v>2630.8547029867855</v>
+        <v>2484.5526632665319</v>
       </c>
       <c r="FD14" s="6">
         <f t="shared" si="63"/>
-        <v>2657.1632500166534</v>
+        <v>2509.3981898991974</v>
       </c>
       <c r="FE14" s="6">
         <f t="shared" si="63"/>
-        <v>2683.7348825168201</v>
+        <v>2534.4921717981892</v>
       </c>
       <c r="FF14" s="6">
         <f t="shared" si="63"/>
-        <v>2710.5722313419883</v>
+        <v>2559.8370935161711</v>
       </c>
       <c r="FG14" s="6">
         <f t="shared" si="63"/>
-        <v>2737.6779536554081</v>
+        <v>2585.4354644513328</v>
       </c>
       <c r="FH14" s="6">
         <f t="shared" si="63"/>
-        <v>2765.0547331919624</v>
+        <v>2611.2898190958463</v>
       </c>
       <c r="FI14" s="6">
         <f t="shared" si="63"/>
-        <v>2792.7052805238823</v>
+        <v>2637.4027172868045</v>
       </c>
       <c r="FJ14" s="6">
         <f t="shared" si="63"/>
-        <v>2820.6323333291211</v>
+        <v>2663.7767444596725</v>
       </c>
       <c r="FK14" s="6">
         <f t="shared" si="63"/>
-        <v>2848.8386566624122</v>
+        <v>2690.4145119042691</v>
       </c>
       <c r="FL14" s="6">
         <f t="shared" si="63"/>
-        <v>2877.3270432290365</v>
+        <v>2717.318657023312</v>
       </c>
       <c r="FM14" s="6">
         <f t="shared" si="63"/>
-        <v>2906.1003136613267</v>
+        <v>2744.4918435935451</v>
       </c>
       <c r="FN14" s="6">
         <f t="shared" si="63"/>
-        <v>2935.1613167979399</v>
+        <v>2771.9367620294806</v>
       </c>
       <c r="FO14" s="6">
         <f t="shared" si="63"/>
-        <v>2964.5129299659193</v>
+        <v>2799.6561296497753</v>
       </c>
       <c r="FP14" s="6">
         <f t="shared" si="63"/>
-        <v>2994.1580592655787</v>
+        <v>2827.6526909462732</v>
       </c>
       <c r="FQ14" s="6">
         <f t="shared" si="63"/>
-        <v>3024.0996398582347</v>
+        <v>2855.9292178557362</v>
       </c>
       <c r="FR14" s="6">
         <f t="shared" si="63"/>
-        <v>3054.3406362568171</v>
+        <v>2884.4885100342935</v>
       </c>
       <c r="FS14" s="6">
-        <f t="shared" ref="FS14:GX14" si="64">+FR14*(1+$BZ$25)</f>
-        <v>3084.8840426193851</v>
+        <f t="shared" si="63"/>
+        <v>2913.3333951346367</v>
       </c>
       <c r="FT14" s="6">
-        <f t="shared" si="64"/>
-        <v>3115.732883045579</v>
+        <f t="shared" si="63"/>
+        <v>2942.4667290859829</v>
       </c>
       <c r="FU14" s="6">
-        <f t="shared" si="64"/>
-        <v>3146.8902118760348</v>
+        <f t="shared" si="63"/>
+        <v>2971.8913963768427</v>
       </c>
       <c r="FV14" s="6">
-        <f t="shared" si="64"/>
-        <v>3178.3591139947953</v>
+        <f t="shared" si="63"/>
+        <v>3001.6103103406112</v>
       </c>
       <c r="FW14" s="6">
-        <f t="shared" si="64"/>
-        <v>3210.1427051347432</v>
+        <f t="shared" ref="FW14:HB14" si="64">+FV14*(1+$CD$25)</f>
+        <v>3031.6264134440175</v>
       </c>
       <c r="FX14" s="6">
         <f t="shared" si="64"/>
-        <v>3242.2441321860906</v>
+        <v>3061.9426775784577</v>
       </c>
       <c r="FY14" s="6">
         <f t="shared" si="64"/>
-        <v>3274.6665735079514</v>
+        <v>3092.5621043542424</v>
       </c>
       <c r="FZ14" s="6">
         <f t="shared" si="64"/>
-        <v>3307.4132392430311</v>
+        <v>3123.4877253977847</v>
       </c>
       <c r="GA14" s="6">
         <f t="shared" si="64"/>
-        <v>3340.4873716354614</v>
+        <v>3154.7226026517628</v>
       </c>
       <c r="GB14" s="6">
         <f t="shared" si="64"/>
-        <v>3373.8922453518162</v>
+        <v>3186.2698286782806</v>
       </c>
       <c r="GC14" s="6">
         <f t="shared" si="64"/>
-        <v>3407.6311678053344</v>
+        <v>3218.1325269650633</v>
       </c>
       <c r="GD14" s="6">
         <f t="shared" si="64"/>
-        <v>3441.7074794833879</v>
+        <v>3250.313852234714</v>
       </c>
       <c r="GE14" s="6">
         <f t="shared" si="64"/>
-        <v>3476.1245542782217</v>
+        <v>3282.8169907570609</v>
       </c>
       <c r="GF14" s="6">
         <f t="shared" si="64"/>
-        <v>3510.8857998210037</v>
+        <v>3315.6451606646315</v>
       </c>
       <c r="GG14" s="6">
         <f t="shared" si="64"/>
-        <v>3545.9946578192139</v>
+        <v>3348.8016122712779</v>
       </c>
       <c r="GH14" s="6">
         <f t="shared" si="64"/>
-        <v>3581.454604397406</v>
+        <v>3382.2896283939908</v>
       </c>
       <c r="GI14" s="6">
         <f t="shared" si="64"/>
-        <v>3617.2691504413801</v>
+        <v>3416.1125246779307</v>
       </c>
       <c r="GJ14" s="6">
         <f t="shared" si="64"/>
-        <v>3653.4418419457938</v>
+        <v>3450.2736499247098</v>
       </c>
       <c r="GK14" s="6">
         <f t="shared" si="64"/>
-        <v>3689.9762603652516</v>
+        <v>3484.7763864239569</v>
       </c>
       <c r="GL14" s="6">
         <f t="shared" si="64"/>
-        <v>3726.8760229689042</v>
+        <v>3519.6241502881967</v>
       </c>
       <c r="GM14" s="6">
         <f t="shared" si="64"/>
-        <v>3764.1447831985934</v>
+        <v>3554.8203917910787</v>
       </c>
       <c r="GN14" s="6">
         <f t="shared" si="64"/>
-        <v>3801.7862310305795</v>
+        <v>3590.3685957089897</v>
       </c>
       <c r="GO14" s="6">
         <f t="shared" si="64"/>
-        <v>3839.8040933408852</v>
+        <v>3626.2722816660798</v>
       </c>
       <c r="GP14" s="6">
         <f t="shared" si="64"/>
-        <v>3878.2021342742942</v>
+        <v>3662.5350044827405</v>
       </c>
       <c r="GQ14" s="6">
         <f t="shared" si="64"/>
-        <v>3916.9841556170372</v>
+        <v>3699.160354527568</v>
       </c>
       <c r="GR14" s="6">
         <f t="shared" si="64"/>
-        <v>3956.1539971732077</v>
+        <v>3736.1519580728436</v>
       </c>
       <c r="GS14" s="6">
         <f t="shared" si="64"/>
-        <v>3995.7155371449398</v>
+        <v>3773.513477653572</v>
       </c>
       <c r="GT14" s="6">
         <f t="shared" si="64"/>
-        <v>4035.6726925163894</v>
+        <v>3811.2486124301076</v>
       </c>
       <c r="GU14" s="6">
         <f t="shared" si="64"/>
-        <v>4076.0294194415533</v>
+        <v>3849.3610985544087</v>
       </c>
       <c r="GV14" s="6">
         <f t="shared" si="64"/>
-        <v>4116.7897136359688</v>
+        <v>3887.8547095399526</v>
       </c>
       <c r="GW14" s="6">
         <f t="shared" si="64"/>
-        <v>4157.9576107723287</v>
+        <v>3926.7332566353521</v>
       </c>
       <c r="GX14" s="6">
         <f t="shared" si="64"/>
-        <v>4199.5371868800521</v>
+        <v>3966.0005892017057</v>
       </c>
       <c r="GY14" s="6">
-        <f t="shared" ref="GY14:HV14" si="65">+GX14*(1+$BZ$25)</f>
-        <v>4241.5325587488524</v>
+        <f t="shared" si="64"/>
+        <v>4005.6605950937228</v>
       </c>
       <c r="GZ14" s="6">
-        <f t="shared" si="65"/>
-        <v>4283.9478843363413</v>
+        <f t="shared" si="64"/>
+        <v>4045.7172010446602</v>
       </c>
       <c r="HA14" s="6">
-        <f t="shared" si="65"/>
-        <v>4326.7873631797047</v>
+        <f t="shared" si="64"/>
+        <v>4086.174373055107</v>
       </c>
       <c r="HB14" s="6">
-        <f t="shared" si="65"/>
-        <v>4370.0552368115013</v>
+        <f t="shared" si="64"/>
+        <v>4127.0361167856581</v>
       </c>
       <c r="HC14" s="6">
-        <f t="shared" si="65"/>
-        <v>4413.7557891796168</v>
+        <f t="shared" ref="HC14:HZ14" si="65">+HB14*(1+$CD$25)</f>
+        <v>4168.3064779535143</v>
       </c>
       <c r="HD14" s="6">
         <f t="shared" si="65"/>
-        <v>4457.8933470714128</v>
+        <v>4209.9895427330493</v>
       </c>
       <c r="HE14" s="6">
         <f t="shared" si="65"/>
-        <v>4502.472280542127</v>
+        <v>4252.0894381603803</v>
       </c>
       <c r="HF14" s="6">
         <f t="shared" si="65"/>
-        <v>4547.4970033475483</v>
+        <v>4294.6103325419845</v>
       </c>
       <c r="HG14" s="6">
         <f t="shared" si="65"/>
-        <v>4592.9719733810234</v>
+        <v>4337.5564358674046</v>
       </c>
       <c r="HH14" s="6">
         <f t="shared" si="65"/>
-        <v>4638.9016931148335</v>
+        <v>4380.9320002260783</v>
       </c>
       <c r="HI14" s="6">
         <f t="shared" si="65"/>
-        <v>4685.2907100459815</v>
+        <v>4424.7413202283387</v>
       </c>
       <c r="HJ14" s="6">
         <f t="shared" si="65"/>
-        <v>4732.1436171464411</v>
+        <v>4468.9887334306222</v>
       </c>
       <c r="HK14" s="6">
         <f t="shared" si="65"/>
-        <v>4779.4650533179056</v>
+        <v>4513.6786207649284</v>
       </c>
       <c r="HL14" s="6">
         <f t="shared" si="65"/>
-        <v>4827.2597038510849</v>
+        <v>4558.8154069725779</v>
       </c>
       <c r="HM14" s="6">
         <f t="shared" si="65"/>
-        <v>4875.5323008895957</v>
+        <v>4604.4035610423034</v>
       </c>
       <c r="HN14" s="6">
         <f t="shared" si="65"/>
-        <v>4924.2876238984918</v>
+        <v>4650.4475966527261</v>
       </c>
       <c r="HO14" s="6">
         <f t="shared" si="65"/>
-        <v>4973.5305001374763</v>
+        <v>4696.9520726192532</v>
       </c>
       <c r="HP14" s="6">
         <f t="shared" si="65"/>
-        <v>5023.2658051388507</v>
+        <v>4743.9215933454461</v>
       </c>
       <c r="HQ14" s="6">
         <f t="shared" si="65"/>
-        <v>5073.4984631902389</v>
+        <v>4791.3608092789009</v>
       </c>
       <c r="HR14" s="6">
         <f t="shared" si="65"/>
-        <v>5124.233447822141</v>
+        <v>4839.2744173716901</v>
       </c>
       <c r="HS14" s="6">
         <f t="shared" si="65"/>
-        <v>5175.4757823003629</v>
+        <v>4887.667161545407</v>
       </c>
       <c r="HT14" s="6">
         <f t="shared" si="65"/>
-        <v>5227.2305401233662</v>
+        <v>4936.5438331608611</v>
       </c>
       <c r="HU14" s="6">
         <f t="shared" si="65"/>
-        <v>5279.5028455246002</v>
+        <v>4985.90927149247</v>
       </c>
       <c r="HV14" s="6">
         <f t="shared" si="65"/>
-        <v>5332.2978739798464</v>
+        <v>5035.7683642073944</v>
+      </c>
+      <c r="HW14" s="6">
+        <f t="shared" si="65"/>
+        <v>5086.1260478494687</v>
+      </c>
+      <c r="HX14" s="6">
+        <f t="shared" si="65"/>
+        <v>5136.9873083279635</v>
+      </c>
+      <c r="HY14" s="6">
+        <f t="shared" si="65"/>
+        <v>5188.3571814112429</v>
+      </c>
+      <c r="HZ14" s="6">
+        <f t="shared" si="65"/>
+        <v>5240.2407532253555</v>
       </c>
     </row>
-    <row r="15" spans="1:230" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:234" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
         <v>77</v>
       </c>
@@ -4703,107 +4863,128 @@
         <f>+BD14/BD16</f>
         <v>0.13292476030762765</v>
       </c>
-      <c r="BP15" s="21">
-        <f>+BP14/BP16</f>
-        <v>0.81745289879872662</v>
-      </c>
-      <c r="BQ15" s="21">
-        <f t="shared" ref="BQ15:BU15" si="66">+BQ14/BQ16</f>
-        <v>1.1867177242102509</v>
-      </c>
-      <c r="BR15" s="21">
+      <c r="BE15" s="10" t="e">
+        <f>+BE14/BE16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF15" s="10">
+        <f>+BF14/BF16</f>
+        <v>0.14667305379890105</v>
+      </c>
+      <c r="BG15" s="10">
+        <f>+BG14/BG16</f>
+        <v>0.1100523201363761</v>
+      </c>
+      <c r="BT15" s="21">
+        <f>+BT14/BT16</f>
+        <v>0.78689441312648789</v>
+      </c>
+      <c r="BU15" s="21">
+        <f t="shared" ref="BU15:BY15" si="66">+BU14/BU16</f>
+        <v>1.1529738045889244</v>
+      </c>
+      <c r="BV15" s="21">
         <f t="shared" si="66"/>
-        <v>1.5441736745844361</v>
-      </c>
-      <c r="BS15" s="21">
+        <v>1.5068712848298595</v>
+      </c>
+      <c r="BW15" s="21">
         <f t="shared" si="66"/>
-        <v>1.957652437724289</v>
-      </c>
-      <c r="BT15" s="21">
+        <v>1.9164382703315239</v>
+      </c>
+      <c r="BX15" s="21">
         <f t="shared" si="66"/>
-        <v>2.3587861376081478</v>
-      </c>
-      <c r="BU15" s="21">
+        <v>2.313209329450618</v>
+      </c>
+      <c r="BY15" s="21">
         <f t="shared" si="66"/>
-        <v>2.8315973488829953</v>
-      </c>
-      <c r="BV15" s="21">
-        <f t="shared" ref="BV15" si="67">+BV14/BV16</f>
-        <v>3.3366481385814946</v>
-      </c>
-      <c r="BW15" s="21">
-        <f t="shared" ref="BW15" si="68">+BW14/BW16</f>
-        <v>3.754524350007836</v>
-      </c>
-      <c r="BX15" s="21">
-        <f t="shared" ref="BX15" si="69">+BX14/BX16</f>
-        <v>4.217346109985618</v>
-      </c>
-      <c r="BY15" s="21">
-        <f t="shared" ref="BY15" si="70">+BY14/BY16</f>
-        <v>4.5265665999917459</v>
+        <v>2.7812324899251561</v>
       </c>
       <c r="BZ15" s="21">
-        <f t="shared" ref="BZ15" si="71">+BZ14/BZ16</f>
-        <v>4.8523318696784674</v>
+        <f t="shared" ref="BZ15" si="67">+BZ14/BZ16</f>
+        <v>3.2809878318132832</v>
+      </c>
+      <c r="CA15" s="21">
+        <f t="shared" ref="CA15" si="68">+CA14/CA16</f>
+        <v>3.6929075852166631</v>
+      </c>
+      <c r="CB15" s="21">
+        <f t="shared" ref="CB15" si="69">+CB14/CB16</f>
+        <v>4.1491626003437077</v>
+      </c>
+      <c r="CC15" s="21">
+        <f t="shared" ref="CC15" si="70">+CC14/CC16</f>
+        <v>4.4509750597584885</v>
+      </c>
+      <c r="CD15" s="21">
+        <f t="shared" ref="CD15" si="71">+CD14/CD16</f>
+        <v>4.7685609117491321</v>
       </c>
     </row>
-    <row r="16" spans="1:230" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:234" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
         <v>1</v>
       </c>
       <c r="AZ16" s="6">
         <v>222.683393</v>
       </c>
+      <c r="BB16" s="6">
+        <v>225.96838700000001</v>
+      </c>
       <c r="BD16" s="6">
         <v>242.16707199999999</v>
       </c>
-      <c r="BP16" s="6">
+      <c r="BF16" s="6">
+        <v>245.900655</v>
+      </c>
+      <c r="BG16" s="6">
+        <v>244.67635000000001</v>
+      </c>
+      <c r="BT16" s="6">
         <f>BD16</f>
         <v>242.16707199999999</v>
       </c>
-      <c r="BQ16" s="6">
-        <f>+BP16</f>
+      <c r="BU16" s="6">
+        <f>+BT16</f>
         <v>242.16707199999999</v>
       </c>
-      <c r="BR16" s="6">
-        <f t="shared" ref="BR16:BU16" si="72">+BQ16</f>
+      <c r="BV16" s="6">
+        <f t="shared" ref="BV16:BY16" si="72">+BU16</f>
         <v>242.16707199999999</v>
       </c>
-      <c r="BS16" s="6">
+      <c r="BW16" s="6">
         <f t="shared" si="72"/>
         <v>242.16707199999999</v>
       </c>
-      <c r="BT16" s="6">
+      <c r="BX16" s="6">
         <f t="shared" si="72"/>
         <v>242.16707199999999</v>
       </c>
-      <c r="BU16" s="6">
+      <c r="BY16" s="6">
         <f t="shared" si="72"/>
         <v>242.16707199999999</v>
       </c>
-      <c r="BV16" s="6">
-        <f t="shared" ref="BV16:BZ16" si="73">+BU16</f>
+      <c r="BZ16" s="6">
+        <f t="shared" ref="BZ16:CD16" si="73">+BY16</f>
         <v>242.16707199999999</v>
       </c>
-      <c r="BW16" s="6">
+      <c r="CA16" s="6">
         <f t="shared" si="73"/>
         <v>242.16707199999999</v>
       </c>
-      <c r="BX16" s="6">
+      <c r="CB16" s="6">
         <f t="shared" si="73"/>
         <v>242.16707199999999</v>
       </c>
-      <c r="BY16" s="6">
+      <c r="CC16" s="6">
         <f t="shared" si="73"/>
         <v>242.16707199999999</v>
       </c>
-      <c r="BZ16" s="6">
+      <c r="CD16" s="6">
         <f t="shared" si="73"/>
         <v>242.16707199999999</v>
       </c>
     </row>
-    <row r="18" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:82" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>68</v>
       </c>
@@ -4840,7 +5021,7 @@
         <v>0.95532646048109959</v>
       </c>
       <c r="AZ18" s="5">
-        <f t="shared" ref="AZ18:BF18" si="79">+AZ3/AV3-1</f>
+        <f t="shared" ref="AZ18:BG18" si="79">+AZ3/AV3-1</f>
         <v>0.77286135693215341</v>
       </c>
       <c r="BA18" s="5">
@@ -4865,54 +5046,61 @@
       </c>
       <c r="BF18" s="5">
         <f t="shared" si="79"/>
-        <v>0.58592692828146142</v>
-      </c>
-      <c r="BP18" s="5">
-        <f>+BP3/BO3-1</f>
+        <v>0.59064952638700952</v>
+      </c>
+      <c r="BG18" s="5">
+        <f>+BG3/BC3-1</f>
+        <v>0.40171184371184365</v>
+      </c>
+      <c r="BH18" s="5"/>
+      <c r="BI18" s="5"/>
+      <c r="BJ18" s="5"/>
+      <c r="BT18" s="5">
+        <f>+BT3/BS3-1</f>
         <v>0.39999999999999991</v>
       </c>
-      <c r="BQ18" s="5">
-        <f>+BQ3/BP3-1</f>
+      <c r="BU18" s="5">
+        <f>+BU3/BT3-1</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="BR18" s="5">
-        <f>+BR3/BQ3-1</f>
+      <c r="BV18" s="5">
+        <f>+BV3/BU3-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="BS18" s="5">
-        <f t="shared" ref="BS18:BU18" si="80">+BS3/BR3-1</f>
+      <c r="BW18" s="5">
+        <f t="shared" ref="BW18:BY18" si="80">+BW3/BV3-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="BT18" s="5">
+      <c r="BX18" s="5">
         <f t="shared" si="80"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="BU18" s="5">
+      <c r="BY18" s="5">
         <f t="shared" si="80"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="BV18" s="5">
-        <f t="shared" ref="BV18:BZ18" si="81">+BV3/BU3-1</f>
+      <c r="BZ18" s="5">
+        <f t="shared" ref="BZ18:CD18" si="81">+BZ3/BY3-1</f>
         <v>0.14999999999999991</v>
       </c>
-      <c r="BW18" s="5">
+      <c r="CA18" s="5">
         <f t="shared" si="81"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="BX18" s="5">
+      <c r="CB18" s="5">
         <f t="shared" si="81"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="BY18" s="5">
+      <c r="CC18" s="5">
         <f t="shared" si="81"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="BZ18" s="5">
+      <c r="CD18" s="5">
         <f t="shared" si="81"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:82" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
         <v>102</v>
       </c>
@@ -4969,63 +5157,70 @@
         <v>0.53638059701492535</v>
       </c>
       <c r="BE19" s="5">
-        <f t="shared" ref="BE19:BF19" si="85">+BE5/BE3</f>
+        <f t="shared" ref="BE19:BG19" si="85">+BE5/BE3</f>
         <v>0.55999999999999994</v>
       </c>
       <c r="BF19" s="5">
         <f t="shared" si="85"/>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="BO19" s="5">
-        <f t="shared" ref="BO19:BR19" si="86">+BO5/BO3</f>
-        <v>0.54338829151732382</v>
-      </c>
-      <c r="BP19" s="5">
+        <v>0.53877957277390709</v>
+      </c>
+      <c r="BG19" s="5">
+        <f t="shared" si="85"/>
+        <v>0.5321872261546583</v>
+      </c>
+      <c r="BH19" s="5"/>
+      <c r="BI19" s="5"/>
+      <c r="BJ19" s="5"/>
+      <c r="BS19" s="5">
+        <f t="shared" ref="BS19:BV19" si="86">+BS5/BS3</f>
+        <v>0.53185038044736888</v>
+      </c>
+      <c r="BT19" s="5">
         <f t="shared" si="86"/>
         <v>0.57999999999999996</v>
       </c>
-      <c r="BQ19" s="5">
+      <c r="BU19" s="5">
         <f t="shared" si="86"/>
         <v>0.6</v>
       </c>
-      <c r="BR19" s="5">
+      <c r="BV19" s="5">
         <f t="shared" si="86"/>
-        <v>0.62</v>
-      </c>
-      <c r="BS19" s="5">
-        <f t="shared" ref="BS19:BU19" si="87">+BS5/BS3</f>
+        <v>0.62000000000000011</v>
+      </c>
+      <c r="BW19" s="5">
+        <f t="shared" ref="BW19:BY19" si="87">+BW5/BW3</f>
         <v>0.63</v>
       </c>
-      <c r="BT19" s="5">
+      <c r="BX19" s="5">
         <f t="shared" si="87"/>
         <v>0.64</v>
       </c>
-      <c r="BU19" s="5">
+      <c r="BY19" s="5">
         <f t="shared" si="87"/>
         <v>0.65</v>
       </c>
-      <c r="BV19" s="5">
-        <f t="shared" ref="BV19:BZ19" si="88">+BV5/BV3</f>
-        <v>0.65</v>
-      </c>
-      <c r="BW19" s="5">
+      <c r="BZ19" s="5">
+        <f t="shared" ref="BZ19:CD19" si="88">+BZ5/BZ3</f>
+        <v>0.65000000000000013</v>
+      </c>
+      <c r="CA19" s="5">
         <f t="shared" si="88"/>
         <v>0.65</v>
       </c>
-      <c r="BX19" s="5">
+      <c r="CB19" s="5">
         <f t="shared" si="88"/>
         <v>0.65</v>
       </c>
-      <c r="BY19" s="5">
+      <c r="CC19" s="5">
         <f t="shared" si="88"/>
         <v>0.65</v>
       </c>
-      <c r="BZ19" s="5">
+      <c r="CD19" s="5">
         <f t="shared" si="88"/>
         <v>0.65</v>
       </c>
     </row>
-    <row r="21" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:82" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>93</v>
       </c>
@@ -5033,129 +5228,145 @@
         <f>+BD22-BD36</f>
         <v>-42.830000000000013</v>
       </c>
-      <c r="BE21" s="6">
-        <f>+BD21+BE14</f>
-        <v>1.8919999999999888</v>
-      </c>
-      <c r="BF21" s="6">
-        <f>+BE21+BF14</f>
-        <v>51.757999999999988</v>
-      </c>
-      <c r="BO21" s="6">
+      <c r="BE21" s="6"/>
+      <c r="BF21" s="6"/>
+      <c r="BG21" s="6">
+        <f>+BG22-BG36</f>
+        <v>-0.90200000000000102</v>
+      </c>
+      <c r="BH21" s="6"/>
+      <c r="BI21" s="6"/>
+      <c r="BJ21" s="6"/>
+      <c r="BS21" s="6">
         <f>+BF21</f>
-        <v>51.757999999999988</v>
-      </c>
-      <c r="BP21" s="6">
-        <f>+BO21+BP14</f>
-        <v>249.71817499999992</v>
-      </c>
-      <c r="BQ21" s="6">
-        <f t="shared" ref="BQ21:BU21" si="89">+BP21+BQ14</f>
-        <v>537.10213156249984</v>
-      </c>
-      <c r="BR21" s="6">
+        <v>0</v>
+      </c>
+      <c r="BT21" s="6">
+        <f>+BS21+BT14</f>
+        <v>190.55991599999993</v>
+      </c>
+      <c r="BU21" s="6">
+        <f t="shared" ref="BU21:BY21" si="89">+BT21+BU14</f>
+        <v>469.77220634999992</v>
+      </c>
+      <c r="BV21" s="6">
         <f t="shared" si="89"/>
-        <v>911.05014899609353</v>
-      </c>
-      <c r="BS21" s="6">
+        <v>834.68681327812499</v>
+      </c>
+      <c r="BW21" s="6">
         <f t="shared" si="89"/>
-        <v>1385.1291078334471</v>
-      </c>
-      <c r="BT21" s="6">
+        <v>1298.7850578730545</v>
+      </c>
+      <c r="BX21" s="6">
         <f t="shared" si="89"/>
-        <v>1956.3494402522012</v>
-      </c>
-      <c r="BU21" s="6">
+        <v>1858.968188109194</v>
+      </c>
+      <c r="BY21" s="6">
         <f t="shared" si="89"/>
-        <v>2642.0690793141584</v>
-      </c>
-      <c r="BV21" s="6">
-        <f t="shared" ref="BV21:BZ21" si="90">+BU21+BV14</f>
-        <v>3450.0953893286892</v>
-      </c>
-      <c r="BW21" s="6">
+        <v>2532.4911167456385</v>
+      </c>
+      <c r="BZ21" s="6">
+        <f t="shared" ref="BZ21:CD21" si="90">+BY21+BZ14</f>
+        <v>3327.0383332434894</v>
+      </c>
+      <c r="CA21" s="6">
         <f t="shared" si="90"/>
-        <v>4359.31755792279</v>
-      </c>
-      <c r="BX21" s="6">
+        <v>4221.3389503219987</v>
+      </c>
+      <c r="CB21" s="6">
         <f t="shared" si="90"/>
-        <v>5380.6199169885967</v>
-      </c>
-      <c r="BY21" s="6">
+        <v>5226.1295084991407</v>
+      </c>
+      <c r="CC21" s="6">
         <f t="shared" si="90"/>
-        <v>6476.8052967215935</v>
-      </c>
-      <c r="BZ21" s="6">
+        <v>6304.0091062658794</v>
+      </c>
+      <c r="CD21" s="6">
         <f t="shared" si="90"/>
-        <v>7651.8802979739139</v>
+        <v>7458.7975399178167</v>
       </c>
     </row>
-    <row r="22" spans="2:78" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:82" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="11" t="s">
         <v>3</v>
       </c>
       <c r="BD22" s="6">
         <v>88.244</v>
       </c>
+      <c r="BG22" s="6">
+        <v>71.625</v>
+      </c>
     </row>
-    <row r="23" spans="2:78" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:82" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
         <v>78</v>
       </c>
       <c r="BD23" s="6">
         <v>30.113</v>
       </c>
-      <c r="BY23" s="2" t="s">
+      <c r="BG23" s="6">
+        <v>99.412000000000006</v>
+      </c>
+      <c r="CC23" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="BZ23" s="5">
+      <c r="CD23" s="5">
         <v>0.05</v>
       </c>
     </row>
-    <row r="24" spans="2:78" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:82" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
         <v>79</v>
       </c>
       <c r="BD24" s="6">
         <v>179.81</v>
       </c>
-      <c r="BY24" s="2" t="s">
+      <c r="BG24" s="6">
+        <v>172.18799999999999</v>
+      </c>
+      <c r="CC24" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="BZ24" s="5">
-        <v>0.1</v>
+      <c r="CD24" s="5">
+        <v>0.09</v>
       </c>
     </row>
-    <row r="25" spans="2:78" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:82" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
         <v>80</v>
       </c>
       <c r="BD25" s="11">
         <v>5.524</v>
       </c>
-      <c r="BY25" s="2" t="s">
+      <c r="BG25" s="6">
+        <v>8.5890000000000004</v>
+      </c>
+      <c r="CC25" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="BZ25" s="5">
+      <c r="CD25" s="5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="2:78" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:82" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="11" t="s">
         <v>81</v>
       </c>
       <c r="BD26" s="11">
         <v>54.326000000000001</v>
       </c>
-      <c r="BY26" s="2" t="s">
+      <c r="BG26" s="6">
+        <v>57.71</v>
+      </c>
+      <c r="CC26" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BZ26" s="6">
-        <f>NPV(BZ24,BP14:ID14)</f>
-        <v>8492.3352684623715</v>
+      <c r="CD26" s="6">
+        <f>NPV(CD24,BT14:IH14)</f>
+        <v>9684.8650259456936</v>
       </c>
     </row>
-    <row r="27" spans="2:78" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:82" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="11" t="s">
         <v>82</v>
       </c>
@@ -5163,31 +5374,42 @@
         <f>0.479+3.53</f>
         <v>4.0089999999999995</v>
       </c>
-      <c r="BY27" s="6" t="s">
+      <c r="BG27" s="6">
+        <f>0.452+3.53</f>
+        <v>3.9819999999999998</v>
+      </c>
+      <c r="CC27" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="BZ27" s="21">
-        <f>+BZ26/Main!L3</f>
-        <v>35.092294497778397</v>
+      <c r="CD27" s="21">
+        <f>+CD26/Main!L3</f>
+        <v>40.020103412998736</v>
       </c>
     </row>
-    <row r="28" spans="2:78" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:82" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="11" t="s">
         <v>83</v>
       </c>
       <c r="BD28" s="11">
         <v>9.1519999999999992</v>
       </c>
+      <c r="BG28" s="6">
+        <v>8.02</v>
+      </c>
     </row>
-    <row r="29" spans="2:78" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:82" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="11" t="s">
         <v>84</v>
       </c>
       <c r="BD29" s="11">
         <v>5.2210000000000001</v>
       </c>
+      <c r="BG29" s="6">
+        <f>8.188+80.855</f>
+        <v>89.043000000000006</v>
+      </c>
     </row>
-    <row r="30" spans="2:78" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:82" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
         <v>85</v>
       </c>
@@ -5195,25 +5417,43 @@
         <f>SUM(BD22:BD29)</f>
         <v>376.39900000000006</v>
       </c>
+      <c r="BE30" s="6">
+        <f>SUM(BE22:BE29)</f>
+        <v>0</v>
+      </c>
+      <c r="BF30" s="6">
+        <f>SUM(BF22:BF29)</f>
+        <v>0</v>
+      </c>
+      <c r="BG30" s="6">
+        <f>SUM(BG22:BG29)</f>
+        <v>510.56900000000002</v>
+      </c>
     </row>
-    <row r="31" spans="2:78" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:78" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:82" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:82" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
         <v>86</v>
       </c>
       <c r="BD32" s="6">
         <v>14.179</v>
       </c>
+      <c r="BG32" s="6">
+        <v>20.606999999999999</v>
+      </c>
     </row>
-    <row r="33" spans="2:56" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:59" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
         <v>87</v>
       </c>
       <c r="BD33" s="11">
         <v>27.725999999999999</v>
       </c>
+      <c r="BG33" s="6">
+        <v>31.56</v>
+      </c>
     </row>
-    <row r="34" spans="2:56" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:59" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="11" t="s">
         <v>88</v>
       </c>
@@ -5221,8 +5461,12 @@
         <f>1.13+1.619</f>
         <v>2.7489999999999997</v>
       </c>
+      <c r="BG34" s="6">
+        <f>1.512+0.143</f>
+        <v>1.655</v>
+      </c>
     </row>
-    <row r="35" spans="2:56" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:59" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
         <v>89</v>
       </c>
@@ -5230,46 +5474,74 @@
         <f>1.142+9.182</f>
         <v>10.324</v>
       </c>
+      <c r="BG35" s="6">
+        <f>8.298+1.188</f>
+        <v>9.4860000000000007</v>
+      </c>
     </row>
-    <row r="36" spans="2:56" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:59" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="11" t="s">
         <v>4</v>
       </c>
       <c r="BD36" s="6">
         <v>131.07400000000001</v>
       </c>
+      <c r="BG36" s="6">
+        <v>72.527000000000001</v>
+      </c>
     </row>
-    <row r="37" spans="2:56" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:59" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="11" t="s">
         <v>90</v>
       </c>
       <c r="BD37" s="11">
         <v>1.6879999999999999</v>
       </c>
+      <c r="BG37" s="6">
+        <v>1.3129999999999999</v>
+      </c>
     </row>
-    <row r="38" spans="2:56" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:59" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="11" t="s">
         <v>92</v>
       </c>
       <c r="BD38" s="11">
         <v>0.39</v>
       </c>
+      <c r="BG38" s="6">
+        <v>2E-3</v>
+      </c>
     </row>
-    <row r="39" spans="2:56" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:59" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="11" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="BD39" s="11">
         <v>188.26900000000001</v>
       </c>
+      <c r="BG39" s="6">
+        <v>373.41899999999998</v>
+      </c>
     </row>
-    <row r="40" spans="2:56" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:59" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="BD40" s="6">
         <f>SUM(BD32:BD39)</f>
         <v>376.399</v>
+      </c>
+      <c r="BE40" s="6">
+        <f>SUM(BE32:BE39)</f>
+        <v>0</v>
+      </c>
+      <c r="BF40" s="6">
+        <f>SUM(BF32:BF39)</f>
+        <v>0</v>
+      </c>
+      <c r="BG40" s="6">
+        <f>SUM(BG32:BG39)</f>
+        <v>510.56899999999996</v>
       </c>
     </row>
   </sheetData>
@@ -5278,5 +5550,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>